--- a/02 DESARROLLO/DSEVI/01 Sprint 1/01 Planificación y Análisis/DSEVI-CP.xlsx
+++ b/02 DESARROLLO/DSEVI/01 Sprint 1/01 Planificación y Análisis/DSEVI-CP.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj3QCUXTk++yDpTJtvFoKzzZQC88w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjYTkJS/MtcLouSoeLKOGWPVCnavA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -24,7 +24,7 @@
     <t>Ruta del repositorio del proyecto:</t>
   </si>
   <si>
-    <t>https://github.com/isaacNull/Soft-Home.git</t>
+    <t>https://github.com/Garuel/SoftHome</t>
   </si>
   <si>
     <t>Grupo:</t>
@@ -54,6 +54,12 @@
     <t>David Villacis Alvear</t>
   </si>
   <si>
+    <t>Cuando son mismos documentos puede se : 
+DSEVI-ECU-01.docx, DSEVI-ECU-02.docx
+Si se repite Analisis o arquitectura 
+DSEVI-ARD.docx, DSEVI-AND.docx</t>
+  </si>
+  <si>
     <t>Actividad</t>
   </si>
   <si>
@@ -93,154 +99,259 @@
     <t>Project Charter</t>
   </si>
   <si>
+    <t>DSEVI-PC.docx</t>
+  </si>
+  <si>
+    <t>Leoncio</t>
+  </si>
+  <si>
     <t>Definir el cronograma del proyecto</t>
   </si>
   <si>
     <t>Cronograma</t>
   </si>
   <si>
+    <t>DSEVI-CP.xlsx</t>
+  </si>
+  <si>
+    <t>Jhon, Isaac</t>
+  </si>
+  <si>
     <t>Definir Historias de Usuarios</t>
   </si>
   <si>
+    <t xml:space="preserve">Documento de historias de usuario </t>
+  </si>
+  <si>
+    <t>DSEVI-HU.docx</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Crear y configurar el repositorio del proyecto</t>
+  </si>
+  <si>
+    <t>Repositorio GitHub</t>
+  </si>
+  <si>
+    <t>Isaac, Sebastian</t>
+  </si>
+  <si>
+    <t>DISEÑO</t>
+  </si>
+  <si>
+    <t>Semana 6</t>
+  </si>
+  <si>
+    <t>Prototipar las interfaces web del proyecto</t>
+  </si>
+  <si>
+    <t>Mockups y prototipos de las interfaces web</t>
+  </si>
+  <si>
+    <t>DSEVI-MPIW.docx</t>
+  </si>
+  <si>
+    <t>Jorge Armando</t>
+  </si>
+  <si>
+    <t>Diseñar la base de datos del proyecto</t>
+  </si>
+  <si>
+    <t>Documento de Especificación de la Base de Datos</t>
+  </si>
+  <si>
+    <t>DSEVI-DEBD.docx</t>
+  </si>
+  <si>
+    <t>Diseñar la arquitectura del proyecto</t>
+  </si>
+  <si>
+    <t>Documento de Arquitectura del Software</t>
+  </si>
+  <si>
+    <t>DSEVI-DAS.docx</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Revisión y retrospecetiva de la fase de análisis y diseño</t>
+  </si>
+  <si>
+    <t>Reporte del sprint 1</t>
+  </si>
+  <si>
+    <t>DSEVI-RS1.docx</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>HITO 1</t>
+  </si>
+  <si>
+    <t>DESARROLLO</t>
+  </si>
+  <si>
+    <t>Semana 9</t>
+  </si>
+  <si>
+    <t>Desarrollar Página de incio</t>
+  </si>
+  <si>
+    <t>Módulo de página de inicio</t>
+  </si>
+  <si>
+    <t>pagina-inicio.html</t>
+  </si>
+  <si>
+    <t>Jhon, David</t>
+  </si>
+  <si>
+    <t>Desarrollar catálogo de videojuegos / bienes digitales</t>
+  </si>
+  <si>
+    <t>Módulo de catálogo</t>
+  </si>
+  <si>
+    <t>pagina-catalogo.html</t>
+  </si>
+  <si>
+    <t>Sebastian, David</t>
+  </si>
+  <si>
+    <t>Desarrollar sistema de compra</t>
+  </si>
+  <si>
+    <t>Módulo de Compra</t>
+  </si>
+  <si>
+    <t>pagina-compra.html</t>
+  </si>
+  <si>
+    <t>Sebastian, Isaac</t>
+  </si>
+  <si>
+    <t>Desarrollar sistema de donaciones</t>
+  </si>
+  <si>
+    <t>Módulo de donaciones</t>
+  </si>
+  <si>
+    <t>pagina-donaciones.html</t>
+  </si>
+  <si>
+    <t>David, Jorge</t>
+  </si>
+  <si>
+    <t>Desarrollar sección de comentarios</t>
+  </si>
+  <si>
+    <t>Módulo de comentarios</t>
+  </si>
+  <si>
+    <t>pagina-comentarios.html</t>
+  </si>
+  <si>
+    <t>Jhon, David, Jorge</t>
+  </si>
+  <si>
+    <t>Desarrollar autenticación de usuarios</t>
+  </si>
+  <si>
+    <t>Módulo de login</t>
+  </si>
+  <si>
+    <t>pagina-login.html</t>
+  </si>
+  <si>
+    <t>Desarrollar Dashboard</t>
+  </si>
+  <si>
+    <t>Módulo Dashboard</t>
+  </si>
+  <si>
+    <t>pagina-Dashboard.html</t>
+  </si>
+  <si>
+    <t>Revisión y retrospecetiva de la fase de desarrollo</t>
+  </si>
+  <si>
+    <t>Reporte del sprint 2</t>
+  </si>
+  <si>
+    <t>DSEVI-RS2.docx</t>
+  </si>
+  <si>
+    <t>HITO 2</t>
+  </si>
+  <si>
+    <t>PRUEBAS</t>
+  </si>
+  <si>
+    <t>Semana 10</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de ambiente</t>
+  </si>
+  <si>
+    <t>Documento de Plan de Pruebas de Sotware</t>
+  </si>
+  <si>
+    <t>DSEVI-PPS.docx</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Realizar pruebas unitarias</t>
+  </si>
+  <si>
+    <t>DESPLIEGUE</t>
+  </si>
+  <si>
+    <t>Semana 11</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar las HU del Product Backlog</t>
+  </si>
+  <si>
     <t>Product Backlog</t>
   </si>
   <si>
-    <t>Crear y configurar el repositorio del proyecto</t>
-  </si>
-  <si>
-    <t>Repositorio GitHub</t>
-  </si>
-  <si>
-    <t>DISEÑO</t>
-  </si>
-  <si>
-    <t>Semana 6</t>
-  </si>
-  <si>
-    <t>Prototipar las interfaces web del proyecto</t>
-  </si>
-  <si>
-    <t>Mockups y prototipos de las interfaces web</t>
-  </si>
-  <si>
-    <t>Diseñar la base de datos del proyecto</t>
-  </si>
-  <si>
-    <t>Documento de Especificación de la Base de Datos</t>
-  </si>
-  <si>
-    <t>Diseñar la arquitectura del proyecto</t>
-  </si>
-  <si>
-    <t>Documento de Arquitectura del Software</t>
-  </si>
-  <si>
-    <t>Revisión y retrospecetiva de la fase de análisis y diseño</t>
-  </si>
-  <si>
-    <t>Reporte del sprint 1</t>
-  </si>
-  <si>
-    <t>HITO 1</t>
-  </si>
-  <si>
-    <t>DESARROLLO</t>
-  </si>
-  <si>
-    <t>Semana 9</t>
-  </si>
-  <si>
-    <t>Desarrollar Página de incio</t>
-  </si>
-  <si>
-    <t>Módulo de página de inicio</t>
-  </si>
-  <si>
-    <t>Desarrollar catálogo de videojuegos / bienes digitales</t>
-  </si>
-  <si>
-    <t>Módulo de catálogo</t>
-  </si>
-  <si>
-    <t>Desarrollar sistema de compra</t>
-  </si>
-  <si>
-    <t>Módulo de Compra</t>
-  </si>
-  <si>
-    <t>Desarrollar sistema de donaciones</t>
-  </si>
-  <si>
-    <t>Módulo de donaciones</t>
-  </si>
-  <si>
-    <t>Desarrollar sección de comentarios</t>
-  </si>
-  <si>
-    <t>Módulo de comentarios</t>
-  </si>
-  <si>
-    <t>Desarrollar autenticación de usuarios</t>
-  </si>
-  <si>
-    <t>Módulo de login</t>
-  </si>
-  <si>
-    <t>Desarrollar Dashboard</t>
-  </si>
-  <si>
-    <t>Módulo Dashboard</t>
-  </si>
-  <si>
-    <t>Revisión y retrospecetiva de la fase de desarrollo</t>
-  </si>
-  <si>
-    <t>Reporte del sprint 2</t>
-  </si>
-  <si>
-    <t>HITO 2</t>
-  </si>
-  <si>
-    <t>PRUEBAS</t>
-  </si>
-  <si>
-    <t>Semana 10</t>
-  </si>
-  <si>
-    <t>Realizar pruebas de ambiente</t>
-  </si>
-  <si>
-    <t>Documento de Plan de Pruebas de Sotware</t>
-  </si>
-  <si>
-    <t>Realizar pruebas unitarias</t>
-  </si>
-  <si>
-    <t>DESPLIEGUE</t>
-  </si>
-  <si>
-    <t>Semana 11</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar las HU del Product Backlog</t>
+    <t>DSEVI-PB.docx</t>
   </si>
   <si>
     <t>Verificar y finalizar el diagrama de la base de datos</t>
   </si>
   <si>
+    <t>Isaac</t>
+  </si>
+  <si>
     <t>Verificar y finalizar la arquitectura de software y diseño de software</t>
   </si>
   <si>
+    <t>Jhon</t>
+  </si>
+  <si>
     <t>Realizar despliegue del proyecto</t>
   </si>
   <si>
     <t xml:space="preserve">Documento de plan de despliegue </t>
   </si>
   <si>
+    <t>DSEVI-PD.docx</t>
+  </si>
+  <si>
     <t>Revisión y retrospecetiva de la fase de pruebas y despliegue</t>
   </si>
   <si>
     <t>Reporte del sprint 3</t>
+  </si>
+  <si>
+    <t>DSEVI-RS3.docx</t>
   </si>
   <si>
     <t>HITO 3</t>
@@ -254,7 +365,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -264,6 +375,7 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -279,7 +391,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0563C1"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -309,7 +421,22 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -370,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border/>
     <border>
       <left/>
@@ -393,9 +520,11 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </left>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -404,6 +533,14 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -426,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -439,18 +576,31 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -473,7 +623,10 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,37 +637,74 @@
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="3" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="6" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -857,679 +1047,771 @@
     </row>
     <row r="20">
       <c r="B20" s="1"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="H21" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="I21" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="24">
+      <c r="C23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="27">
         <v>44818.0</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="27">
         <v>44825.0</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="28">
         <f t="shared" ref="H23:H26" si="1">G23-F23-INT((G23-F23-WEEKDAY(G23)+1)/7)</f>
         <v>7</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="29">
         <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="24">
+      <c r="B24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="27">
         <v>44820.0</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="27">
         <v>44825.0</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="29">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="24">
+      <c r="B25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="27">
         <v>44825.0</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="27">
         <v>44832.0</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I25" s="27">
-        <v>0.0</v>
+      <c r="I25" s="33">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="24">
+      <c r="B26" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="27">
         <v>44823.0</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="27">
         <v>44827.0</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="29">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="B27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="24">
+      <c r="B28" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="27">
         <v>44841.0</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="27">
         <v>44846.0</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="28">
         <f t="shared" ref="H28:H31" si="2">G28-F28-INT((G28-F28-WEEKDAY(G28)+1)/7)</f>
         <v>5</v>
       </c>
-      <c r="I28" s="27">
-        <v>0.0</v>
+      <c r="I28" s="33">
+        <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="24">
+      <c r="B29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="27">
         <v>44841.0</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="27">
         <v>44848.0</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="24">
+      <c r="B30" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="27">
         <v>44842.0</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="27">
         <v>44850.0</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="24">
+      <c r="B31" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="27">
         <v>44843.0</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="27">
         <v>44853.0</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="B32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="B33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="35">
+      <c r="B34" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="44">
         <v>44853.0</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="44">
+        <v>44871.0</v>
+      </c>
+      <c r="H34" s="28">
+        <f t="shared" ref="H34:H41" si="3">G34-F34-INT((G34-F34-WEEKDAY(G34)+1)/7)</f>
+        <v>16</v>
+      </c>
+      <c r="I34" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="44">
+        <v>44853.0</v>
+      </c>
+      <c r="G35" s="44">
+        <v>44871.0</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I35" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="44">
         <v>44860.0</v>
       </c>
-      <c r="H34" s="25">
-        <f t="shared" ref="H34:H41" si="3">G34-F34-INT((G34-F34-WEEKDAY(G34)+1)/7)</f>
-        <v>7</v>
-      </c>
-      <c r="I34" s="27">
+      <c r="G36" s="44">
+        <v>44880.0</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I36" s="35">
         <v>0.0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="35">
-        <v>44853.0</v>
-      </c>
-      <c r="G35" s="35">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="44">
         <v>44860.0</v>
       </c>
-      <c r="H35" s="25">
+      <c r="G37" s="44">
+        <v>44880.0</v>
+      </c>
+      <c r="H37" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I35" s="27">
+        <v>18</v>
+      </c>
+      <c r="I37" s="35">
         <v>0.0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="35">
-        <v>44860.0</v>
-      </c>
-      <c r="G36" s="35">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="44">
         <v>44867.0</v>
       </c>
-      <c r="H36" s="25">
+      <c r="G38" s="44">
+        <v>44880.0</v>
+      </c>
+      <c r="H38" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I36" s="27">
+        <v>12</v>
+      </c>
+      <c r="I38" s="35">
         <v>0.0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="35">
-        <v>44860.0</v>
-      </c>
-      <c r="G37" s="35">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="44">
         <v>44867.0</v>
       </c>
-      <c r="H37" s="25">
+      <c r="G39" s="44">
+        <v>44880.0</v>
+      </c>
+      <c r="H39" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I37" s="27">
+        <v>12</v>
+      </c>
+      <c r="I39" s="35">
         <v>0.0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="35">
-        <v>44867.0</v>
-      </c>
-      <c r="G38" s="35">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="44">
         <v>44874.0</v>
       </c>
-      <c r="H38" s="25">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I38" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="35">
-        <v>44867.0</v>
-      </c>
-      <c r="G39" s="35">
-        <v>44874.0</v>
-      </c>
-      <c r="H39" s="25">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I39" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="35">
-        <v>44874.0</v>
-      </c>
-      <c r="G40" s="35">
+      <c r="G40" s="44">
         <v>44880.0</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="28">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="35">
+      <c r="B41" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="44">
         <v>44880.0</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="44">
         <v>44883.0</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="28">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
+      <c r="B42" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="B43" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="35">
+      <c r="B44" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="45">
         <v>44883.0</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="45">
         <v>44885.0</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="28">
         <f t="shared" ref="H44:H45" si="4">G44-F44-INT((G44-F44-WEEKDAY(G44)+1)/7)</f>
         <v>2</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="35">
+      <c r="B45" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="45">
         <v>44883.0</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="45">
         <v>44885.0</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="28">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="B46" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="35">
+      <c r="B47" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="45">
         <v>44885.0</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="45">
         <v>44890.0</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="28">
         <f t="shared" ref="H47:H51" si="5">G47-F47-INT((G47-F47-WEEKDAY(G47)+1)/7)</f>
         <v>5</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="35">
+      <c r="B48" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="45">
         <v>44885.0</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="45">
         <v>44890.0</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="28">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="35">
+      <c r="B49" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="45">
         <v>44885.0</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="45">
         <v>44890.0</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="28">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="35">
+      <c r="B50" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="45">
         <v>44885.0</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="45">
         <v>44890.0</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="28">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="35">
+      <c r="B51" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="45">
         <v>44885.0</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="45">
         <v>44890.0</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H51" s="28">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I51" s="35">
         <v>0.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
+      <c r="B52" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="41"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="1"/>

--- a/02 DESARROLLO/DSEVI/01 Sprint 1/01 Planificación y Análisis/DSEVI-CP.xlsx
+++ b/02 DESARROLLO/DSEVI/01 Sprint 1/01 Planificación y Análisis/DSEVI-CP.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAE188D-8F36-4CF1-8C76-379637D1627F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjYTkJS/MtcLouSoeLKOGWPVCnavA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miNrZ9tPzLjuFrahEF4G1sxQcxZHA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="123">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -54,12 +74,6 @@
     <t>David Villacis Alvear</t>
   </si>
   <si>
-    <t>Cuando son mismos documentos puede se : 
-DSEVI-ECU-01.docx, DSEVI-ECU-02.docx
-Si se repite Analisis o arquitectura 
-DSEVI-ARD.docx, DSEVI-AND.docx</t>
-  </si>
-  <si>
     <t>Actividad</t>
   </si>
   <si>
@@ -120,15 +134,51 @@
     <t>Definir Historias de Usuarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Documento de historias de usuario </t>
-  </si>
-  <si>
-    <t>DSEVI-HU.docx</t>
+    <t>Documentos de historias de usuario 1</t>
+  </si>
+  <si>
+    <t>DSEVI-HU1.docx</t>
   </si>
   <si>
     <t>Sebastian</t>
   </si>
   <si>
+    <t>Documentos de historias de usuario 2</t>
+  </si>
+  <si>
+    <t>DSEVI-HU2.docx</t>
+  </si>
+  <si>
+    <t>Documentos de historias de usuario 3</t>
+  </si>
+  <si>
+    <t>DSEVI-HU3.docx</t>
+  </si>
+  <si>
+    <t>Documentos de historias de usuario 4</t>
+  </si>
+  <si>
+    <t>DSEVI-HU4.docx</t>
+  </si>
+  <si>
+    <t>Documentos de historias de usuario 5</t>
+  </si>
+  <si>
+    <t>DSEVI-HU5.docx</t>
+  </si>
+  <si>
+    <t>Documentos de historias de usuario 6</t>
+  </si>
+  <si>
+    <t>DSEVI-HU6.docx</t>
+  </si>
+  <si>
+    <t>Documentos de historias de usuario 7</t>
+  </si>
+  <si>
+    <t>DSEVI-HU7.docx</t>
+  </si>
+  <si>
     <t>Crear y configurar el repositorio del proyecto</t>
   </si>
   <si>
@@ -198,7 +248,7 @@
     <t>Semana 9</t>
   </si>
   <si>
-    <t>Desarrollar Página de incio</t>
+    <t>Desarrollar Página de inicio</t>
   </si>
   <si>
     <t>Módulo de página de inicio</t>
@@ -276,7 +326,7 @@
     <t>pagina-Dashboard.html</t>
   </si>
   <si>
-    <t>Revisión y retrospecetiva de la fase de desarrollo</t>
+    <t>Revisión y retrospectiva de la fase de desarrollo</t>
   </si>
   <si>
     <t>Reporte del sprint 2</t>
@@ -360,99 +410,111 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="36.0"/>
+      <sz val="36"/>
       <color rgb="FF131930"/>
       <name val="Open Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
-    <font/>
   </fonts>
   <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -497,13 +559,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
-    <border/>
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -518,37 +587,80 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -558,167 +670,169 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="57">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -908,4748 +1022,4904 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I1014"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="46.71"/>
-    <col customWidth="1" min="3" max="3" width="45.0"/>
-    <col customWidth="1" min="4" max="4" width="19.43"/>
-    <col customWidth="1" min="5" max="5" width="18.86"/>
-    <col customWidth="1" min="6" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="7" width="16.14"/>
-    <col customWidth="1" min="8" max="8" width="10.71"/>
-    <col customWidth="1" min="9" max="9" width="62.0"/>
-    <col customWidth="1" min="10" max="26" width="10.71"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="62" customWidth="1"/>
+    <col min="10" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:9" ht="14.4">
       <c r="B1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="2:9" ht="14.4" hidden="1">
       <c r="B2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:9" ht="30.6" customHeight="1">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="2:9" ht="14.4">
       <c r="B4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="2:9" ht="14.4">
       <c r="B5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:9" ht="15.6">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" ht="3.75" customHeight="1">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:9" ht="3.75" customHeight="1">
+      <c r="B7" s="4"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:9" ht="15.6">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
-        <v>2.0</v>
+      <c r="C8" s="5">
+        <v>2</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" ht="3.75" customHeight="1">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:9" ht="3.75" customHeight="1">
+      <c r="B9" s="4"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:9" ht="15.6">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" ht="5.25" customHeight="1">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:9" ht="5.25" customHeight="1">
+      <c r="B11" s="4"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:9" ht="15.6">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" ht="6.0" customHeight="1">
-      <c r="B13" s="5"/>
+    <row r="13" spans="2:9" ht="6" customHeight="1">
+      <c r="B13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:9" ht="15.6">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9">
-        <v>44818.0</v>
+      <c r="C14" s="8">
+        <v>44818</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" ht="4.5" customHeight="1">
-      <c r="B15" s="5"/>
+    <row r="15" spans="2:9" ht="4.5" customHeight="1">
+      <c r="B15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:9" ht="15.6">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10">
-        <v>44890.0</v>
+      <c r="C16" s="9">
+        <v>44890</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:9" ht="14.4">
       <c r="B17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:9" ht="14.4">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:9" ht="14.4">
       <c r="B19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:9" ht="14.4">
       <c r="B20" s="1"/>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="16" t="s">
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="F23" s="26">
+        <v>44818</v>
+      </c>
+      <c r="G23" s="26">
+        <v>44825</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" ref="H23:H32" si="0">G23-F23-INT((G23-F23-WEEKDAY(G23)+1)/7)</f>
+        <v>7</v>
+      </c>
+      <c r="I23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B24" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="27">
-        <v>44818.0</v>
-      </c>
-      <c r="G23" s="27">
-        <v>44825.0</v>
-      </c>
-      <c r="H23" s="28">
-        <f t="shared" ref="H23:H26" si="1">G23-F23-INT((G23-F23-WEEKDAY(G23)+1)/7)</f>
+      <c r="C24" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="26">
+        <v>44820</v>
+      </c>
+      <c r="G24" s="26">
+        <v>44825</v>
+      </c>
+      <c r="H24" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B25" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="26">
+        <v>44825</v>
+      </c>
+      <c r="G25" s="26">
+        <v>44832</v>
+      </c>
+      <c r="H25" s="27">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I23" s="29">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="27">
-        <v>44820.0</v>
-      </c>
-      <c r="G24" s="27">
-        <v>44825.0</v>
-      </c>
-      <c r="H24" s="28">
-        <f t="shared" si="1"/>
+      <c r="I25" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B26" s="52"/>
+      <c r="C26" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="26">
+        <v>44825</v>
+      </c>
+      <c r="G26" s="26">
+        <v>44832</v>
+      </c>
+      <c r="H26" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B27" s="52"/>
+      <c r="C27" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="26">
+        <v>44825</v>
+      </c>
+      <c r="G27" s="26">
+        <v>44832</v>
+      </c>
+      <c r="H27" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I27" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B28" s="52"/>
+      <c r="C28" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="26">
+        <v>44825</v>
+      </c>
+      <c r="G28" s="26">
+        <v>44832</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I28" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B29" s="52"/>
+      <c r="C29" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="26">
+        <v>44825</v>
+      </c>
+      <c r="G29" s="26">
+        <v>44832</v>
+      </c>
+      <c r="H29" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I29" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B30" s="52"/>
+      <c r="C30" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="26">
+        <v>44825</v>
+      </c>
+      <c r="G30" s="26">
+        <v>44832</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I30" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B31" s="53"/>
+      <c r="C31" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="26">
+        <v>44825</v>
+      </c>
+      <c r="G31" s="26">
+        <v>44832</v>
+      </c>
+      <c r="H31" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I31" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="26">
+        <v>44823</v>
+      </c>
+      <c r="G32" s="26">
+        <v>44827</v>
+      </c>
+      <c r="H32" s="27">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I24" s="29">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="27">
-        <v>44825.0</v>
-      </c>
-      <c r="G25" s="27">
-        <v>44832.0</v>
-      </c>
-      <c r="H25" s="28">
+      <c r="I32" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B34" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="26">
+        <v>44841</v>
+      </c>
+      <c r="G34" s="26">
+        <v>44846</v>
+      </c>
+      <c r="H34" s="27">
+        <f t="shared" ref="H34:H37" si="1">G34-F34-INT((G34-F34-WEEKDAY(G34)+1)/7)</f>
+        <v>5</v>
+      </c>
+      <c r="I34" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B35" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="26">
+        <v>44841</v>
+      </c>
+      <c r="G35" s="26">
+        <v>44848</v>
+      </c>
+      <c r="H35" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I25" s="33">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="27">
-        <v>44823.0</v>
-      </c>
-      <c r="G26" s="27">
-        <v>44827.0</v>
-      </c>
-      <c r="H26" s="28">
+      <c r="I35" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B36" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="26">
+        <v>44842</v>
+      </c>
+      <c r="G36" s="26">
+        <v>44850</v>
+      </c>
+      <c r="H36" s="27">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I36" s="37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B37" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="26">
+        <v>44843</v>
+      </c>
+      <c r="G37" s="26">
+        <v>44853</v>
+      </c>
+      <c r="H37" s="27">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I37" s="44">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B38" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B39" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B40" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="43">
+        <v>44853</v>
+      </c>
+      <c r="G40" s="43">
+        <v>44871</v>
+      </c>
+      <c r="H40" s="27">
+        <f t="shared" ref="H40:H47" si="2">G40-F40-INT((G40-F40-WEEKDAY(G40)+1)/7)</f>
+        <v>16</v>
+      </c>
+      <c r="I40" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B41" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="43">
+        <v>44853</v>
+      </c>
+      <c r="G41" s="43">
+        <v>44871</v>
+      </c>
+      <c r="H41" s="27">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I41" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B42" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="43">
+        <v>44860</v>
+      </c>
+      <c r="G42" s="43">
+        <v>44880</v>
+      </c>
+      <c r="H42" s="27">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I42" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="43">
+        <v>44860</v>
+      </c>
+      <c r="G43" s="43">
+        <v>44880</v>
+      </c>
+      <c r="H43" s="27">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I43" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B44" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="43">
+        <v>44867</v>
+      </c>
+      <c r="G44" s="43">
+        <v>44880</v>
+      </c>
+      <c r="H44" s="27">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I44" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B45" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="43">
+        <v>44867</v>
+      </c>
+      <c r="G45" s="43">
+        <v>44880</v>
+      </c>
+      <c r="H45" s="27">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I45" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B46" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="43">
+        <v>44874</v>
+      </c>
+      <c r="G46" s="43">
+        <v>44880</v>
+      </c>
+      <c r="H46" s="27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I46" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B47" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="43">
+        <v>44880</v>
+      </c>
+      <c r="G47" s="43">
+        <v>44883</v>
+      </c>
+      <c r="H47" s="27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I47" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B48" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="56"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B49" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B50" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="45">
+        <v>44883</v>
+      </c>
+      <c r="G50" s="45">
+        <v>44885</v>
+      </c>
+      <c r="H50" s="27">
+        <f t="shared" ref="H50:H51" si="3">G50-F50-INT((G50-F50-WEEKDAY(G50)+1)/7)</f>
+        <v>2</v>
+      </c>
+      <c r="I50" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B51" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="45">
+        <v>44883</v>
+      </c>
+      <c r="G51" s="45">
+        <v>44885</v>
+      </c>
+      <c r="H51" s="27">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I51" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="45">
+        <v>44885</v>
+      </c>
+      <c r="G53" s="45">
+        <v>44890</v>
+      </c>
+      <c r="H53" s="27">
+        <f t="shared" ref="H53:H57" si="4">G53-F53-INT((G53-F53-WEEKDAY(G53)+1)/7)</f>
         <v>5</v>
       </c>
-      <c r="I26" s="29">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="27">
-        <v>44841.0</v>
-      </c>
-      <c r="G28" s="27">
-        <v>44846.0</v>
-      </c>
-      <c r="H28" s="28">
-        <f t="shared" ref="H28:H31" si="2">G28-F28-INT((G28-F28-WEEKDAY(G28)+1)/7)</f>
+      <c r="I53" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B54" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="45">
+        <v>44885</v>
+      </c>
+      <c r="G54" s="45">
+        <v>44890</v>
+      </c>
+      <c r="H54" s="27">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I28" s="33">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="27">
-        <v>44841.0</v>
-      </c>
-      <c r="G29" s="27">
-        <v>44848.0</v>
-      </c>
-      <c r="H29" s="28">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I29" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="27">
-        <v>44842.0</v>
-      </c>
-      <c r="G30" s="27">
-        <v>44850.0</v>
-      </c>
-      <c r="H30" s="28">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I30" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="27">
-        <v>44843.0</v>
-      </c>
-      <c r="G31" s="27">
-        <v>44853.0</v>
-      </c>
-      <c r="H31" s="28">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I31" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="42" t="s">
+      <c r="I54" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D55" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="44">
-        <v>44853.0</v>
-      </c>
-      <c r="G34" s="44">
-        <v>44871.0</v>
-      </c>
-      <c r="H34" s="28">
-        <f t="shared" ref="H34:H41" si="3">G34-F34-INT((G34-F34-WEEKDAY(G34)+1)/7)</f>
-        <v>16</v>
-      </c>
-      <c r="I34" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="34" t="s">
+      <c r="E55" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="45">
+        <v>44885</v>
+      </c>
+      <c r="G55" s="45">
+        <v>44890</v>
+      </c>
+      <c r="H55" s="27">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I55" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="45">
+        <v>44885</v>
+      </c>
+      <c r="G56" s="45">
+        <v>44890</v>
+      </c>
+      <c r="H56" s="27">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I56" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B57" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="44">
-        <v>44853.0</v>
-      </c>
-      <c r="G35" s="44">
-        <v>44871.0</v>
-      </c>
-      <c r="H35" s="28">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I35" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="44">
-        <v>44860.0</v>
-      </c>
-      <c r="G36" s="44">
-        <v>44880.0</v>
-      </c>
-      <c r="H36" s="28">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="I36" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="44">
-        <v>44860.0</v>
-      </c>
-      <c r="G37" s="44">
-        <v>44880.0</v>
-      </c>
-      <c r="H37" s="28">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="I37" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="44">
-        <v>44867.0</v>
-      </c>
-      <c r="G38" s="44">
-        <v>44880.0</v>
-      </c>
-      <c r="H38" s="28">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="I38" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="44">
-        <v>44867.0</v>
-      </c>
-      <c r="G39" s="44">
-        <v>44880.0</v>
-      </c>
-      <c r="H39" s="28">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="I39" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="44">
-        <v>44874.0</v>
-      </c>
-      <c r="G40" s="44">
-        <v>44880.0</v>
-      </c>
-      <c r="H40" s="28">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I40" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="44">
-        <v>44880.0</v>
-      </c>
-      <c r="G41" s="44">
-        <v>44883.0</v>
-      </c>
-      <c r="H41" s="28">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I41" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="45">
-        <v>44883.0</v>
-      </c>
-      <c r="G44" s="45">
-        <v>44885.0</v>
-      </c>
-      <c r="H44" s="28">
-        <f t="shared" ref="H44:H45" si="4">G44-F44-INT((G44-F44-WEEKDAY(G44)+1)/7)</f>
-        <v>2</v>
-      </c>
-      <c r="I44" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="45">
-        <v>44883.0</v>
-      </c>
-      <c r="G45" s="45">
-        <v>44885.0</v>
-      </c>
-      <c r="H45" s="28">
+      <c r="F57" s="45">
+        <v>44885</v>
+      </c>
+      <c r="G57" s="45">
+        <v>44890</v>
+      </c>
+      <c r="H57" s="27">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I45" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="45">
-        <v>44885.0</v>
-      </c>
-      <c r="G47" s="45">
-        <v>44890.0</v>
-      </c>
-      <c r="H47" s="28">
-        <f t="shared" ref="H47:H51" si="5">G47-F47-INT((G47-F47-WEEKDAY(G47)+1)/7)</f>
         <v>5</v>
       </c>
-      <c r="I47" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="45">
-        <v>44885.0</v>
-      </c>
-      <c r="G48" s="45">
-        <v>44890.0</v>
-      </c>
-      <c r="H48" s="28">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I48" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="45">
-        <v>44885.0</v>
-      </c>
-      <c r="G49" s="45">
-        <v>44890.0</v>
-      </c>
-      <c r="H49" s="28">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I49" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="45">
-        <v>44885.0</v>
-      </c>
-      <c r="G50" s="45">
-        <v>44890.0</v>
-      </c>
-      <c r="H50" s="28">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I50" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="45">
-        <v>44885.0</v>
-      </c>
-      <c r="G51" s="45">
-        <v>44890.0</v>
-      </c>
-      <c r="H51" s="28">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I51" s="35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="41"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+      <c r="I57" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="56"/>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
       <c r="B59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
       <c r="B60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
       <c r="B61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
       <c r="B62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="2:9" ht="15.75" customHeight="1">
       <c r="B63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="2:9" ht="15.75" customHeight="1">
       <c r="B64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="2:5" ht="15.75" customHeight="1">
       <c r="B65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="2:5" ht="15.75" customHeight="1">
       <c r="B66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="2:5" ht="15.75" customHeight="1">
       <c r="B67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="2:5" ht="15.75" customHeight="1">
       <c r="B68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="2:5" ht="15.75" customHeight="1">
       <c r="B69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="2:5" ht="15.75" customHeight="1">
       <c r="B70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="2:5" ht="15.75" customHeight="1">
       <c r="B71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="2:5" ht="15.75" customHeight="1">
       <c r="B72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="2:5" ht="15.75" customHeight="1">
       <c r="B73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="2:5" ht="15.75" customHeight="1">
       <c r="B74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="2:5" ht="15.75" customHeight="1">
       <c r="B75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="2:5" ht="15.75" customHeight="1">
       <c r="B76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="2:5" ht="15.75" customHeight="1">
       <c r="B77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="2:5" ht="15.75" customHeight="1">
       <c r="B78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="2:5" ht="15.75" customHeight="1">
       <c r="B79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="2:5" ht="15.75" customHeight="1">
       <c r="B80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="2:5" ht="15.75" customHeight="1">
       <c r="B81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="2:5" ht="15.75" customHeight="1">
       <c r="B82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="2:5" ht="15.75" customHeight="1">
       <c r="B83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="2:5" ht="15.75" customHeight="1">
       <c r="B84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="2:5" ht="15.75" customHeight="1">
       <c r="B85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="2:5" ht="15.75" customHeight="1">
       <c r="B86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="2:5" ht="15.75" customHeight="1">
       <c r="B87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="2:5" ht="15.75" customHeight="1">
       <c r="B88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="2:5" ht="15.75" customHeight="1">
       <c r="B89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="2:5" ht="15.75" customHeight="1">
       <c r="B90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="2:5" ht="15.75" customHeight="1">
       <c r="B91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="2:5" ht="15.75" customHeight="1">
       <c r="B92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="2:5" ht="15.75" customHeight="1">
       <c r="B93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="2:5" ht="15.75" customHeight="1">
       <c r="B94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="2:5" ht="15.75" customHeight="1">
       <c r="B95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="2:5" ht="15.75" customHeight="1">
       <c r="B96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="2:5" ht="15.75" customHeight="1">
       <c r="B97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="2:5" ht="15.75" customHeight="1">
       <c r="B98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="2:5" ht="15.75" customHeight="1">
       <c r="B99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="2:5" ht="15.75" customHeight="1">
       <c r="B100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="2:5" ht="15.75" customHeight="1">
       <c r="B101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="2:5" ht="15.75" customHeight="1">
       <c r="B102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="2:5" ht="15.75" customHeight="1">
       <c r="B103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="2:5" ht="15.75" customHeight="1">
       <c r="B104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="2:5" ht="15.75" customHeight="1">
       <c r="B105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="2:5" ht="15.75" customHeight="1">
       <c r="B106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="2:5" ht="15.75" customHeight="1">
       <c r="B107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="2:5" ht="15.75" customHeight="1">
       <c r="B108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="2:5" ht="15.75" customHeight="1">
       <c r="B109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="2:5" ht="15.75" customHeight="1">
       <c r="B110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="2:5" ht="15.75" customHeight="1">
       <c r="B111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="2:5" ht="15.75" customHeight="1">
       <c r="B112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="2:5" ht="15.75" customHeight="1">
       <c r="B113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="2:5" ht="15.75" customHeight="1">
       <c r="B114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="2:5" ht="15.75" customHeight="1">
       <c r="B115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="2:5" ht="15.75" customHeight="1">
       <c r="B116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="2:5" ht="15.75" customHeight="1">
       <c r="B117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="2:5" ht="15.75" customHeight="1">
       <c r="B118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="2:5" ht="15.75" customHeight="1">
       <c r="B119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="2:5" ht="15.75" customHeight="1">
       <c r="B120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="2:5" ht="15.75" customHeight="1">
       <c r="B121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="2:5" ht="15.75" customHeight="1">
       <c r="B122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="2:5" ht="15.75" customHeight="1">
       <c r="B123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="2:5" ht="15.75" customHeight="1">
       <c r="B124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="2:5" ht="15.75" customHeight="1">
       <c r="B125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="2:5" ht="15.75" customHeight="1">
       <c r="B126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="2:5" ht="15.75" customHeight="1">
       <c r="B127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="2:5" ht="15.75" customHeight="1">
       <c r="B128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="2:5" ht="15.75" customHeight="1">
       <c r="B129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="2:5" ht="15.75" customHeight="1">
       <c r="B130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="2:5" ht="15.75" customHeight="1">
       <c r="B131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="2:5" ht="15.75" customHeight="1">
       <c r="B132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="2:5" ht="15.75" customHeight="1">
       <c r="B133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="2:5" ht="15.75" customHeight="1">
       <c r="B134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="2:5" ht="15.75" customHeight="1">
       <c r="B135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="2:5" ht="15.75" customHeight="1">
       <c r="B136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="2:5" ht="15.75" customHeight="1">
       <c r="B137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="2:5" ht="15.75" customHeight="1">
       <c r="B138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="2:5" ht="15.75" customHeight="1">
       <c r="B139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="2:5" ht="15.75" customHeight="1">
       <c r="B140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="2:5" ht="15.75" customHeight="1">
       <c r="B141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="2:5" ht="15.75" customHeight="1">
       <c r="B142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="2:5" ht="15.75" customHeight="1">
       <c r="B143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="2:5" ht="15.75" customHeight="1">
       <c r="B144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="2:5" ht="15.75" customHeight="1">
       <c r="B145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="2:5" ht="15.75" customHeight="1">
       <c r="B146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="2:5" ht="15.75" customHeight="1">
       <c r="B147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="2:5" ht="15.75" customHeight="1">
       <c r="B148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="2:5" ht="15.75" customHeight="1">
       <c r="B149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="2:5" ht="15.75" customHeight="1">
       <c r="B150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="2:5" ht="15.75" customHeight="1">
       <c r="B151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="2:5" ht="15.75" customHeight="1">
       <c r="B152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="2:5" ht="15.75" customHeight="1">
       <c r="B153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="2:5" ht="15.75" customHeight="1">
       <c r="B154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="2:5" ht="15.75" customHeight="1">
       <c r="B155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="2:5" ht="15.75" customHeight="1">
       <c r="B156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="2:5" ht="15.75" customHeight="1">
       <c r="B157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="2:5" ht="15.75" customHeight="1">
       <c r="B158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="2:5" ht="15.75" customHeight="1">
       <c r="B159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="2:5" ht="15.75" customHeight="1">
       <c r="B160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="2:5" ht="15.75" customHeight="1">
       <c r="B161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="2:5" ht="15.75" customHeight="1">
       <c r="B162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="2:5" ht="15.75" customHeight="1">
       <c r="B163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="2:5" ht="15.75" customHeight="1">
       <c r="B164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="2:5" ht="15.75" customHeight="1">
       <c r="B165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="2:5" ht="15.75" customHeight="1">
       <c r="B166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="2:5" ht="15.75" customHeight="1">
       <c r="B167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="2:5" ht="15.75" customHeight="1">
       <c r="B168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="2:5" ht="15.75" customHeight="1">
       <c r="B169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="2:5" ht="15.75" customHeight="1">
       <c r="B170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="2:5" ht="15.75" customHeight="1">
       <c r="B171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="2:5" ht="15.75" customHeight="1">
       <c r="B172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="2:5" ht="15.75" customHeight="1">
       <c r="B173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="2:5" ht="15.75" customHeight="1">
       <c r="B174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="2:5" ht="15.75" customHeight="1">
       <c r="B175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="2:5" ht="15.75" customHeight="1">
       <c r="B176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="2:5" ht="15.75" customHeight="1">
       <c r="B177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="2:5" ht="15.75" customHeight="1">
       <c r="B178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="2:5" ht="15.75" customHeight="1">
       <c r="B179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="2:5" ht="15.75" customHeight="1">
       <c r="B180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="2:5" ht="15.75" customHeight="1">
       <c r="B181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="2:5" ht="15.75" customHeight="1">
       <c r="B182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="2:5" ht="15.75" customHeight="1">
       <c r="B183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="2:5" ht="15.75" customHeight="1">
       <c r="B184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="2:5" ht="15.75" customHeight="1">
       <c r="B185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="2:5" ht="15.75" customHeight="1">
       <c r="B186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="2:5" ht="15.75" customHeight="1">
       <c r="B187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="2:5" ht="15.75" customHeight="1">
       <c r="B188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="2:5" ht="15.75" customHeight="1">
       <c r="B189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="2:5" ht="15.75" customHeight="1">
       <c r="B190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="2:5" ht="15.75" customHeight="1">
       <c r="B191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="2:5" ht="15.75" customHeight="1">
       <c r="B192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="2:5" ht="15.75" customHeight="1">
       <c r="B193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="2:5" ht="15.75" customHeight="1">
       <c r="B194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="2:5" ht="15.75" customHeight="1">
       <c r="B195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="2:5" ht="15.75" customHeight="1">
       <c r="B196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="2:5" ht="15.75" customHeight="1">
       <c r="B197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="2:5" ht="15.75" customHeight="1">
       <c r="B198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="2:5" ht="15.75" customHeight="1">
       <c r="B199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="2:5" ht="15.75" customHeight="1">
       <c r="B200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="2:5" ht="15.75" customHeight="1">
       <c r="B201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="2:5" ht="15.75" customHeight="1">
       <c r="B202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="2:5" ht="15.75" customHeight="1">
       <c r="B203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="2:5" ht="15.75" customHeight="1">
       <c r="B204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="2:5" ht="15.75" customHeight="1">
       <c r="B205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="2:5" ht="15.75" customHeight="1">
       <c r="B206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="2:5" ht="15.75" customHeight="1">
       <c r="B207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="2:5" ht="15.75" customHeight="1">
       <c r="B208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="2:5" ht="15.75" customHeight="1">
       <c r="B209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="2:5" ht="15.75" customHeight="1">
       <c r="B210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="2:5" ht="15.75" customHeight="1">
       <c r="B211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="2:5" ht="15.75" customHeight="1">
       <c r="B212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="2:5" ht="15.75" customHeight="1">
       <c r="B213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="2:5" ht="15.75" customHeight="1">
       <c r="B214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="2:5" ht="15.75" customHeight="1">
       <c r="B215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="2:5" ht="15.75" customHeight="1">
       <c r="B216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="2:5" ht="15.75" customHeight="1">
       <c r="B217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="2:5" ht="15.75" customHeight="1">
       <c r="B218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="2:5" ht="15.75" customHeight="1">
       <c r="B219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="2:5" ht="15.75" customHeight="1">
       <c r="B220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="2:5" ht="15.75" customHeight="1">
       <c r="B221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="2:5" ht="15.75" customHeight="1">
       <c r="B222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="2:5" ht="15.75" customHeight="1">
       <c r="B223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="2:5" ht="15.75" customHeight="1">
       <c r="B224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="2:5" ht="15.75" customHeight="1">
       <c r="B225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="2:5" ht="15.75" customHeight="1">
       <c r="B226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="2:5" ht="15.75" customHeight="1">
       <c r="B227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="2:5" ht="15.75" customHeight="1">
       <c r="B228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="2:5" ht="15.75" customHeight="1">
       <c r="B229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="2:5" ht="15.75" customHeight="1">
       <c r="B230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="2:5" ht="15.75" customHeight="1">
       <c r="B231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="2:5" ht="15.75" customHeight="1">
       <c r="B232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="2:5" ht="15.75" customHeight="1">
       <c r="B233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="2:5" ht="15.75" customHeight="1">
       <c r="B234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="2:5" ht="15.75" customHeight="1">
       <c r="B235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="2:5" ht="15.75" customHeight="1">
       <c r="B236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="2:5" ht="15.75" customHeight="1">
       <c r="B237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="2:5" ht="15.75" customHeight="1">
       <c r="B238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="2:5" ht="15.75" customHeight="1">
       <c r="B239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="2:5" ht="15.75" customHeight="1">
       <c r="B240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="2:5" ht="15.75" customHeight="1">
       <c r="B241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="2:5" ht="15.75" customHeight="1">
       <c r="B242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="2:5" ht="15.75" customHeight="1">
       <c r="B243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="2:5" ht="15.75" customHeight="1">
       <c r="B244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="2:5" ht="15.75" customHeight="1">
       <c r="B245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="2:5" ht="15.75" customHeight="1">
       <c r="B246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="2:5" ht="15.75" customHeight="1">
       <c r="B247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="2:5" ht="15.75" customHeight="1">
       <c r="B248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="2:5" ht="15.75" customHeight="1">
       <c r="B249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="2:5" ht="15.75" customHeight="1">
       <c r="B250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="2:5" ht="15.75" customHeight="1">
       <c r="B251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="2:5" ht="15.75" customHeight="1">
       <c r="B252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="2:5" ht="15.75" customHeight="1">
       <c r="B253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="2:5" ht="15.75" customHeight="1">
       <c r="B254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="2:5" ht="15.75" customHeight="1">
       <c r="B255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="2:5" ht="15.75" customHeight="1">
       <c r="B256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="2:5" ht="15.75" customHeight="1">
       <c r="B257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="2:5" ht="15.75" customHeight="1">
       <c r="B258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="2:5" ht="15.75" customHeight="1">
       <c r="B259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="2:5" ht="15.75" customHeight="1">
       <c r="B260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="2:5" ht="15.75" customHeight="1">
       <c r="B261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="2:5" ht="15.75" customHeight="1">
       <c r="B262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="2:5" ht="15.75" customHeight="1">
       <c r="B263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="2:5" ht="15.75" customHeight="1">
       <c r="B264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="2:5" ht="15.75" customHeight="1">
       <c r="B265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="2:5" ht="15.75" customHeight="1">
       <c r="B266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="2:5" ht="15.75" customHeight="1">
       <c r="B267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="2:5" ht="15.75" customHeight="1">
       <c r="B268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="2:5" ht="15.75" customHeight="1">
       <c r="B269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="2:5" ht="15.75" customHeight="1">
       <c r="B270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="2:5" ht="15.75" customHeight="1">
       <c r="B271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="2:5" ht="15.75" customHeight="1">
       <c r="B272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="2:5" ht="15.75" customHeight="1">
       <c r="B273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="2:5" ht="15.75" customHeight="1">
       <c r="B274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="2:5" ht="15.75" customHeight="1">
       <c r="B275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="2:5" ht="15.75" customHeight="1">
       <c r="B276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="2:5" ht="15.75" customHeight="1">
       <c r="B277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="2:5" ht="15.75" customHeight="1">
       <c r="B278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="2:5" ht="15.75" customHeight="1">
       <c r="B279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="2:5" ht="15.75" customHeight="1">
       <c r="B280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="2:5" ht="15.75" customHeight="1">
       <c r="B281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="2:5" ht="15.75" customHeight="1">
       <c r="B282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="2:5" ht="15.75" customHeight="1">
       <c r="B283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="2:5" ht="15.75" customHeight="1">
       <c r="B284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="2:5" ht="15.75" customHeight="1">
       <c r="B285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="2:5" ht="15.75" customHeight="1">
       <c r="B286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="2:5" ht="15.75" customHeight="1">
       <c r="B287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="2:5" ht="15.75" customHeight="1">
       <c r="B288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="2:5" ht="15.75" customHeight="1">
       <c r="B289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="2:5" ht="15.75" customHeight="1">
       <c r="B290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="2:5" ht="15.75" customHeight="1">
       <c r="B291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="2:5" ht="15.75" customHeight="1">
       <c r="B292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="2:5" ht="15.75" customHeight="1">
       <c r="B293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="2:5" ht="15.75" customHeight="1">
       <c r="B294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="2:5" ht="15.75" customHeight="1">
       <c r="B295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="2:5" ht="15.75" customHeight="1">
       <c r="B296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="2:5" ht="15.75" customHeight="1">
       <c r="B297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="2:5" ht="15.75" customHeight="1">
       <c r="B298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="2:5" ht="15.75" customHeight="1">
       <c r="B299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="2:5" ht="15.75" customHeight="1">
       <c r="B300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="2:5" ht="15.75" customHeight="1">
       <c r="B301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="2:5" ht="15.75" customHeight="1">
       <c r="B302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="2:5" ht="15.75" customHeight="1">
       <c r="B303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="2:5" ht="15.75" customHeight="1">
       <c r="B304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="2:5" ht="15.75" customHeight="1">
       <c r="B305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="2:5" ht="15.75" customHeight="1">
       <c r="B306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="2:5" ht="15.75" customHeight="1">
       <c r="B307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="2:5" ht="15.75" customHeight="1">
       <c r="B308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="2:5" ht="15.75" customHeight="1">
       <c r="B309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="2:5" ht="15.75" customHeight="1">
       <c r="B310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="2:5" ht="15.75" customHeight="1">
       <c r="B311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="2:5" ht="15.75" customHeight="1">
       <c r="B312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="2:5" ht="15.75" customHeight="1">
       <c r="B313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="2:5" ht="15.75" customHeight="1">
       <c r="B314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="2:5" ht="15.75" customHeight="1">
       <c r="B315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="2:5" ht="15.75" customHeight="1">
       <c r="B316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="2:5" ht="15.75" customHeight="1">
       <c r="B317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="2:5" ht="15.75" customHeight="1">
       <c r="B318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="2:5" ht="15.75" customHeight="1">
       <c r="B319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="2:5" ht="15.75" customHeight="1">
       <c r="B320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="2:5" ht="15.75" customHeight="1">
       <c r="B321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="2:5" ht="15.75" customHeight="1">
       <c r="B322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="2:5" ht="15.75" customHeight="1">
       <c r="B323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="2:5" ht="15.75" customHeight="1">
       <c r="B324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="2:5" ht="15.75" customHeight="1">
       <c r="B325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="2:5" ht="15.75" customHeight="1">
       <c r="B326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="2:5" ht="15.75" customHeight="1">
       <c r="B327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="2:5" ht="15.75" customHeight="1">
       <c r="B328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="2:5" ht="15.75" customHeight="1">
       <c r="B329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="2:5" ht="15.75" customHeight="1">
       <c r="B330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="2:5" ht="15.75" customHeight="1">
       <c r="B331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="2:5" ht="15.75" customHeight="1">
       <c r="B332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="2:5" ht="15.75" customHeight="1">
       <c r="B333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="2:5" ht="15.75" customHeight="1">
       <c r="B334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="2:5" ht="15.75" customHeight="1">
       <c r="B335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="2:5" ht="15.75" customHeight="1">
       <c r="B336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="2:5" ht="15.75" customHeight="1">
       <c r="B337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="2:5" ht="15.75" customHeight="1">
       <c r="B338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="2:5" ht="15.75" customHeight="1">
       <c r="B339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="2:5" ht="15.75" customHeight="1">
       <c r="B340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="2:5" ht="15.75" customHeight="1">
       <c r="B341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="2:5" ht="15.75" customHeight="1">
       <c r="B342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="2:5" ht="15.75" customHeight="1">
       <c r="B343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="2:5" ht="15.75" customHeight="1">
       <c r="B344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="2:5" ht="15.75" customHeight="1">
       <c r="B345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="2:5" ht="15.75" customHeight="1">
       <c r="B346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="2:5" ht="15.75" customHeight="1">
       <c r="B347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="2:5" ht="15.75" customHeight="1">
       <c r="B348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="2:5" ht="15.75" customHeight="1">
       <c r="B349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="2:5" ht="15.75" customHeight="1">
       <c r="B350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="2:5" ht="15.75" customHeight="1">
       <c r="B351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="2:5" ht="15.75" customHeight="1">
       <c r="B352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="2:5" ht="15.75" customHeight="1">
       <c r="B353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="2:5" ht="15.75" customHeight="1">
       <c r="B354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="2:5" ht="15.75" customHeight="1">
       <c r="B355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="2:5" ht="15.75" customHeight="1">
       <c r="B356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="2:5" ht="15.75" customHeight="1">
       <c r="B357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="2:5" ht="15.75" customHeight="1">
       <c r="B358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="2:5" ht="15.75" customHeight="1">
       <c r="B359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="2:5" ht="15.75" customHeight="1">
       <c r="B360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="2:5" ht="15.75" customHeight="1">
       <c r="B361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="2:5" ht="15.75" customHeight="1">
       <c r="B362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="2:5" ht="15.75" customHeight="1">
       <c r="B363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="2:5" ht="15.75" customHeight="1">
       <c r="B364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="2:5" ht="15.75" customHeight="1">
       <c r="B365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="2:5" ht="15.75" customHeight="1">
       <c r="B366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="2:5" ht="15.75" customHeight="1">
       <c r="B367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="2:5" ht="15.75" customHeight="1">
       <c r="B368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="2:5" ht="15.75" customHeight="1">
       <c r="B369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="2:5" ht="15.75" customHeight="1">
       <c r="B370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="2:5" ht="15.75" customHeight="1">
       <c r="B371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="2:5" ht="15.75" customHeight="1">
       <c r="B372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="2:5" ht="15.75" customHeight="1">
       <c r="B373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="2:5" ht="15.75" customHeight="1">
       <c r="B374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="2:5" ht="15.75" customHeight="1">
       <c r="B375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="2:5" ht="15.75" customHeight="1">
       <c r="B376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="2:5" ht="15.75" customHeight="1">
       <c r="B377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="2:5" ht="15.75" customHeight="1">
       <c r="B378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="2:5" ht="15.75" customHeight="1">
       <c r="B379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="2:5" ht="15.75" customHeight="1">
       <c r="B380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="2:5" ht="15.75" customHeight="1">
       <c r="B381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="2:5" ht="15.75" customHeight="1">
       <c r="B382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="2:5" ht="15.75" customHeight="1">
       <c r="B383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="2:5" ht="15.75" customHeight="1">
       <c r="B384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="2:5" ht="15.75" customHeight="1">
       <c r="B385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="2:5" ht="15.75" customHeight="1">
       <c r="B386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="2:5" ht="15.75" customHeight="1">
       <c r="B387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="2:5" ht="15.75" customHeight="1">
       <c r="B388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="2:5" ht="15.75" customHeight="1">
       <c r="B389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="2:5" ht="15.75" customHeight="1">
       <c r="B390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="2:5" ht="15.75" customHeight="1">
       <c r="B391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="2:5" ht="15.75" customHeight="1">
       <c r="B392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="2:5" ht="15.75" customHeight="1">
       <c r="B393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="2:5" ht="15.75" customHeight="1">
       <c r="B394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="2:5" ht="15.75" customHeight="1">
       <c r="B395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="2:5" ht="15.75" customHeight="1">
       <c r="B396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="2:5" ht="15.75" customHeight="1">
       <c r="B397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="2:5" ht="15.75" customHeight="1">
       <c r="B398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="2:5" ht="15.75" customHeight="1">
       <c r="B399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="2:5" ht="15.75" customHeight="1">
       <c r="B400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="2:5" ht="15.75" customHeight="1">
       <c r="B401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="2:5" ht="15.75" customHeight="1">
       <c r="B402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="2:5" ht="15.75" customHeight="1">
       <c r="B403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="2:5" ht="15.75" customHeight="1">
       <c r="B404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="2:5" ht="15.75" customHeight="1">
       <c r="B405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="2:5" ht="15.75" customHeight="1">
       <c r="B406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="2:5" ht="15.75" customHeight="1">
       <c r="B407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="2:5" ht="15.75" customHeight="1">
       <c r="B408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="2:5" ht="15.75" customHeight="1">
       <c r="B409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="2:5" ht="15.75" customHeight="1">
       <c r="B410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="2:5" ht="15.75" customHeight="1">
       <c r="B411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="2:5" ht="15.75" customHeight="1">
       <c r="B412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="2:5" ht="15.75" customHeight="1">
       <c r="B413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="2:5" ht="15.75" customHeight="1">
       <c r="B414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="2:5" ht="15.75" customHeight="1">
       <c r="B415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="2:5" ht="15.75" customHeight="1">
       <c r="B416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="2:5" ht="15.75" customHeight="1">
       <c r="B417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="2:5" ht="15.75" customHeight="1">
       <c r="B418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="2:5" ht="15.75" customHeight="1">
       <c r="B419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="2:5" ht="15.75" customHeight="1">
       <c r="B420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="2:5" ht="15.75" customHeight="1">
       <c r="B421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="2:5" ht="15.75" customHeight="1">
       <c r="B422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="2:5" ht="15.75" customHeight="1">
       <c r="B423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="2:5" ht="15.75" customHeight="1">
       <c r="B424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="2:5" ht="15.75" customHeight="1">
       <c r="B425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="2:5" ht="15.75" customHeight="1">
       <c r="B426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="2:5" ht="15.75" customHeight="1">
       <c r="B427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="2:5" ht="15.75" customHeight="1">
       <c r="B428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="2:5" ht="15.75" customHeight="1">
       <c r="B429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="2:5" ht="15.75" customHeight="1">
       <c r="B430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="2:5" ht="15.75" customHeight="1">
       <c r="B431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="2:5" ht="15.75" customHeight="1">
       <c r="B432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="2:5" ht="15.75" customHeight="1">
       <c r="B433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="2:5" ht="15.75" customHeight="1">
       <c r="B434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="2:5" ht="15.75" customHeight="1">
       <c r="B435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="2:5" ht="15.75" customHeight="1">
       <c r="B436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="2:5" ht="15.75" customHeight="1">
       <c r="B437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="2:5" ht="15.75" customHeight="1">
       <c r="B438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="2:5" ht="15.75" customHeight="1">
       <c r="B439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="2:5" ht="15.75" customHeight="1">
       <c r="B440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="2:5" ht="15.75" customHeight="1">
       <c r="B441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="2:5" ht="15.75" customHeight="1">
       <c r="B442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="2:5" ht="15.75" customHeight="1">
       <c r="B443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="2:5" ht="15.75" customHeight="1">
       <c r="B444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="2:5" ht="15.75" customHeight="1">
       <c r="B445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="2:5" ht="15.75" customHeight="1">
       <c r="B446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="2:5" ht="15.75" customHeight="1">
       <c r="B447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="2:5" ht="15.75" customHeight="1">
       <c r="B448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="2:5" ht="15.75" customHeight="1">
       <c r="B449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="2:5" ht="15.75" customHeight="1">
       <c r="B450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="2:5" ht="15.75" customHeight="1">
       <c r="B451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="2:5" ht="15.75" customHeight="1">
       <c r="B452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="2:5" ht="15.75" customHeight="1">
       <c r="B453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="2:5" ht="15.75" customHeight="1">
       <c r="B454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="2:5" ht="15.75" customHeight="1">
       <c r="B455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="2:5" ht="15.75" customHeight="1">
       <c r="B456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="2:5" ht="15.75" customHeight="1">
       <c r="B457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="2:5" ht="15.75" customHeight="1">
       <c r="B458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="2:5" ht="15.75" customHeight="1">
       <c r="B459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="2:5" ht="15.75" customHeight="1">
       <c r="B460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="2:5" ht="15.75" customHeight="1">
       <c r="B461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="2:5" ht="15.75" customHeight="1">
       <c r="B462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="2:5" ht="15.75" customHeight="1">
       <c r="B463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="2:5" ht="15.75" customHeight="1">
       <c r="B464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="2:5" ht="15.75" customHeight="1">
       <c r="B465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="2:5" ht="15.75" customHeight="1">
       <c r="B466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="2:5" ht="15.75" customHeight="1">
       <c r="B467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="2:5" ht="15.75" customHeight="1">
       <c r="B468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="2:5" ht="15.75" customHeight="1">
       <c r="B469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="2:5" ht="15.75" customHeight="1">
       <c r="B470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="2:5" ht="15.75" customHeight="1">
       <c r="B471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="2:5" ht="15.75" customHeight="1">
       <c r="B472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="2:5" ht="15.75" customHeight="1">
       <c r="B473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="2:5" ht="15.75" customHeight="1">
       <c r="B474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="2:5" ht="15.75" customHeight="1">
       <c r="B475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="2:5" ht="15.75" customHeight="1">
       <c r="B476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="2:5" ht="15.75" customHeight="1">
       <c r="B477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="2:5" ht="15.75" customHeight="1">
       <c r="B478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="2:5" ht="15.75" customHeight="1">
       <c r="B479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="2:5" ht="15.75" customHeight="1">
       <c r="B480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="2:5" ht="15.75" customHeight="1">
       <c r="B481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="2:5" ht="15.75" customHeight="1">
       <c r="B482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="2:5" ht="15.75" customHeight="1">
       <c r="B483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="2:5" ht="15.75" customHeight="1">
       <c r="B484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="2:5" ht="15.75" customHeight="1">
       <c r="B485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="2:5" ht="15.75" customHeight="1">
       <c r="B486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="2:5" ht="15.75" customHeight="1">
       <c r="B487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="2:5" ht="15.75" customHeight="1">
       <c r="B488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="2:5" ht="15.75" customHeight="1">
       <c r="B489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="2:5" ht="15.75" customHeight="1">
       <c r="B490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="2:5" ht="15.75" customHeight="1">
       <c r="B491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="2:5" ht="15.75" customHeight="1">
       <c r="B492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="2:5" ht="15.75" customHeight="1">
       <c r="B493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="2:5" ht="15.75" customHeight="1">
       <c r="B494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="2:5" ht="15.75" customHeight="1">
       <c r="B495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="2:5" ht="15.75" customHeight="1">
       <c r="B496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="2:5" ht="15.75" customHeight="1">
       <c r="B497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="2:5" ht="15.75" customHeight="1">
       <c r="B498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="2:5" ht="15.75" customHeight="1">
       <c r="B499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="2:5" ht="15.75" customHeight="1">
       <c r="B500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="2:5" ht="15.75" customHeight="1">
       <c r="B501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="2:5" ht="15.75" customHeight="1">
       <c r="B502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="2:5" ht="15.75" customHeight="1">
       <c r="B503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="2:5" ht="15.75" customHeight="1">
       <c r="B504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="2:5" ht="15.75" customHeight="1">
       <c r="B505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="2:5" ht="15.75" customHeight="1">
       <c r="B506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="2:5" ht="15.75" customHeight="1">
       <c r="B507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="2:5" ht="15.75" customHeight="1">
       <c r="B508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="2:5" ht="15.75" customHeight="1">
       <c r="B509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="2:5" ht="15.75" customHeight="1">
       <c r="B510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="2:5" ht="15.75" customHeight="1">
       <c r="B511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="2:5" ht="15.75" customHeight="1">
       <c r="B512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="2:5" ht="15.75" customHeight="1">
       <c r="B513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="2:5" ht="15.75" customHeight="1">
       <c r="B514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="2:5" ht="15.75" customHeight="1">
       <c r="B515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="2:5" ht="15.75" customHeight="1">
       <c r="B516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="2:5" ht="15.75" customHeight="1">
       <c r="B517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="2:5" ht="15.75" customHeight="1">
       <c r="B518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="2:5" ht="15.75" customHeight="1">
       <c r="B519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="2:5" ht="15.75" customHeight="1">
       <c r="B520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="2:5" ht="15.75" customHeight="1">
       <c r="B521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="2:5" ht="15.75" customHeight="1">
       <c r="B522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="2:5" ht="15.75" customHeight="1">
       <c r="B523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="2:5" ht="15.75" customHeight="1">
       <c r="B524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="2:5" ht="15.75" customHeight="1">
       <c r="B525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="2:5" ht="15.75" customHeight="1">
       <c r="B526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="2:5" ht="15.75" customHeight="1">
       <c r="B527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="2:5" ht="15.75" customHeight="1">
       <c r="B528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="2:5" ht="15.75" customHeight="1">
       <c r="B529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="2:5" ht="15.75" customHeight="1">
       <c r="B530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="2:5" ht="15.75" customHeight="1">
       <c r="B531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="2:5" ht="15.75" customHeight="1">
       <c r="B532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="2:5" ht="15.75" customHeight="1">
       <c r="B533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="2:5" ht="15.75" customHeight="1">
       <c r="B534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="2:5" ht="15.75" customHeight="1">
       <c r="B535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="2:5" ht="15.75" customHeight="1">
       <c r="B536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="2:5" ht="15.75" customHeight="1">
       <c r="B537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="2:5" ht="15.75" customHeight="1">
       <c r="B538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="2:5" ht="15.75" customHeight="1">
       <c r="B539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="2:5" ht="15.75" customHeight="1">
       <c r="B540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="2:5" ht="15.75" customHeight="1">
       <c r="B541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="2:5" ht="15.75" customHeight="1">
       <c r="B542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="2:5" ht="15.75" customHeight="1">
       <c r="B543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="2:5" ht="15.75" customHeight="1">
       <c r="B544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="2:5" ht="15.75" customHeight="1">
       <c r="B545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="2:5" ht="15.75" customHeight="1">
       <c r="B546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="2:5" ht="15.75" customHeight="1">
       <c r="B547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="2:5" ht="15.75" customHeight="1">
       <c r="B548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="2:5" ht="15.75" customHeight="1">
       <c r="B549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="2:5" ht="15.75" customHeight="1">
       <c r="B550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="2:5" ht="15.75" customHeight="1">
       <c r="B551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="2:5" ht="15.75" customHeight="1">
       <c r="B552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="2:5" ht="15.75" customHeight="1">
       <c r="B553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="2:5" ht="15.75" customHeight="1">
       <c r="B554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="2:5" ht="15.75" customHeight="1">
       <c r="B555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="2:5" ht="15.75" customHeight="1">
       <c r="B556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="2:5" ht="15.75" customHeight="1">
       <c r="B557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="2:5" ht="15.75" customHeight="1">
       <c r="B558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="2:5" ht="15.75" customHeight="1">
       <c r="B559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="2:5" ht="15.75" customHeight="1">
       <c r="B560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="2:5" ht="15.75" customHeight="1">
       <c r="B561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="2:5" ht="15.75" customHeight="1">
       <c r="B562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="2:5" ht="15.75" customHeight="1">
       <c r="B563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="2:5" ht="15.75" customHeight="1">
       <c r="B564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="2:5" ht="15.75" customHeight="1">
       <c r="B565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="2:5" ht="15.75" customHeight="1">
       <c r="B566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="2:5" ht="15.75" customHeight="1">
       <c r="B567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="2:5" ht="15.75" customHeight="1">
       <c r="B568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="2:5" ht="15.75" customHeight="1">
       <c r="B569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="2:5" ht="15.75" customHeight="1">
       <c r="B570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="2:5" ht="15.75" customHeight="1">
       <c r="B571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="2:5" ht="15.75" customHeight="1">
       <c r="B572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="2:5" ht="15.75" customHeight="1">
       <c r="B573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="2:5" ht="15.75" customHeight="1">
       <c r="B574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="2:5" ht="15.75" customHeight="1">
       <c r="B575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="2:5" ht="15.75" customHeight="1">
       <c r="B576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="2:5" ht="15.75" customHeight="1">
       <c r="B577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="2:5" ht="15.75" customHeight="1">
       <c r="B578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="2:5" ht="15.75" customHeight="1">
       <c r="B579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="2:5" ht="15.75" customHeight="1">
       <c r="B580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="2:5" ht="15.75" customHeight="1">
       <c r="B581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="2:5" ht="15.75" customHeight="1">
       <c r="B582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="2:5" ht="15.75" customHeight="1">
       <c r="B583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="2:5" ht="15.75" customHeight="1">
       <c r="B584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="2:5" ht="15.75" customHeight="1">
       <c r="B585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="2:5" ht="15.75" customHeight="1">
       <c r="B586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="2:5" ht="15.75" customHeight="1">
       <c r="B587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="2:5" ht="15.75" customHeight="1">
       <c r="B588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="2:5" ht="15.75" customHeight="1">
       <c r="B589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="2:5" ht="15.75" customHeight="1">
       <c r="B590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="2:5" ht="15.75" customHeight="1">
       <c r="B591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="2:5" ht="15.75" customHeight="1">
       <c r="B592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="2:5" ht="15.75" customHeight="1">
       <c r="B593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="2:5" ht="15.75" customHeight="1">
       <c r="B594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="2:5" ht="15.75" customHeight="1">
       <c r="B595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="2:5" ht="15.75" customHeight="1">
       <c r="B596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="2:5" ht="15.75" customHeight="1">
       <c r="B597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="2:5" ht="15.75" customHeight="1">
       <c r="B598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="2:5" ht="15.75" customHeight="1">
       <c r="B599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="2:5" ht="15.75" customHeight="1">
       <c r="B600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="2:5" ht="15.75" customHeight="1">
       <c r="B601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="2:5" ht="15.75" customHeight="1">
       <c r="B602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="2:5" ht="15.75" customHeight="1">
       <c r="B603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="2:5" ht="15.75" customHeight="1">
       <c r="B604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="2:5" ht="15.75" customHeight="1">
       <c r="B605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="2:5" ht="15.75" customHeight="1">
       <c r="B606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="2:5" ht="15.75" customHeight="1">
       <c r="B607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="2:5" ht="15.75" customHeight="1">
       <c r="B608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="2:5" ht="15.75" customHeight="1">
       <c r="B609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="2:5" ht="15.75" customHeight="1">
       <c r="B610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="2:5" ht="15.75" customHeight="1">
       <c r="B611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="2:5" ht="15.75" customHeight="1">
       <c r="B612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="2:5" ht="15.75" customHeight="1">
       <c r="B613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="2:5" ht="15.75" customHeight="1">
       <c r="B614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="2:5" ht="15.75" customHeight="1">
       <c r="B615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="2:5" ht="15.75" customHeight="1">
       <c r="B616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="2:5" ht="15.75" customHeight="1">
       <c r="B617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="2:5" ht="15.75" customHeight="1">
       <c r="B618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="2:5" ht="15.75" customHeight="1">
       <c r="B619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="2:5" ht="15.75" customHeight="1">
       <c r="B620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="2:5" ht="15.75" customHeight="1">
       <c r="B621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="2:5" ht="15.75" customHeight="1">
       <c r="B622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="2:5" ht="15.75" customHeight="1">
       <c r="B623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="2:5" ht="15.75" customHeight="1">
       <c r="B624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="2:5" ht="15.75" customHeight="1">
       <c r="B625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="2:5" ht="15.75" customHeight="1">
       <c r="B626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="2:5" ht="15.75" customHeight="1">
       <c r="B627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="2:5" ht="15.75" customHeight="1">
       <c r="B628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="2:5" ht="15.75" customHeight="1">
       <c r="B629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="2:5" ht="15.75" customHeight="1">
       <c r="B630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="2:5" ht="15.75" customHeight="1">
       <c r="B631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="2:5" ht="15.75" customHeight="1">
       <c r="B632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="2:5" ht="15.75" customHeight="1">
       <c r="B633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="2:5" ht="15.75" customHeight="1">
       <c r="B634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="2:5" ht="15.75" customHeight="1">
       <c r="B635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="2:5" ht="15.75" customHeight="1">
       <c r="B636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="2:5" ht="15.75" customHeight="1">
       <c r="B637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="2:5" ht="15.75" customHeight="1">
       <c r="B638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="2:5" ht="15.75" customHeight="1">
       <c r="B639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="2:5" ht="15.75" customHeight="1">
       <c r="B640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="2:5" ht="15.75" customHeight="1">
       <c r="B641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="2:5" ht="15.75" customHeight="1">
       <c r="B642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="2:5" ht="15.75" customHeight="1">
       <c r="B643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="2:5" ht="15.75" customHeight="1">
       <c r="B644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="2:5" ht="15.75" customHeight="1">
       <c r="B645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="2:5" ht="15.75" customHeight="1">
       <c r="B646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="2:5" ht="15.75" customHeight="1">
       <c r="B647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="2:5" ht="15.75" customHeight="1">
       <c r="B648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="2:5" ht="15.75" customHeight="1">
       <c r="B649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="2:5" ht="15.75" customHeight="1">
       <c r="B650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="2:5" ht="15.75" customHeight="1">
       <c r="B651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="2:5" ht="15.75" customHeight="1">
       <c r="B652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="2:5" ht="15.75" customHeight="1">
       <c r="B653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="2:5" ht="15.75" customHeight="1">
       <c r="B654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="2:5" ht="15.75" customHeight="1">
       <c r="B655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="2:5" ht="15.75" customHeight="1">
       <c r="B656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="2:5" ht="15.75" customHeight="1">
       <c r="B657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="2:5" ht="15.75" customHeight="1">
       <c r="B658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="2:5" ht="15.75" customHeight="1">
       <c r="B659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="2:5" ht="15.75" customHeight="1">
       <c r="B660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="2:5" ht="15.75" customHeight="1">
       <c r="B661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="2:5" ht="15.75" customHeight="1">
       <c r="B662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="2:5" ht="15.75" customHeight="1">
       <c r="B663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="2:5" ht="15.75" customHeight="1">
       <c r="B664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="2:5" ht="15.75" customHeight="1">
       <c r="B665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="2:5" ht="15.75" customHeight="1">
       <c r="B666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="2:5" ht="15.75" customHeight="1">
       <c r="B667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="2:5" ht="15.75" customHeight="1">
       <c r="B668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="2:5" ht="15.75" customHeight="1">
       <c r="B669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="2:5" ht="15.75" customHeight="1">
       <c r="B670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="2:5" ht="15.75" customHeight="1">
       <c r="B671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="2:5" ht="15.75" customHeight="1">
       <c r="B672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="2:5" ht="15.75" customHeight="1">
       <c r="B673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="2:5" ht="15.75" customHeight="1">
       <c r="B674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="2:5" ht="15.75" customHeight="1">
       <c r="B675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="2:5" ht="15.75" customHeight="1">
       <c r="B676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="2:5" ht="15.75" customHeight="1">
       <c r="B677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="2:5" ht="15.75" customHeight="1">
       <c r="B678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="2:5" ht="15.75" customHeight="1">
       <c r="B679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="2:5" ht="15.75" customHeight="1">
       <c r="B680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="2:5" ht="15.75" customHeight="1">
       <c r="B681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="2:5" ht="15.75" customHeight="1">
       <c r="B682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="2:5" ht="15.75" customHeight="1">
       <c r="B683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="2:5" ht="15.75" customHeight="1">
       <c r="B684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="2:5" ht="15.75" customHeight="1">
       <c r="B685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="2:5" ht="15.75" customHeight="1">
       <c r="B686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="2:5" ht="15.75" customHeight="1">
       <c r="B687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="2:5" ht="15.75" customHeight="1">
       <c r="B688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="2:5" ht="15.75" customHeight="1">
       <c r="B689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="2:5" ht="15.75" customHeight="1">
       <c r="B690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="2:5" ht="15.75" customHeight="1">
       <c r="B691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="2:5" ht="15.75" customHeight="1">
       <c r="B692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="2:5" ht="15.75" customHeight="1">
       <c r="B693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="2:5" ht="15.75" customHeight="1">
       <c r="B694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="2:5" ht="15.75" customHeight="1">
       <c r="B695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="2:5" ht="15.75" customHeight="1">
       <c r="B696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="2:5" ht="15.75" customHeight="1">
       <c r="B697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="2:5" ht="15.75" customHeight="1">
       <c r="B698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="2:5" ht="15.75" customHeight="1">
       <c r="B699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="2:5" ht="15.75" customHeight="1">
       <c r="B700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="2:5" ht="15.75" customHeight="1">
       <c r="B701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="2:5" ht="15.75" customHeight="1">
       <c r="B702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="2:5" ht="15.75" customHeight="1">
       <c r="B703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="2:5" ht="15.75" customHeight="1">
       <c r="B704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="2:5" ht="15.75" customHeight="1">
       <c r="B705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="2:5" ht="15.75" customHeight="1">
       <c r="B706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="2:5" ht="15.75" customHeight="1">
       <c r="B707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="2:5" ht="15.75" customHeight="1">
       <c r="B708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="2:5" ht="15.75" customHeight="1">
       <c r="B709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="2:5" ht="15.75" customHeight="1">
       <c r="B710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="2:5" ht="15.75" customHeight="1">
       <c r="B711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="2:5" ht="15.75" customHeight="1">
       <c r="B712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="2:5" ht="15.75" customHeight="1">
       <c r="B713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="2:5" ht="15.75" customHeight="1">
       <c r="B714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="2:5" ht="15.75" customHeight="1">
       <c r="B715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="2:5" ht="15.75" customHeight="1">
       <c r="B716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="2:5" ht="15.75" customHeight="1">
       <c r="B717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="2:5" ht="15.75" customHeight="1">
       <c r="B718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="2:5" ht="15.75" customHeight="1">
       <c r="B719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="2:5" ht="15.75" customHeight="1">
       <c r="B720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="2:5" ht="15.75" customHeight="1">
       <c r="B721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="2:5" ht="15.75" customHeight="1">
       <c r="B722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="2:5" ht="15.75" customHeight="1">
       <c r="B723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="2:5" ht="15.75" customHeight="1">
       <c r="B724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="2:5" ht="15.75" customHeight="1">
       <c r="B725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="2:5" ht="15.75" customHeight="1">
       <c r="B726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="2:5" ht="15.75" customHeight="1">
       <c r="B727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="2:5" ht="15.75" customHeight="1">
       <c r="B728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="2:5" ht="15.75" customHeight="1">
       <c r="B729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="2:5" ht="15.75" customHeight="1">
       <c r="B730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="2:5" ht="15.75" customHeight="1">
       <c r="B731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="2:5" ht="15.75" customHeight="1">
       <c r="B732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="2:5" ht="15.75" customHeight="1">
       <c r="B733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="2:5" ht="15.75" customHeight="1">
       <c r="B734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="2:5" ht="15.75" customHeight="1">
       <c r="B735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="2:5" ht="15.75" customHeight="1">
       <c r="B736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="2:5" ht="15.75" customHeight="1">
       <c r="B737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="2:5" ht="15.75" customHeight="1">
       <c r="B738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="2:5" ht="15.75" customHeight="1">
       <c r="B739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="2:5" ht="15.75" customHeight="1">
       <c r="B740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="2:5" ht="15.75" customHeight="1">
       <c r="B741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="2:5" ht="15.75" customHeight="1">
       <c r="B742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="2:5" ht="15.75" customHeight="1">
       <c r="B743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="2:5" ht="15.75" customHeight="1">
       <c r="B744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="2:5" ht="15.75" customHeight="1">
       <c r="B745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="2:5" ht="15.75" customHeight="1">
       <c r="B746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="2:5" ht="15.75" customHeight="1">
       <c r="B747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="2:5" ht="15.75" customHeight="1">
       <c r="B748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="2:5" ht="15.75" customHeight="1">
       <c r="B749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="2:5" ht="15.75" customHeight="1">
       <c r="B750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="2:5" ht="15.75" customHeight="1">
       <c r="B751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="2:5" ht="15.75" customHeight="1">
       <c r="B752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="2:5" ht="15.75" customHeight="1">
       <c r="B753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="2:5" ht="15.75" customHeight="1">
       <c r="B754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="2:5" ht="15.75" customHeight="1">
       <c r="B755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="2:5" ht="15.75" customHeight="1">
       <c r="B756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="2:5" ht="15.75" customHeight="1">
       <c r="B757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="2:5" ht="15.75" customHeight="1">
       <c r="B758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="2:5" ht="15.75" customHeight="1">
       <c r="B759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="2:5" ht="15.75" customHeight="1">
       <c r="B760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="2:5" ht="15.75" customHeight="1">
       <c r="B761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="2:5" ht="15.75" customHeight="1">
       <c r="B762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="2:5" ht="15.75" customHeight="1">
       <c r="B763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="2:5" ht="15.75" customHeight="1">
       <c r="B764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="2:5" ht="15.75" customHeight="1">
       <c r="B765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="2:5" ht="15.75" customHeight="1">
       <c r="B766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="2:5" ht="15.75" customHeight="1">
       <c r="B767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="2:5" ht="15.75" customHeight="1">
       <c r="B768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="2:5" ht="15.75" customHeight="1">
       <c r="B769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="2:5" ht="15.75" customHeight="1">
       <c r="B770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="2:5" ht="15.75" customHeight="1">
       <c r="B771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="2:5" ht="15.75" customHeight="1">
       <c r="B772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="2:5" ht="15.75" customHeight="1">
       <c r="B773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="2:5" ht="15.75" customHeight="1">
       <c r="B774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="2:5" ht="15.75" customHeight="1">
       <c r="B775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="2:5" ht="15.75" customHeight="1">
       <c r="B776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="2:5" ht="15.75" customHeight="1">
       <c r="B777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="2:5" ht="15.75" customHeight="1">
       <c r="B778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="2:5" ht="15.75" customHeight="1">
       <c r="B779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="2:5" ht="15.75" customHeight="1">
       <c r="B780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="2:5" ht="15.75" customHeight="1">
       <c r="B781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="2:5" ht="15.75" customHeight="1">
       <c r="B782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="2:5" ht="15.75" customHeight="1">
       <c r="B783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="2:5" ht="15.75" customHeight="1">
       <c r="B784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="2:5" ht="15.75" customHeight="1">
       <c r="B785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="2:5" ht="15.75" customHeight="1">
       <c r="B786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="2:5" ht="15.75" customHeight="1">
       <c r="B787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="2:5" ht="15.75" customHeight="1">
       <c r="B788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="2:5" ht="15.75" customHeight="1">
       <c r="B789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="2:5" ht="15.75" customHeight="1">
       <c r="B790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="2:5" ht="15.75" customHeight="1">
       <c r="B791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="2:5" ht="15.75" customHeight="1">
       <c r="B792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="2:5" ht="15.75" customHeight="1">
       <c r="B793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="2:5" ht="15.75" customHeight="1">
       <c r="B794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="2:5" ht="15.75" customHeight="1">
       <c r="B795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="2:5" ht="15.75" customHeight="1">
       <c r="B796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="2:5" ht="15.75" customHeight="1">
       <c r="B797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="2:5" ht="15.75" customHeight="1">
       <c r="B798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="2:5" ht="15.75" customHeight="1">
       <c r="B799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="2:5" ht="15.75" customHeight="1">
       <c r="B800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="2:5" ht="15.75" customHeight="1">
       <c r="B801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="2:5" ht="15.75" customHeight="1">
       <c r="B802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="2:5" ht="15.75" customHeight="1">
       <c r="B803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="2:5" ht="15.75" customHeight="1">
       <c r="B804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="2:5" ht="15.75" customHeight="1">
       <c r="B805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="2:5" ht="15.75" customHeight="1">
       <c r="B806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="2:5" ht="15.75" customHeight="1">
       <c r="B807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="2:5" ht="15.75" customHeight="1">
       <c r="B808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="2:5" ht="15.75" customHeight="1">
       <c r="B809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="2:5" ht="15.75" customHeight="1">
       <c r="B810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="2:5" ht="15.75" customHeight="1">
       <c r="B811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="2:5" ht="15.75" customHeight="1">
       <c r="B812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="2:5" ht="15.75" customHeight="1">
       <c r="B813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="2:5" ht="15.75" customHeight="1">
       <c r="B814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="2:5" ht="15.75" customHeight="1">
       <c r="B815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="2:5" ht="15.75" customHeight="1">
       <c r="B816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="2:5" ht="15.75" customHeight="1">
       <c r="B817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="2:5" ht="15.75" customHeight="1">
       <c r="B818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="2:5" ht="15.75" customHeight="1">
       <c r="B819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="2:5" ht="15.75" customHeight="1">
       <c r="B820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="2:5" ht="15.75" customHeight="1">
       <c r="B821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="2:5" ht="15.75" customHeight="1">
       <c r="B822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="2:5" ht="15.75" customHeight="1">
       <c r="B823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="2:5" ht="15.75" customHeight="1">
       <c r="B824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="2:5" ht="15.75" customHeight="1">
       <c r="B825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="2:5" ht="15.75" customHeight="1">
       <c r="B826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="2:5" ht="15.75" customHeight="1">
       <c r="B827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="2:5" ht="15.75" customHeight="1">
       <c r="B828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="2:5" ht="15.75" customHeight="1">
       <c r="B829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="2:5" ht="15.75" customHeight="1">
       <c r="B830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="2:5" ht="15.75" customHeight="1">
       <c r="B831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="2:5" ht="15.75" customHeight="1">
       <c r="B832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="2:5" ht="15.75" customHeight="1">
       <c r="B833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="2:5" ht="15.75" customHeight="1">
       <c r="B834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="2:5" ht="15.75" customHeight="1">
       <c r="B835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="2:5" ht="15.75" customHeight="1">
       <c r="B836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="2:5" ht="15.75" customHeight="1">
       <c r="B837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="2:5" ht="15.75" customHeight="1">
       <c r="B838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="2:5" ht="15.75" customHeight="1">
       <c r="B839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="2:5" ht="15.75" customHeight="1">
       <c r="B840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="2:5" ht="15.75" customHeight="1">
       <c r="B841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="2:5" ht="15.75" customHeight="1">
       <c r="B842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="2:5" ht="15.75" customHeight="1">
       <c r="B843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="2:5" ht="15.75" customHeight="1">
       <c r="B844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="2:5" ht="15.75" customHeight="1">
       <c r="B845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="2:5" ht="15.75" customHeight="1">
       <c r="B846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="2:5" ht="15.75" customHeight="1">
       <c r="B847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="2:5" ht="15.75" customHeight="1">
       <c r="B848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="2:5" ht="15.75" customHeight="1">
       <c r="B849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="2:5" ht="15.75" customHeight="1">
       <c r="B850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="2:5" ht="15.75" customHeight="1">
       <c r="B851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="2:5" ht="15.75" customHeight="1">
       <c r="B852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="2:5" ht="15.75" customHeight="1">
       <c r="B853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="2:5" ht="15.75" customHeight="1">
       <c r="B854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="2:5" ht="15.75" customHeight="1">
       <c r="B855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="2:5" ht="15.75" customHeight="1">
       <c r="B856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="2:5" ht="15.75" customHeight="1">
       <c r="B857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="2:5" ht="15.75" customHeight="1">
       <c r="B858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="2:5" ht="15.75" customHeight="1">
       <c r="B859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="2:5" ht="15.75" customHeight="1">
       <c r="B860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="2:5" ht="15.75" customHeight="1">
       <c r="B861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="2:5" ht="15.75" customHeight="1">
       <c r="B862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="2:5" ht="15.75" customHeight="1">
       <c r="B863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="2:5" ht="15.75" customHeight="1">
       <c r="B864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="2:5" ht="15.75" customHeight="1">
       <c r="B865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="2:5" ht="15.75" customHeight="1">
       <c r="B866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="2:5" ht="15.75" customHeight="1">
       <c r="B867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="2:5" ht="15.75" customHeight="1">
       <c r="B868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="2:5" ht="15.75" customHeight="1">
       <c r="B869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="2:5" ht="15.75" customHeight="1">
       <c r="B870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="2:5" ht="15.75" customHeight="1">
       <c r="B871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="2:5" ht="15.75" customHeight="1">
       <c r="B872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="2:5" ht="15.75" customHeight="1">
       <c r="B873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="2:5" ht="15.75" customHeight="1">
       <c r="B874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="2:5" ht="15.75" customHeight="1">
       <c r="B875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="2:5" ht="15.75" customHeight="1">
       <c r="B876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="2:5" ht="15.75" customHeight="1">
       <c r="B877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="2:5" ht="15.75" customHeight="1">
       <c r="B878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="2:5" ht="15.75" customHeight="1">
       <c r="B879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="2:5" ht="15.75" customHeight="1">
       <c r="B880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="2:5" ht="15.75" customHeight="1">
       <c r="B881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="2:5" ht="15.75" customHeight="1">
       <c r="B882" s="1"/>
       <c r="E882" s="1"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="2:5" ht="15.75" customHeight="1">
       <c r="B883" s="1"/>
       <c r="E883" s="1"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="2:5" ht="15.75" customHeight="1">
       <c r="B884" s="1"/>
       <c r="E884" s="1"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="2:5" ht="15.75" customHeight="1">
       <c r="B885" s="1"/>
       <c r="E885" s="1"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="2:5" ht="15.75" customHeight="1">
       <c r="B886" s="1"/>
       <c r="E886" s="1"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="2:5" ht="15.75" customHeight="1">
       <c r="B887" s="1"/>
       <c r="E887" s="1"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="2:5" ht="15.75" customHeight="1">
       <c r="B888" s="1"/>
       <c r="E888" s="1"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="2:5" ht="15.75" customHeight="1">
       <c r="B889" s="1"/>
       <c r="E889" s="1"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="2:5" ht="15.75" customHeight="1">
       <c r="B890" s="1"/>
       <c r="E890" s="1"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="2:5" ht="15.75" customHeight="1">
       <c r="B891" s="1"/>
       <c r="E891" s="1"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="2:5" ht="15.75" customHeight="1">
       <c r="B892" s="1"/>
       <c r="E892" s="1"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="2:5" ht="15.75" customHeight="1">
       <c r="B893" s="1"/>
       <c r="E893" s="1"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="2:5" ht="15.75" customHeight="1">
       <c r="B894" s="1"/>
       <c r="E894" s="1"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="2:5" ht="15.75" customHeight="1">
       <c r="B895" s="1"/>
       <c r="E895" s="1"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="2:5" ht="15.75" customHeight="1">
       <c r="B896" s="1"/>
       <c r="E896" s="1"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="2:5" ht="15.75" customHeight="1">
       <c r="B897" s="1"/>
       <c r="E897" s="1"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="2:5" ht="15.75" customHeight="1">
       <c r="B898" s="1"/>
       <c r="E898" s="1"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="2:5" ht="15.75" customHeight="1">
       <c r="B899" s="1"/>
       <c r="E899" s="1"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="2:5" ht="15.75" customHeight="1">
       <c r="B900" s="1"/>
       <c r="E900" s="1"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="2:5" ht="15.75" customHeight="1">
       <c r="B901" s="1"/>
       <c r="E901" s="1"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="2:5" ht="15.75" customHeight="1">
       <c r="B902" s="1"/>
       <c r="E902" s="1"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="2:5" ht="15.75" customHeight="1">
       <c r="B903" s="1"/>
       <c r="E903" s="1"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="2:5" ht="15.75" customHeight="1">
       <c r="B904" s="1"/>
       <c r="E904" s="1"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="2:5" ht="15.75" customHeight="1">
       <c r="B905" s="1"/>
       <c r="E905" s="1"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="2:5" ht="15.75" customHeight="1">
       <c r="B906" s="1"/>
       <c r="E906" s="1"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="2:5" ht="15.75" customHeight="1">
       <c r="B907" s="1"/>
       <c r="E907" s="1"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="2:5" ht="15.75" customHeight="1">
       <c r="B908" s="1"/>
       <c r="E908" s="1"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="2:5" ht="15.75" customHeight="1">
       <c r="B909" s="1"/>
       <c r="E909" s="1"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="2:5" ht="15.75" customHeight="1">
       <c r="B910" s="1"/>
       <c r="E910" s="1"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="2:5" ht="15.75" customHeight="1">
       <c r="B911" s="1"/>
       <c r="E911" s="1"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="2:5" ht="15.75" customHeight="1">
       <c r="B912" s="1"/>
       <c r="E912" s="1"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="2:5" ht="15.75" customHeight="1">
       <c r="B913" s="1"/>
       <c r="E913" s="1"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="2:5" ht="15.75" customHeight="1">
       <c r="B914" s="1"/>
       <c r="E914" s="1"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="2:5" ht="15.75" customHeight="1">
       <c r="B915" s="1"/>
       <c r="E915" s="1"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="2:5" ht="15.75" customHeight="1">
       <c r="B916" s="1"/>
       <c r="E916" s="1"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="2:5" ht="15.75" customHeight="1">
       <c r="B917" s="1"/>
       <c r="E917" s="1"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="2:5" ht="15.75" customHeight="1">
       <c r="B918" s="1"/>
       <c r="E918" s="1"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="2:5" ht="15.75" customHeight="1">
       <c r="B919" s="1"/>
       <c r="E919" s="1"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="2:5" ht="15.75" customHeight="1">
       <c r="B920" s="1"/>
       <c r="E920" s="1"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="2:5" ht="15.75" customHeight="1">
       <c r="B921" s="1"/>
       <c r="E921" s="1"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="2:5" ht="15.75" customHeight="1">
       <c r="B922" s="1"/>
       <c r="E922" s="1"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="2:5" ht="15.75" customHeight="1">
       <c r="B923" s="1"/>
       <c r="E923" s="1"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="2:5" ht="15.75" customHeight="1">
       <c r="B924" s="1"/>
       <c r="E924" s="1"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="2:5" ht="15.75" customHeight="1">
       <c r="B925" s="1"/>
       <c r="E925" s="1"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="2:5" ht="15.75" customHeight="1">
       <c r="B926" s="1"/>
       <c r="E926" s="1"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="2:5" ht="15.75" customHeight="1">
       <c r="B927" s="1"/>
       <c r="E927" s="1"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="2:5" ht="15.75" customHeight="1">
       <c r="B928" s="1"/>
       <c r="E928" s="1"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="2:5" ht="15.75" customHeight="1">
       <c r="B929" s="1"/>
       <c r="E929" s="1"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="2:5" ht="15.75" customHeight="1">
       <c r="B930" s="1"/>
       <c r="E930" s="1"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="2:5" ht="15.75" customHeight="1">
       <c r="B931" s="1"/>
       <c r="E931" s="1"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="2:5" ht="15.75" customHeight="1">
       <c r="B932" s="1"/>
       <c r="E932" s="1"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="2:5" ht="15.75" customHeight="1">
       <c r="B933" s="1"/>
       <c r="E933" s="1"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="2:5" ht="15.75" customHeight="1">
       <c r="B934" s="1"/>
       <c r="E934" s="1"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="2:5" ht="15.75" customHeight="1">
       <c r="B935" s="1"/>
       <c r="E935" s="1"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="2:5" ht="15.75" customHeight="1">
       <c r="B936" s="1"/>
       <c r="E936" s="1"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="2:5" ht="15.75" customHeight="1">
       <c r="B937" s="1"/>
       <c r="E937" s="1"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="2:5" ht="15.75" customHeight="1">
       <c r="B938" s="1"/>
       <c r="E938" s="1"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="2:5" ht="15.75" customHeight="1">
       <c r="B939" s="1"/>
       <c r="E939" s="1"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="2:5" ht="15.75" customHeight="1">
       <c r="B940" s="1"/>
       <c r="E940" s="1"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="2:5" ht="15.75" customHeight="1">
       <c r="B941" s="1"/>
       <c r="E941" s="1"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="2:5" ht="15.75" customHeight="1">
       <c r="B942" s="1"/>
       <c r="E942" s="1"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="2:5" ht="15.75" customHeight="1">
       <c r="B943" s="1"/>
       <c r="E943" s="1"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="2:5" ht="15.75" customHeight="1">
       <c r="B944" s="1"/>
       <c r="E944" s="1"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="2:5" ht="15.75" customHeight="1">
       <c r="B945" s="1"/>
       <c r="E945" s="1"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="2:5" ht="15.75" customHeight="1">
       <c r="B946" s="1"/>
       <c r="E946" s="1"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="2:5" ht="15.75" customHeight="1">
       <c r="B947" s="1"/>
       <c r="E947" s="1"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="2:5" ht="15.75" customHeight="1">
       <c r="B948" s="1"/>
       <c r="E948" s="1"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="2:5" ht="15.75" customHeight="1">
       <c r="B949" s="1"/>
       <c r="E949" s="1"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="2:5" ht="15.75" customHeight="1">
       <c r="B950" s="1"/>
       <c r="E950" s="1"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="2:5" ht="15.75" customHeight="1">
       <c r="B951" s="1"/>
       <c r="E951" s="1"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="2:5" ht="15.75" customHeight="1">
       <c r="B952" s="1"/>
       <c r="E952" s="1"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="2:5" ht="15.75" customHeight="1">
       <c r="B953" s="1"/>
       <c r="E953" s="1"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="2:5" ht="15.75" customHeight="1">
       <c r="B954" s="1"/>
       <c r="E954" s="1"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="2:5" ht="15.75" customHeight="1">
       <c r="B955" s="1"/>
       <c r="E955" s="1"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="2:5" ht="15.75" customHeight="1">
       <c r="B956" s="1"/>
       <c r="E956" s="1"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="2:5" ht="15.75" customHeight="1">
       <c r="B957" s="1"/>
       <c r="E957" s="1"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="2:5" ht="15.75" customHeight="1">
       <c r="B958" s="1"/>
       <c r="E958" s="1"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="2:5" ht="15.75" customHeight="1">
       <c r="B959" s="1"/>
       <c r="E959" s="1"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="2:5" ht="15.75" customHeight="1">
       <c r="B960" s="1"/>
       <c r="E960" s="1"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="2:5" ht="15.75" customHeight="1">
       <c r="B961" s="1"/>
       <c r="E961" s="1"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="2:5" ht="15.75" customHeight="1">
       <c r="B962" s="1"/>
       <c r="E962" s="1"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="2:5" ht="15.75" customHeight="1">
       <c r="B963" s="1"/>
       <c r="E963" s="1"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="2:5" ht="15.75" customHeight="1">
       <c r="B964" s="1"/>
       <c r="E964" s="1"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="2:5" ht="15.75" customHeight="1">
       <c r="B965" s="1"/>
       <c r="E965" s="1"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="2:5" ht="15.75" customHeight="1">
       <c r="B966" s="1"/>
       <c r="E966" s="1"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="2:5" ht="15.75" customHeight="1">
       <c r="B967" s="1"/>
       <c r="E967" s="1"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="2:5" ht="15.75" customHeight="1">
       <c r="B968" s="1"/>
       <c r="E968" s="1"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="2:5" ht="15.75" customHeight="1">
       <c r="B969" s="1"/>
       <c r="E969" s="1"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="2:5" ht="15.75" customHeight="1">
       <c r="B970" s="1"/>
       <c r="E970" s="1"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="2:5" ht="15.75" customHeight="1">
       <c r="B971" s="1"/>
       <c r="E971" s="1"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="2:5" ht="15.75" customHeight="1">
       <c r="B972" s="1"/>
       <c r="E972" s="1"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="2:5" ht="15.75" customHeight="1">
       <c r="B973" s="1"/>
       <c r="E973" s="1"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="2:5" ht="15.75" customHeight="1">
       <c r="B974" s="1"/>
       <c r="E974" s="1"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="2:5" ht="15.75" customHeight="1">
       <c r="B975" s="1"/>
       <c r="E975" s="1"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="2:5" ht="15.75" customHeight="1">
       <c r="B976" s="1"/>
       <c r="E976" s="1"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="2:5" ht="15.75" customHeight="1">
       <c r="B977" s="1"/>
       <c r="E977" s="1"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="2:5" ht="15.75" customHeight="1">
       <c r="B978" s="1"/>
       <c r="E978" s="1"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="2:5" ht="15.75" customHeight="1">
       <c r="B979" s="1"/>
       <c r="E979" s="1"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="2:5" ht="15.75" customHeight="1">
       <c r="B980" s="1"/>
       <c r="E980" s="1"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="2:5" ht="15.75" customHeight="1">
       <c r="B981" s="1"/>
       <c r="E981" s="1"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="2:5" ht="15.75" customHeight="1">
       <c r="B982" s="1"/>
       <c r="E982" s="1"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="2:5" ht="15.75" customHeight="1">
       <c r="B983" s="1"/>
       <c r="E983" s="1"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="2:5" ht="15.75" customHeight="1">
       <c r="B984" s="1"/>
       <c r="E984" s="1"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="2:5" ht="15.75" customHeight="1">
       <c r="B985" s="1"/>
       <c r="E985" s="1"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="2:5" ht="15.75" customHeight="1">
       <c r="B986" s="1"/>
       <c r="E986" s="1"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="2:5" ht="15.75" customHeight="1">
       <c r="B987" s="1"/>
       <c r="E987" s="1"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="2:5" ht="15.75" customHeight="1">
       <c r="B988" s="1"/>
       <c r="E988" s="1"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="2:5" ht="15.75" customHeight="1">
       <c r="B989" s="1"/>
       <c r="E989" s="1"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="2:5" ht="15.75" customHeight="1">
       <c r="B990" s="1"/>
       <c r="E990" s="1"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="2:5" ht="15.75" customHeight="1">
       <c r="B991" s="1"/>
       <c r="E991" s="1"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="2:5" ht="15.75" customHeight="1">
       <c r="B992" s="1"/>
       <c r="E992" s="1"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="2:5" ht="15.75" customHeight="1">
       <c r="B993" s="1"/>
       <c r="E993" s="1"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="2:5" ht="15.75" customHeight="1">
       <c r="B994" s="1"/>
       <c r="E994" s="1"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="2:5" ht="15.75" customHeight="1">
       <c r="B995" s="1"/>
       <c r="E995" s="1"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="2:5" ht="15.75" customHeight="1">
       <c r="B996" s="1"/>
       <c r="E996" s="1"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="2:5" ht="15.75" customHeight="1">
       <c r="B997" s="1"/>
       <c r="E997" s="1"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="2:5" ht="15.75" customHeight="1">
       <c r="B998" s="1"/>
       <c r="E998" s="1"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="2:5" ht="15.75" customHeight="1">
       <c r="B999" s="1"/>
       <c r="E999" s="1"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1000" s="1"/>
       <c r="E1000" s="1"/>
     </row>
-    <row r="1001" ht="15.75" customHeight="1">
+    <row r="1001" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1001" s="1"/>
       <c r="E1001" s="1"/>
     </row>
-    <row r="1002" ht="15.75" customHeight="1">
+    <row r="1002" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1002" s="1"/>
       <c r="E1002" s="1"/>
     </row>
-    <row r="1003" ht="15.75" customHeight="1">
+    <row r="1003" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1003" s="1"/>
       <c r="E1003" s="1"/>
     </row>
-    <row r="1004" ht="15.75" customHeight="1">
+    <row r="1004" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1004" s="1"/>
       <c r="E1004" s="1"/>
     </row>
-    <row r="1005" ht="15.75" customHeight="1">
+    <row r="1005" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1005" s="1"/>
       <c r="E1005" s="1"/>
     </row>
-    <row r="1006" ht="15.75" customHeight="1">
+    <row r="1006" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1006" s="1"/>
       <c r="E1006" s="1"/>
     </row>
-    <row r="1007" ht="15.75" customHeight="1">
+    <row r="1007" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1007" s="1"/>
       <c r="E1007" s="1"/>
     </row>
-    <row r="1008" ht="15.75" customHeight="1">
+    <row r="1008" spans="2:5" ht="15.75" customHeight="1">
       <c r="B1008" s="1"/>
       <c r="E1008" s="1"/>
     </row>
+    <row r="1009" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B1009" s="1"/>
+      <c r="E1009" s="1"/>
+    </row>
+    <row r="1010" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B1010" s="1"/>
+      <c r="E1010" s="1"/>
+    </row>
+    <row r="1011" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B1011" s="1"/>
+      <c r="E1011" s="1"/>
+    </row>
+    <row r="1012" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B1012" s="1"/>
+      <c r="E1012" s="1"/>
+    </row>
+    <row r="1013" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B1013" s="1"/>
+      <c r="E1013" s="1"/>
+    </row>
+    <row r="1014" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B1014" s="1"/>
+      <c r="E1014" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B58:I58"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C6"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/02 DESARROLLO/DSEVI/01 Sprint 1/01 Planificación y Análisis/DSEVI-CP.xlsx
+++ b/02 DESARROLLO/DSEVI/01 Sprint 1/01 Planificación y Análisis/DSEVI-CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\DSEVI-ProyectoGC\SoftHome\02 DESARROLLO\DSEVI\01 Sprint 1\01 Planificación y Análisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAE188D-8F36-4CF1-8C76-379637D1627F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F9A55-9BF8-4449-8B2D-15A7F6B276DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -771,9 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1031,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1058,16 +1055,16 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:9" ht="30.6" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="2:9" ht="14.4">
       <c r="B4" s="1"/>
@@ -1270,7 +1267,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="29" t="s">
@@ -1297,7 +1294,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B26" s="52"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="29" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1319,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B27" s="52"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="33" t="s">
         <v>37</v>
       </c>
@@ -1347,7 +1344,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="33" t="s">
         <v>39</v>
       </c>
@@ -1372,7 +1369,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="33" t="s">
         <v>41</v>
       </c>
@@ -1397,7 +1394,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="52"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="33" t="s">
         <v>43</v>
       </c>
@@ -1422,7 +1419,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B31" s="53"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="29" t="s">
         <v>45</v>
       </c>
@@ -1564,21 +1561,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I36" s="37">
-        <v>0.6</v>
+      <c r="I36" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="39" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="26">
@@ -1591,21 +1588,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I37" s="44">
-        <v>0.8</v>
+      <c r="I37" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1">
       <c r="B39" s="16" t="s">
@@ -1627,26 +1624,26 @@
       <c r="B40" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="42">
         <v>44853</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="42">
         <v>44871</v>
       </c>
       <c r="H40" s="27">
         <f t="shared" ref="H40:H47" si="2">G40-F40-INT((G40-F40-WEEKDAY(G40)+1)/7)</f>
         <v>16</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1654,26 +1651,26 @@
       <c r="B41" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E41" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="42">
         <v>44853</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="42">
         <v>44871</v>
       </c>
       <c r="H41" s="27">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1681,26 +1678,26 @@
       <c r="B42" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="41" t="s">
         <v>80</v>
       </c>
       <c r="E42" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="42">
         <v>44860</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="42">
         <v>44880</v>
       </c>
       <c r="H42" s="27">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1708,26 +1705,26 @@
       <c r="B43" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="41" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="42">
         <v>44860</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="42">
         <v>44880</v>
       </c>
       <c r="H43" s="27">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1735,26 +1732,26 @@
       <c r="B44" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="41" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="42">
         <v>44867</v>
       </c>
-      <c r="G44" s="43">
+      <c r="G44" s="42">
         <v>44880</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1762,26 +1759,26 @@
       <c r="B45" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="41" t="s">
         <v>92</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="42">
         <v>44867</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="42">
         <v>44880</v>
       </c>
       <c r="H45" s="27">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1789,67 +1786,67 @@
       <c r="B46" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>95</v>
       </c>
       <c r="E46" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="42">
         <v>44874</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="42">
         <v>44880</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I46" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="42">
         <v>44880</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="42">
         <v>44883</v>
       </c>
       <c r="H47" s="27">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I47" s="44">
+      <c r="I47" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="56"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1">
       <c r="B49" s="16" t="s">
@@ -1868,56 +1865,56 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E50" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="44">
         <v>44883</v>
       </c>
-      <c r="G50" s="45">
+      <c r="G50" s="44">
         <v>44885</v>
       </c>
       <c r="H50" s="27">
         <f t="shared" ref="H50:H51" si="3">G50-F50-INT((G50-F50-WEEKDAY(G50)+1)/7)</f>
         <v>2</v>
       </c>
-      <c r="I50" s="44">
+      <c r="I50" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="44">
         <v>44883</v>
       </c>
-      <c r="G51" s="45">
+      <c r="G51" s="44">
         <v>44885</v>
       </c>
       <c r="H51" s="27">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I51" s="44">
+      <c r="I51" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1938,34 +1935,34 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="47" t="s">
         <v>111</v>
       </c>
       <c r="E53" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="44">
         <v>44885</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="44">
         <v>44890</v>
       </c>
       <c r="H53" s="27">
         <f t="shared" ref="H53:H57" si="4">G53-F53-INT((G53-F53-WEEKDAY(G53)+1)/7)</f>
         <v>5</v>
       </c>
-      <c r="I53" s="44">
+      <c r="I53" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="45" t="s">
         <v>112</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -1977,22 +1974,22 @@
       <c r="E54" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="44">
         <v>44885</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="44">
         <v>44890</v>
       </c>
       <c r="H54" s="27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I54" s="44">
+      <c r="I54" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C55" s="23" t="s">
@@ -2001,88 +1998,88 @@
       <c r="D55" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="44">
         <v>44885</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="44">
         <v>44890</v>
       </c>
       <c r="H55" s="27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I55" s="44">
+      <c r="I55" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="44">
         <v>44885</v>
       </c>
-      <c r="G56" s="45">
+      <c r="G56" s="44">
         <v>44890</v>
       </c>
       <c r="H56" s="27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I56" s="44">
+      <c r="I56" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="44">
         <v>44885</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="44">
         <v>44890</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I57" s="44">
+      <c r="I57" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="56"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="55"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1">
       <c r="B59" s="1"/>

--- a/02 DESARROLLO/DSEVI/01 Sprint 1/01 Planificación y Análisis/DSEVI-CP.xlsx
+++ b/02 DESARROLLO/DSEVI/01 Sprint 1/01 Planificación y Análisis/DSEVI-CP.xlsx
@@ -1,33 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\DSEVI-ProyectoGC\SoftHome\02 DESARROLLO\DSEVI\01 Sprint 1\01 Planificación y Análisis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F9A55-9BF8-4449-8B2D-15A7F6B276DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miNrZ9tPzLjuFrahEF4G1sxQcxZHA=="/>
     </ext>
@@ -36,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -74,6 +54,12 @@
     <t>David Villacis Alvear</t>
   </si>
   <si>
+    <t>Cuando son mismos documentos puede se : 
+DSEVI-ECU-01.docx, DSEVI-ECU-02.docx
+Si se repite Analisis o arquitectura 
+DSEVI-ARD.docx, DSEVI-AND.docx</t>
+  </si>
+  <si>
     <t>Actividad</t>
   </si>
   <si>
@@ -344,7 +330,7 @@
     <t>Semana 10</t>
   </si>
   <si>
-    <t>Realizar pruebas de ambiente</t>
+    <t>Realizar pruebas unitarias y de ambiente</t>
   </si>
   <si>
     <t>Documento de Plan de Pruebas de Sotware</t>
@@ -353,25 +339,25 @@
     <t>DSEVI-PPS.docx</t>
   </si>
   <si>
+    <t>Jorge, Paulo</t>
+  </si>
+  <si>
+    <t>DESPLIEGUE</t>
+  </si>
+  <si>
+    <t>Semana 11</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar las HU del Product Backlog</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>DSEVI-PB.docx</t>
+  </si>
+  <si>
     <t>Jorge</t>
-  </si>
-  <si>
-    <t>Realizar pruebas unitarias</t>
-  </si>
-  <si>
-    <t>DESPLIEGUE</t>
-  </si>
-  <si>
-    <t>Semana 11</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar las HU del Product Backlog</t>
-  </si>
-  <si>
-    <t>Product Backlog</t>
-  </si>
-  <si>
-    <t>DSEVI-PB.docx</t>
   </si>
   <si>
     <t>Verificar y finalizar el diagrama de la base de datos</t>
@@ -410,111 +396,104 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="17">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="36"/>
+      <sz val="36.0"/>
       <color rgb="FF131930"/>
       <name val="Open Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
       <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF202124"/>
       <name val="Docs-Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+    <font/>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11.0"/>
+      <color rgb="FF00FF00"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -548,31 +527,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="10">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -587,27 +553,19 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -619,8 +577,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -629,9 +585,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -640,27 +593,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -670,166 +618,205 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="63">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="6" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="16" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="6" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1019,4904 +1006,4890 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I1014"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="62" customWidth="1"/>
-    <col min="10" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.71"/>
+    <col customWidth="1" min="2" max="2" width="46.71"/>
+    <col customWidth="1" min="3" max="3" width="45.0"/>
+    <col customWidth="1" min="4" max="4" width="19.43"/>
+    <col customWidth="1" min="5" max="5" width="18.86"/>
+    <col customWidth="1" min="6" max="6" width="10.71"/>
+    <col customWidth="1" min="7" max="7" width="16.14"/>
+    <col customWidth="1" min="8" max="8" width="10.71"/>
+    <col customWidth="1" min="9" max="9" width="62.0"/>
+    <col customWidth="1" min="10" max="26" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.4">
+    <row r="1">
       <c r="B1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="14.4" hidden="1">
+    <row r="2">
       <c r="B2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="30.6" customHeight="1">
-      <c r="B3" s="48" t="s">
+    <row r="3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="2:9" ht="14.4">
+    </row>
+    <row r="4">
       <c r="B4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="14.4">
+    <row r="5">
       <c r="B5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="15.6">
-      <c r="B6" s="2" t="s">
+    <row r="6">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="3.75" customHeight="1">
-      <c r="B7" s="4"/>
+    <row r="7" ht="3.75" customHeight="1">
+      <c r="B7" s="5"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="15.6">
-      <c r="B8" s="2" t="s">
+    <row r="8">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
-        <v>2</v>
+      <c r="C8" s="6">
+        <v>2.0</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:9" ht="3.75" customHeight="1">
-      <c r="B9" s="4"/>
+    <row r="9" ht="3.75" customHeight="1">
+      <c r="B9" s="5"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:9" ht="15.6">
-      <c r="B10" s="2" t="s">
+    <row r="10">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:9" ht="5.25" customHeight="1">
-      <c r="B11" s="4"/>
+    <row r="11" ht="5.25" customHeight="1">
+      <c r="B11" s="5"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:9" ht="15.6">
-      <c r="B12" s="2" t="s">
+    <row r="12">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:9" ht="6" customHeight="1">
-      <c r="B13" s="4"/>
+    <row r="13" ht="6.0" customHeight="1">
+      <c r="B13" s="5"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:9" ht="15.6">
-      <c r="B14" s="2" t="s">
+    <row r="14">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8">
-        <v>44818</v>
+      <c r="C14" s="9">
+        <v>44818.0</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="4.5" customHeight="1">
-      <c r="B15" s="4"/>
+    <row r="15" ht="4.5" customHeight="1">
+      <c r="B15" s="5"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="15.6">
-      <c r="B16" s="2" t="s">
+    <row r="16">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9">
-        <v>44890</v>
+      <c r="C16" s="10">
+        <v>44890.0</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:9" ht="14.4">
+    <row r="17">
       <c r="B17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="14.4">
+    <row r="18">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="14.4">
+    <row r="19">
       <c r="B19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="14.4">
+    <row r="20">
       <c r="B20" s="1"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="H21" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B22" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19" t="s">
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B23" s="22" t="s">
+      <c r="G22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="26">
-        <v>44818</v>
-      </c>
-      <c r="G23" s="26">
-        <v>44825</v>
-      </c>
-      <c r="H23" s="27">
-        <f t="shared" ref="H23:H32" si="0">G23-F23-INT((G23-F23-WEEKDAY(G23)+1)/7)</f>
+      <c r="E23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="27">
+        <v>44818.0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" ref="H23:H32" si="1">G23-F23-INT((G23-F23-WEEKDAY(G23)+1)/7)</f>
         <v>7</v>
       </c>
-      <c r="I23" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="29" t="s">
+      <c r="I23" s="29">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="26">
-        <v>44820</v>
-      </c>
-      <c r="G24" s="26">
-        <v>44825</v>
-      </c>
-      <c r="H24" s="27">
-        <f t="shared" si="0"/>
+      <c r="E24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="27">
+        <v>44820.0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I24" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B25" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="I24" s="29">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="26">
-        <v>44825</v>
-      </c>
-      <c r="G25" s="26">
-        <v>44832</v>
-      </c>
-      <c r="H25" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I25" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B26" s="51"/>
-      <c r="C26" s="29" t="s">
+      <c r="E25" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="26">
-        <v>44825</v>
-      </c>
-      <c r="G26" s="26">
-        <v>44832</v>
-      </c>
-      <c r="H26" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I26" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B27" s="51"/>
-      <c r="C27" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="26">
-        <v>44825</v>
-      </c>
-      <c r="G27" s="26">
-        <v>44832</v>
-      </c>
-      <c r="H27" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I27" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B28" s="51"/>
-      <c r="C28" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="26">
-        <v>44825</v>
-      </c>
-      <c r="G28" s="26">
-        <v>44832</v>
-      </c>
-      <c r="H28" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I28" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B29" s="51"/>
-      <c r="C29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="26">
-        <v>44825</v>
-      </c>
-      <c r="G29" s="26">
-        <v>44832</v>
-      </c>
-      <c r="H29" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I29" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B30" s="51"/>
-      <c r="C30" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="26">
-        <v>44825</v>
-      </c>
-      <c r="G30" s="26">
-        <v>44832</v>
-      </c>
-      <c r="H30" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I30" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B31" s="52"/>
-      <c r="C31" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="26">
-        <v>44825</v>
-      </c>
-      <c r="G31" s="26">
-        <v>44832</v>
-      </c>
-      <c r="H31" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I31" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B32" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="26">
-        <v>44823</v>
-      </c>
-      <c r="G32" s="26">
-        <v>44827</v>
-      </c>
-      <c r="H32" s="27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I32" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B33" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B34" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="26">
-        <v>44841</v>
-      </c>
-      <c r="G34" s="26">
-        <v>44846</v>
-      </c>
-      <c r="H34" s="27">
-        <f t="shared" ref="H34:H37" si="1">G34-F34-INT((G34-F34-WEEKDAY(G34)+1)/7)</f>
-        <v>5</v>
-      </c>
-      <c r="I34" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="26">
-        <v>44841</v>
-      </c>
-      <c r="G35" s="26">
-        <v>44848</v>
-      </c>
-      <c r="H35" s="27">
+      <c r="F25" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="G25" s="27">
+        <v>44832.0</v>
+      </c>
+      <c r="H25" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I35" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B36" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="26">
-        <v>44842</v>
-      </c>
-      <c r="G36" s="26">
-        <v>44850</v>
-      </c>
-      <c r="H36" s="27">
+      <c r="I25" s="29">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="34"/>
+      <c r="C26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="G26" s="27">
+        <v>44832.0</v>
+      </c>
+      <c r="H26" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I36" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="37" t="s">
+      <c r="I26" s="29">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="G27" s="27">
+        <v>44832.0</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="34"/>
+      <c r="C28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="G28" s="27">
+        <v>44832.0</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I28" s="29">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="34"/>
+      <c r="C29" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="G29" s="27">
+        <v>44832.0</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I29" s="29">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="34"/>
+      <c r="C30" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="G30" s="27">
+        <v>44832.0</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I30" s="29">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="37"/>
+      <c r="C31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="27">
+        <v>44825.0</v>
+      </c>
+      <c r="G31" s="27">
+        <v>44832.0</v>
+      </c>
+      <c r="H31" s="28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I31" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="27">
+        <v>44823.0</v>
+      </c>
+      <c r="G32" s="27">
+        <v>44827.0</v>
+      </c>
+      <c r="H32" s="28">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I32" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="27">
+        <v>44841.0</v>
+      </c>
+      <c r="G34" s="27">
+        <v>44846.0</v>
+      </c>
+      <c r="H34" s="28">
+        <f t="shared" ref="H34:H37" si="2">G34-F34-INT((G34-F34-WEEKDAY(G34)+1)/7)</f>
+        <v>5</v>
+      </c>
+      <c r="I34" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="27">
+        <v>44841.0</v>
+      </c>
+      <c r="G35" s="27">
+        <v>44848.0</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I35" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="F36" s="27">
+        <v>44842.0</v>
+      </c>
+      <c r="G36" s="27">
+        <v>44850.0</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I36" s="41">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="C37" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="D37" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="26">
-        <v>44843</v>
-      </c>
-      <c r="G37" s="26">
-        <v>44853</v>
-      </c>
-      <c r="H37" s="27">
-        <f t="shared" si="1"/>
+      <c r="E37" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="27">
+        <v>44843.0</v>
+      </c>
+      <c r="G37" s="27">
+        <v>44853.0</v>
+      </c>
+      <c r="H37" s="28">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I37" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B38" s="53" t="s">
+      <c r="I37" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="50">
+        <v>44853.0</v>
+      </c>
+      <c r="G40" s="50">
+        <v>44871.0</v>
+      </c>
+      <c r="H40" s="28">
+        <f t="shared" ref="H40:H47" si="3">G40-F40-INT((G40-F40-WEEKDAY(G40)+1)/7)</f>
+        <v>16</v>
+      </c>
+      <c r="I40" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="50">
+        <v>44853.0</v>
+      </c>
+      <c r="G41" s="50">
+        <v>44871.0</v>
+      </c>
+      <c r="H41" s="28">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I41" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="50">
+        <v>44860.0</v>
+      </c>
+      <c r="G42" s="50">
+        <v>44880.0</v>
+      </c>
+      <c r="H42" s="28">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I42" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="50">
+        <v>44860.0</v>
+      </c>
+      <c r="G43" s="50">
+        <v>44880.0</v>
+      </c>
+      <c r="H43" s="28">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I43" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="50">
+        <v>44867.0</v>
+      </c>
+      <c r="G44" s="50">
+        <v>44880.0</v>
+      </c>
+      <c r="H44" s="28">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I44" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="50">
+        <v>44867.0</v>
+      </c>
+      <c r="G45" s="50">
+        <v>44880.0</v>
+      </c>
+      <c r="H45" s="28">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I45" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="50">
+        <v>44874.0</v>
+      </c>
+      <c r="G46" s="50">
+        <v>44880.0</v>
+      </c>
+      <c r="H46" s="28">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I46" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B39" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B40" s="25" t="s">
+      <c r="F47" s="50">
+        <v>44880.0</v>
+      </c>
+      <c r="G47" s="50">
+        <v>44883.0</v>
+      </c>
+      <c r="H47" s="28">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I47" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="47"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="42">
-        <v>44853</v>
-      </c>
-      <c r="G40" s="42">
-        <v>44871</v>
-      </c>
-      <c r="H40" s="27">
-        <f t="shared" ref="H40:H47" si="2">G40-F40-INT((G40-F40-WEEKDAY(G40)+1)/7)</f>
-        <v>16</v>
-      </c>
-      <c r="I40" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B41" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="42">
-        <v>44853</v>
-      </c>
-      <c r="G41" s="42">
-        <v>44871</v>
-      </c>
-      <c r="H41" s="27">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I41" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B42" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="42">
-        <v>44860</v>
-      </c>
-      <c r="G42" s="42">
-        <v>44880</v>
-      </c>
-      <c r="H42" s="27">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I42" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="42">
-        <v>44860</v>
-      </c>
-      <c r="G43" s="42">
-        <v>44880</v>
-      </c>
-      <c r="H43" s="27">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I43" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B44" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="42">
-        <v>44867</v>
-      </c>
-      <c r="G44" s="42">
-        <v>44880</v>
-      </c>
-      <c r="H44" s="27">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I44" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B45" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="42">
-        <v>44867</v>
-      </c>
-      <c r="G45" s="42">
-        <v>44880</v>
-      </c>
-      <c r="H45" s="27">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I45" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="42">
-        <v>44874</v>
-      </c>
-      <c r="G46" s="42">
-        <v>44880</v>
-      </c>
-      <c r="H46" s="27">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I46" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B47" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="42">
-        <v>44880</v>
-      </c>
-      <c r="G47" s="42">
-        <v>44883</v>
-      </c>
-      <c r="H47" s="27">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I47" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B48" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B49" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B50" s="37" t="s">
+      <c r="G49" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="B50" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="C50" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="D50" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="44">
-        <v>44883</v>
-      </c>
-      <c r="G50" s="44">
-        <v>44885</v>
-      </c>
-      <c r="H50" s="27">
-        <f t="shared" ref="H50:H51" si="3">G50-F50-INT((G50-F50-WEEKDAY(G50)+1)/7)</f>
+      <c r="E50" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="54">
+        <v>44883.0</v>
+      </c>
+      <c r="G50" s="55">
+        <v>44885.0</v>
+      </c>
+      <c r="H50" s="56">
+        <f>G50-F50-INT((G50-F50-WEEKDAY(G50)+1)/7)</f>
         <v>2</v>
       </c>
-      <c r="I50" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B51" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="44">
-        <v>44883</v>
-      </c>
-      <c r="G51" s="44">
-        <v>44885</v>
-      </c>
-      <c r="H51" s="27">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I51" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B52" s="16" t="s">
+      <c r="I50" s="57">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="19" t="s">
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="45" t="s">
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="44">
-        <v>44885</v>
-      </c>
-      <c r="G53" s="44">
-        <v>44890</v>
-      </c>
-      <c r="H53" s="27">
+      <c r="E53" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="61">
+        <v>44885.0</v>
+      </c>
+      <c r="G53" s="61">
+        <v>44890.0</v>
+      </c>
+      <c r="H53" s="28">
         <f t="shared" ref="H53:H57" si="4">G53-F53-INT((G53-F53-WEEKDAY(G53)+1)/7)</f>
         <v>5</v>
       </c>
-      <c r="I53" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="29" t="s">
+      <c r="I53" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="B54" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="44">
-        <v>44885</v>
-      </c>
-      <c r="G54" s="44">
-        <v>44890</v>
-      </c>
-      <c r="H54" s="27">
+      <c r="D54" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="61">
+        <v>44885.0</v>
+      </c>
+      <c r="G54" s="61">
+        <v>44890.0</v>
+      </c>
+      <c r="H54" s="28">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I54" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="29" t="s">
+      <c r="I54" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="B55" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="44">
-        <v>44885</v>
-      </c>
-      <c r="G55" s="44">
-        <v>44890</v>
-      </c>
-      <c r="H55" s="27">
+      <c r="D55" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="61">
+        <v>44885.0</v>
+      </c>
+      <c r="G55" s="61">
+        <v>44890.0</v>
+      </c>
+      <c r="H55" s="28">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I55" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="46" t="s">
+      <c r="I55" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="B56" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="C56" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="44">
-        <v>44885</v>
-      </c>
-      <c r="G56" s="44">
-        <v>44890</v>
-      </c>
-      <c r="H56" s="27">
+      <c r="D56" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="61">
+        <v>44885.0</v>
+      </c>
+      <c r="G56" s="61">
+        <v>44890.0</v>
+      </c>
+      <c r="H56" s="28">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I56" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B57" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="46" t="s">
+      <c r="I56" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="B57" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="C57" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="44">
-        <v>44885</v>
-      </c>
-      <c r="G57" s="44">
-        <v>44890</v>
-      </c>
-      <c r="H57" s="27">
+      <c r="D57" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="61">
+        <v>44885.0</v>
+      </c>
+      <c r="G57" s="61">
+        <v>44890.0</v>
+      </c>
+      <c r="H57" s="28">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I57" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="55"/>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1">
+      <c r="I57" s="39">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="B58" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="2:5" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="2:5" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="2:5" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="2:5" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="2:5" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="2:5" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="B73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="2:5" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="B74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="2:5" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="2:5" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="2:5" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="B77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="2:5" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="2:5" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="2:5" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="B80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="2:5" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="B81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="2:5" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="2:5" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="2:5" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="B84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="2:5" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="B85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="B86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="2:5" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="B87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="2:5" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="B88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="2:5" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="2:5" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="B90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="2:5" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="2:5" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="2:5" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="2:5" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="2:5" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="B95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="B96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="2:5" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="B97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="2:5" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="2:5" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="B99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="2:5" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="B100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="2:5" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="2:5" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="B102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="2:5" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="2:5" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="B104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="2:5" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="B105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="2:5" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="B106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="2:5" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="B107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="2:5" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="B108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="2:5" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="B109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="2:5" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="B110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="2:5" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="B111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="2:5" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="B112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="2:5" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="B113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="2:5" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="B114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="2:5" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="B115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="2:5" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="B116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="2:5" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="B117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="2:5" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="B118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="2:5" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="B119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="2:5" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="B120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="2:5" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="B121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="2:5" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="B122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="2:5" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="B123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="2:5" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="B124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="2:5" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="B125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="2:5" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="B126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="2:5" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="B127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="2:5" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="B128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="2:5" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="B129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="2:5" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="B130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="2:5" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="B131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="2:5" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="B132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="2:5" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="2:5" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="2:5" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="B135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="2:5" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="2:5" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="B137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="2:5" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="2:5" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="B139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="2:5" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="B140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="2:5" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="B141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="2:5" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="B142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="2:5" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="2:5" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="B144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="2:5" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="B145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="2:5" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="B146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="2:5" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="2:5" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="B148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="2:5" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="B149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="2:5" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="B150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="2:5" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="B151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="2:5" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="2:5" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="B153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="2:5" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="B154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="2:5" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="B155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="B156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="2:5" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="B157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="2:5" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="2:5" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="B159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="2:5" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="B160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="2:5" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="B161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="2:5" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="B162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="2:5" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="B163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="2:5" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="2:5" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="B165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="2:5" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="2:5" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="B167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="2:5" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="B168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="2:5" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="B169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="2:5" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="B170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="2:5" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="B171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="2:5" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="B172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="2:5" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="B173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="2:5" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="B174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="2:5" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="B175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="2:5" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="B176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="2:5" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="2:5" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="2:5" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="2:5" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="B180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="2:5" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="2:5" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="2:5" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="2:5" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="B184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="2:5" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="2:5" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="2:5" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="2:5" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="2:5" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="2:5" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="2:5" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="2:5" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="2:5" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="2:5" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="2:5" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="B195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="2:5" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="B196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="2:5" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="B197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="2:5" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="2:5" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="B199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="2:5" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="B200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="2:5" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="B201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="2:5" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="2:5" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="B203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="2:5" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="2:5" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="B205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="2:5" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="B206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="2:5" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="B207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="2:5" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="B208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="2:5" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="B209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="2:5" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="B210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="2:5" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="B211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="2:5" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="B212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="2:5" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="B213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="2:5" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="B214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="2:5" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="B215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="2:5" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="B216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="2:5" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="B217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="2:5" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="B218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="2:5" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="2:5" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="B220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="2:5" ht="15.75" customHeight="1">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="B221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="2:5" ht="15.75" customHeight="1">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="B222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="2:5" ht="15.75" customHeight="1">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="B223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="2:5" ht="15.75" customHeight="1">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="B224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="2:5" ht="15.75" customHeight="1">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="B225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="2:5" ht="15.75" customHeight="1">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="B226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="2:5" ht="15.75" customHeight="1">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="B227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="2:5" ht="15.75" customHeight="1">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="B228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="2:5" ht="15.75" customHeight="1">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="B229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="2:5" ht="15.75" customHeight="1">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="B230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="2:5" ht="15.75" customHeight="1">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="B231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="2:5" ht="15.75" customHeight="1">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="B232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="2:5" ht="15.75" customHeight="1">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="B233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="2:5" ht="15.75" customHeight="1">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="B234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="2:5" ht="15.75" customHeight="1">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="B235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="2:5" ht="15.75" customHeight="1">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="B236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="2:5" ht="15.75" customHeight="1">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="B237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="2:5" ht="15.75" customHeight="1">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="B238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="2:5" ht="15.75" customHeight="1">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="B239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="2:5" ht="15.75" customHeight="1">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="B240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="2:5" ht="15.75" customHeight="1">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="B241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="2:5" ht="15.75" customHeight="1">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="B242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="2:5" ht="15.75" customHeight="1">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="B243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="2:5" ht="15.75" customHeight="1">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="B244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="2:5" ht="15.75" customHeight="1">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="B245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="2:5" ht="15.75" customHeight="1">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="B246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="2:5" ht="15.75" customHeight="1">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="B247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="2:5" ht="15.75" customHeight="1">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="B248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="2:5" ht="15.75" customHeight="1">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="B249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="2:5" ht="15.75" customHeight="1">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="B250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="2:5" ht="15.75" customHeight="1">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="B251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="2:5" ht="15.75" customHeight="1">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="B252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="2:5" ht="15.75" customHeight="1">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="B253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="2:5" ht="15.75" customHeight="1">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="B254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="2:5" ht="15.75" customHeight="1">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="B255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="2:5" ht="15.75" customHeight="1">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="B256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="2:5" ht="15.75" customHeight="1">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="B257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="2:5" ht="15.75" customHeight="1">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="B258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="2:5" ht="15.75" customHeight="1">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="B259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="2:5" ht="15.75" customHeight="1">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="B260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="2:5" ht="15.75" customHeight="1">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="B261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="2:5" ht="15.75" customHeight="1">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="B262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="2:5" ht="15.75" customHeight="1">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="B263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="2:5" ht="15.75" customHeight="1">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="B264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="2:5" ht="15.75" customHeight="1">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="B265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="2:5" ht="15.75" customHeight="1">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="B266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="2:5" ht="15.75" customHeight="1">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="B267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="2:5" ht="15.75" customHeight="1">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="B268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="2:5" ht="15.75" customHeight="1">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="B269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="2:5" ht="15.75" customHeight="1">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="B270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="2:5" ht="15.75" customHeight="1">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="B271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="2:5" ht="15.75" customHeight="1">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="B272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="2:5" ht="15.75" customHeight="1">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="B273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="2:5" ht="15.75" customHeight="1">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="B274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="2:5" ht="15.75" customHeight="1">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="B275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="2:5" ht="15.75" customHeight="1">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="B276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="2:5" ht="15.75" customHeight="1">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="B277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="2:5" ht="15.75" customHeight="1">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="B278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="2:5" ht="15.75" customHeight="1">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="B279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="2:5" ht="15.75" customHeight="1">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="B280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="2:5" ht="15.75" customHeight="1">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="B281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="2:5" ht="15.75" customHeight="1">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="B282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="2:5" ht="15.75" customHeight="1">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="B283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="2:5" ht="15.75" customHeight="1">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="B284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="2:5" ht="15.75" customHeight="1">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="B285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="2:5" ht="15.75" customHeight="1">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="B286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="2:5" ht="15.75" customHeight="1">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="B287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="2:5" ht="15.75" customHeight="1">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="B288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="2:5" ht="15.75" customHeight="1">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="B289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="2:5" ht="15.75" customHeight="1">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="B290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="2:5" ht="15.75" customHeight="1">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="B291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="2:5" ht="15.75" customHeight="1">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="B292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="2:5" ht="15.75" customHeight="1">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="B293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="2:5" ht="15.75" customHeight="1">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="B294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="2:5" ht="15.75" customHeight="1">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="B295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="2:5" ht="15.75" customHeight="1">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="B296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="2:5" ht="15.75" customHeight="1">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="B297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="2:5" ht="15.75" customHeight="1">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="B298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="2:5" ht="15.75" customHeight="1">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="B299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="2:5" ht="15.75" customHeight="1">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="B300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="2:5" ht="15.75" customHeight="1">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="B301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="2:5" ht="15.75" customHeight="1">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="B302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="2:5" ht="15.75" customHeight="1">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="B303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="2:5" ht="15.75" customHeight="1">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="B304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="2:5" ht="15.75" customHeight="1">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="B305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="2:5" ht="15.75" customHeight="1">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="B306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="2:5" ht="15.75" customHeight="1">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="B307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="2:5" ht="15.75" customHeight="1">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="B308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="2:5" ht="15.75" customHeight="1">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="B309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="2:5" ht="15.75" customHeight="1">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="B310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="2:5" ht="15.75" customHeight="1">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="B311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="2:5" ht="15.75" customHeight="1">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="B312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="2:5" ht="15.75" customHeight="1">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="B313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="2:5" ht="15.75" customHeight="1">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="B314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="2:5" ht="15.75" customHeight="1">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="B315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="2:5" ht="15.75" customHeight="1">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="B316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="2:5" ht="15.75" customHeight="1">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="B317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="2:5" ht="15.75" customHeight="1">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="B318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="2:5" ht="15.75" customHeight="1">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="B319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="2:5" ht="15.75" customHeight="1">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="B320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="2:5" ht="15.75" customHeight="1">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="B321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="2:5" ht="15.75" customHeight="1">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="B322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="2:5" ht="15.75" customHeight="1">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="B323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="2:5" ht="15.75" customHeight="1">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="B324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="2:5" ht="15.75" customHeight="1">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="B325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="2:5" ht="15.75" customHeight="1">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="B326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="2:5" ht="15.75" customHeight="1">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="B327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="2:5" ht="15.75" customHeight="1">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="B328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="2:5" ht="15.75" customHeight="1">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="B329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="2:5" ht="15.75" customHeight="1">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="B330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="2:5" ht="15.75" customHeight="1">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="B331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="2:5" ht="15.75" customHeight="1">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="B332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="2:5" ht="15.75" customHeight="1">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="B333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="2:5" ht="15.75" customHeight="1">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="B334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="2:5" ht="15.75" customHeight="1">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="B335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="2:5" ht="15.75" customHeight="1">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="B336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="2:5" ht="15.75" customHeight="1">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="B337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="2:5" ht="15.75" customHeight="1">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="B338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="2:5" ht="15.75" customHeight="1">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="B339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="2:5" ht="15.75" customHeight="1">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="B340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="2:5" ht="15.75" customHeight="1">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="B341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="2:5" ht="15.75" customHeight="1">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="B342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="2:5" ht="15.75" customHeight="1">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="B343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="2:5" ht="15.75" customHeight="1">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="B344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="2:5" ht="15.75" customHeight="1">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="B345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="2:5" ht="15.75" customHeight="1">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="B346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="2:5" ht="15.75" customHeight="1">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="B347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="2:5" ht="15.75" customHeight="1">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="B348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="2:5" ht="15.75" customHeight="1">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="B349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="2:5" ht="15.75" customHeight="1">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="B350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="2:5" ht="15.75" customHeight="1">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="B351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="2:5" ht="15.75" customHeight="1">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="B352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="2:5" ht="15.75" customHeight="1">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="B353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="2:5" ht="15.75" customHeight="1">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="B354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="2:5" ht="15.75" customHeight="1">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="B355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="2:5" ht="15.75" customHeight="1">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="B356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="2:5" ht="15.75" customHeight="1">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="B357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="2:5" ht="15.75" customHeight="1">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="B358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="2:5" ht="15.75" customHeight="1">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="B359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="2:5" ht="15.75" customHeight="1">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="B360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="2:5" ht="15.75" customHeight="1">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="B361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="2:5" ht="15.75" customHeight="1">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="B362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="2:5" ht="15.75" customHeight="1">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="B363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="2:5" ht="15.75" customHeight="1">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="B364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="2:5" ht="15.75" customHeight="1">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="B365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="2:5" ht="15.75" customHeight="1">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="B366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="2:5" ht="15.75" customHeight="1">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="B367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="2:5" ht="15.75" customHeight="1">
+    <row r="368" ht="15.75" customHeight="1">
       <c r="B368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="2:5" ht="15.75" customHeight="1">
+    <row r="369" ht="15.75" customHeight="1">
       <c r="B369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="2:5" ht="15.75" customHeight="1">
+    <row r="370" ht="15.75" customHeight="1">
       <c r="B370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="2:5" ht="15.75" customHeight="1">
+    <row r="371" ht="15.75" customHeight="1">
       <c r="B371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="2:5" ht="15.75" customHeight="1">
+    <row r="372" ht="15.75" customHeight="1">
       <c r="B372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="2:5" ht="15.75" customHeight="1">
+    <row r="373" ht="15.75" customHeight="1">
       <c r="B373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="2:5" ht="15.75" customHeight="1">
+    <row r="374" ht="15.75" customHeight="1">
       <c r="B374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="2:5" ht="15.75" customHeight="1">
+    <row r="375" ht="15.75" customHeight="1">
       <c r="B375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="2:5" ht="15.75" customHeight="1">
+    <row r="376" ht="15.75" customHeight="1">
       <c r="B376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="2:5" ht="15.75" customHeight="1">
+    <row r="377" ht="15.75" customHeight="1">
       <c r="B377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="2:5" ht="15.75" customHeight="1">
+    <row r="378" ht="15.75" customHeight="1">
       <c r="B378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="2:5" ht="15.75" customHeight="1">
+    <row r="379" ht="15.75" customHeight="1">
       <c r="B379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="2:5" ht="15.75" customHeight="1">
+    <row r="380" ht="15.75" customHeight="1">
       <c r="B380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="2:5" ht="15.75" customHeight="1">
+    <row r="381" ht="15.75" customHeight="1">
       <c r="B381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="2:5" ht="15.75" customHeight="1">
+    <row r="382" ht="15.75" customHeight="1">
       <c r="B382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="2:5" ht="15.75" customHeight="1">
+    <row r="383" ht="15.75" customHeight="1">
       <c r="B383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="2:5" ht="15.75" customHeight="1">
+    <row r="384" ht="15.75" customHeight="1">
       <c r="B384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="2:5" ht="15.75" customHeight="1">
+    <row r="385" ht="15.75" customHeight="1">
       <c r="B385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="2:5" ht="15.75" customHeight="1">
+    <row r="386" ht="15.75" customHeight="1">
       <c r="B386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="2:5" ht="15.75" customHeight="1">
+    <row r="387" ht="15.75" customHeight="1">
       <c r="B387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="2:5" ht="15.75" customHeight="1">
+    <row r="388" ht="15.75" customHeight="1">
       <c r="B388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="2:5" ht="15.75" customHeight="1">
+    <row r="389" ht="15.75" customHeight="1">
       <c r="B389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="2:5" ht="15.75" customHeight="1">
+    <row r="390" ht="15.75" customHeight="1">
       <c r="B390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="2:5" ht="15.75" customHeight="1">
+    <row r="391" ht="15.75" customHeight="1">
       <c r="B391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="2:5" ht="15.75" customHeight="1">
+    <row r="392" ht="15.75" customHeight="1">
       <c r="B392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="2:5" ht="15.75" customHeight="1">
+    <row r="393" ht="15.75" customHeight="1">
       <c r="B393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="2:5" ht="15.75" customHeight="1">
+    <row r="394" ht="15.75" customHeight="1">
       <c r="B394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="2:5" ht="15.75" customHeight="1">
+    <row r="395" ht="15.75" customHeight="1">
       <c r="B395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="2:5" ht="15.75" customHeight="1">
+    <row r="396" ht="15.75" customHeight="1">
       <c r="B396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="2:5" ht="15.75" customHeight="1">
+    <row r="397" ht="15.75" customHeight="1">
       <c r="B397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="2:5" ht="15.75" customHeight="1">
+    <row r="398" ht="15.75" customHeight="1">
       <c r="B398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="2:5" ht="15.75" customHeight="1">
+    <row r="399" ht="15.75" customHeight="1">
       <c r="B399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="2:5" ht="15.75" customHeight="1">
+    <row r="400" ht="15.75" customHeight="1">
       <c r="B400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="2:5" ht="15.75" customHeight="1">
+    <row r="401" ht="15.75" customHeight="1">
       <c r="B401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="2:5" ht="15.75" customHeight="1">
+    <row r="402" ht="15.75" customHeight="1">
       <c r="B402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="2:5" ht="15.75" customHeight="1">
+    <row r="403" ht="15.75" customHeight="1">
       <c r="B403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="2:5" ht="15.75" customHeight="1">
+    <row r="404" ht="15.75" customHeight="1">
       <c r="B404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="2:5" ht="15.75" customHeight="1">
+    <row r="405" ht="15.75" customHeight="1">
       <c r="B405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="2:5" ht="15.75" customHeight="1">
+    <row r="406" ht="15.75" customHeight="1">
       <c r="B406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="2:5" ht="15.75" customHeight="1">
+    <row r="407" ht="15.75" customHeight="1">
       <c r="B407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="2:5" ht="15.75" customHeight="1">
+    <row r="408" ht="15.75" customHeight="1">
       <c r="B408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="2:5" ht="15.75" customHeight="1">
+    <row r="409" ht="15.75" customHeight="1">
       <c r="B409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="2:5" ht="15.75" customHeight="1">
+    <row r="410" ht="15.75" customHeight="1">
       <c r="B410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="2:5" ht="15.75" customHeight="1">
+    <row r="411" ht="15.75" customHeight="1">
       <c r="B411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="2:5" ht="15.75" customHeight="1">
+    <row r="412" ht="15.75" customHeight="1">
       <c r="B412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="2:5" ht="15.75" customHeight="1">
+    <row r="413" ht="15.75" customHeight="1">
       <c r="B413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="2:5" ht="15.75" customHeight="1">
+    <row r="414" ht="15.75" customHeight="1">
       <c r="B414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="2:5" ht="15.75" customHeight="1">
+    <row r="415" ht="15.75" customHeight="1">
       <c r="B415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="2:5" ht="15.75" customHeight="1">
+    <row r="416" ht="15.75" customHeight="1">
       <c r="B416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="2:5" ht="15.75" customHeight="1">
+    <row r="417" ht="15.75" customHeight="1">
       <c r="B417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="2:5" ht="15.75" customHeight="1">
+    <row r="418" ht="15.75" customHeight="1">
       <c r="B418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="2:5" ht="15.75" customHeight="1">
+    <row r="419" ht="15.75" customHeight="1">
       <c r="B419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="2:5" ht="15.75" customHeight="1">
+    <row r="420" ht="15.75" customHeight="1">
       <c r="B420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="2:5" ht="15.75" customHeight="1">
+    <row r="421" ht="15.75" customHeight="1">
       <c r="B421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="2:5" ht="15.75" customHeight="1">
+    <row r="422" ht="15.75" customHeight="1">
       <c r="B422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="2:5" ht="15.75" customHeight="1">
+    <row r="423" ht="15.75" customHeight="1">
       <c r="B423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="2:5" ht="15.75" customHeight="1">
+    <row r="424" ht="15.75" customHeight="1">
       <c r="B424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="2:5" ht="15.75" customHeight="1">
+    <row r="425" ht="15.75" customHeight="1">
       <c r="B425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="2:5" ht="15.75" customHeight="1">
+    <row r="426" ht="15.75" customHeight="1">
       <c r="B426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="2:5" ht="15.75" customHeight="1">
+    <row r="427" ht="15.75" customHeight="1">
       <c r="B427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="2:5" ht="15.75" customHeight="1">
+    <row r="428" ht="15.75" customHeight="1">
       <c r="B428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="2:5" ht="15.75" customHeight="1">
+    <row r="429" ht="15.75" customHeight="1">
       <c r="B429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="2:5" ht="15.75" customHeight="1">
+    <row r="430" ht="15.75" customHeight="1">
       <c r="B430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="2:5" ht="15.75" customHeight="1">
+    <row r="431" ht="15.75" customHeight="1">
       <c r="B431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="2:5" ht="15.75" customHeight="1">
+    <row r="432" ht="15.75" customHeight="1">
       <c r="B432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="2:5" ht="15.75" customHeight="1">
+    <row r="433" ht="15.75" customHeight="1">
       <c r="B433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="2:5" ht="15.75" customHeight="1">
+    <row r="434" ht="15.75" customHeight="1">
       <c r="B434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="2:5" ht="15.75" customHeight="1">
+    <row r="435" ht="15.75" customHeight="1">
       <c r="B435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="2:5" ht="15.75" customHeight="1">
+    <row r="436" ht="15.75" customHeight="1">
       <c r="B436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="2:5" ht="15.75" customHeight="1">
+    <row r="437" ht="15.75" customHeight="1">
       <c r="B437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="2:5" ht="15.75" customHeight="1">
+    <row r="438" ht="15.75" customHeight="1">
       <c r="B438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="2:5" ht="15.75" customHeight="1">
+    <row r="439" ht="15.75" customHeight="1">
       <c r="B439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="2:5" ht="15.75" customHeight="1">
+    <row r="440" ht="15.75" customHeight="1">
       <c r="B440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="2:5" ht="15.75" customHeight="1">
+    <row r="441" ht="15.75" customHeight="1">
       <c r="B441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="2:5" ht="15.75" customHeight="1">
+    <row r="442" ht="15.75" customHeight="1">
       <c r="B442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="2:5" ht="15.75" customHeight="1">
+    <row r="443" ht="15.75" customHeight="1">
       <c r="B443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="2:5" ht="15.75" customHeight="1">
+    <row r="444" ht="15.75" customHeight="1">
       <c r="B444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="2:5" ht="15.75" customHeight="1">
+    <row r="445" ht="15.75" customHeight="1">
       <c r="B445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="2:5" ht="15.75" customHeight="1">
+    <row r="446" ht="15.75" customHeight="1">
       <c r="B446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="2:5" ht="15.75" customHeight="1">
+    <row r="447" ht="15.75" customHeight="1">
       <c r="B447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="2:5" ht="15.75" customHeight="1">
+    <row r="448" ht="15.75" customHeight="1">
       <c r="B448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="2:5" ht="15.75" customHeight="1">
+    <row r="449" ht="15.75" customHeight="1">
       <c r="B449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="2:5" ht="15.75" customHeight="1">
+    <row r="450" ht="15.75" customHeight="1">
       <c r="B450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="2:5" ht="15.75" customHeight="1">
+    <row r="451" ht="15.75" customHeight="1">
       <c r="B451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="2:5" ht="15.75" customHeight="1">
+    <row r="452" ht="15.75" customHeight="1">
       <c r="B452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="2:5" ht="15.75" customHeight="1">
+    <row r="453" ht="15.75" customHeight="1">
       <c r="B453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="2:5" ht="15.75" customHeight="1">
+    <row r="454" ht="15.75" customHeight="1">
       <c r="B454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="2:5" ht="15.75" customHeight="1">
+    <row r="455" ht="15.75" customHeight="1">
       <c r="B455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="2:5" ht="15.75" customHeight="1">
+    <row r="456" ht="15.75" customHeight="1">
       <c r="B456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="2:5" ht="15.75" customHeight="1">
+    <row r="457" ht="15.75" customHeight="1">
       <c r="B457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="2:5" ht="15.75" customHeight="1">
+    <row r="458" ht="15.75" customHeight="1">
       <c r="B458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="2:5" ht="15.75" customHeight="1">
+    <row r="459" ht="15.75" customHeight="1">
       <c r="B459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="2:5" ht="15.75" customHeight="1">
+    <row r="460" ht="15.75" customHeight="1">
       <c r="B460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="2:5" ht="15.75" customHeight="1">
+    <row r="461" ht="15.75" customHeight="1">
       <c r="B461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="2:5" ht="15.75" customHeight="1">
+    <row r="462" ht="15.75" customHeight="1">
       <c r="B462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="2:5" ht="15.75" customHeight="1">
+    <row r="463" ht="15.75" customHeight="1">
       <c r="B463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="2:5" ht="15.75" customHeight="1">
+    <row r="464" ht="15.75" customHeight="1">
       <c r="B464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="2:5" ht="15.75" customHeight="1">
+    <row r="465" ht="15.75" customHeight="1">
       <c r="B465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="2:5" ht="15.75" customHeight="1">
+    <row r="466" ht="15.75" customHeight="1">
       <c r="B466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="2:5" ht="15.75" customHeight="1">
+    <row r="467" ht="15.75" customHeight="1">
       <c r="B467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="2:5" ht="15.75" customHeight="1">
+    <row r="468" ht="15.75" customHeight="1">
       <c r="B468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="2:5" ht="15.75" customHeight="1">
+    <row r="469" ht="15.75" customHeight="1">
       <c r="B469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="2:5" ht="15.75" customHeight="1">
+    <row r="470" ht="15.75" customHeight="1">
       <c r="B470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="2:5" ht="15.75" customHeight="1">
+    <row r="471" ht="15.75" customHeight="1">
       <c r="B471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="2:5" ht="15.75" customHeight="1">
+    <row r="472" ht="15.75" customHeight="1">
       <c r="B472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="2:5" ht="15.75" customHeight="1">
+    <row r="473" ht="15.75" customHeight="1">
       <c r="B473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="2:5" ht="15.75" customHeight="1">
+    <row r="474" ht="15.75" customHeight="1">
       <c r="B474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="2:5" ht="15.75" customHeight="1">
+    <row r="475" ht="15.75" customHeight="1">
       <c r="B475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="2:5" ht="15.75" customHeight="1">
+    <row r="476" ht="15.75" customHeight="1">
       <c r="B476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="2:5" ht="15.75" customHeight="1">
+    <row r="477" ht="15.75" customHeight="1">
       <c r="B477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="2:5" ht="15.75" customHeight="1">
+    <row r="478" ht="15.75" customHeight="1">
       <c r="B478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="2:5" ht="15.75" customHeight="1">
+    <row r="479" ht="15.75" customHeight="1">
       <c r="B479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="2:5" ht="15.75" customHeight="1">
+    <row r="480" ht="15.75" customHeight="1">
       <c r="B480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="2:5" ht="15.75" customHeight="1">
+    <row r="481" ht="15.75" customHeight="1">
       <c r="B481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="2:5" ht="15.75" customHeight="1">
+    <row r="482" ht="15.75" customHeight="1">
       <c r="B482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="2:5" ht="15.75" customHeight="1">
+    <row r="483" ht="15.75" customHeight="1">
       <c r="B483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="2:5" ht="15.75" customHeight="1">
+    <row r="484" ht="15.75" customHeight="1">
       <c r="B484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="2:5" ht="15.75" customHeight="1">
+    <row r="485" ht="15.75" customHeight="1">
       <c r="B485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="2:5" ht="15.75" customHeight="1">
+    <row r="486" ht="15.75" customHeight="1">
       <c r="B486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="2:5" ht="15.75" customHeight="1">
+    <row r="487" ht="15.75" customHeight="1">
       <c r="B487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="2:5" ht="15.75" customHeight="1">
+    <row r="488" ht="15.75" customHeight="1">
       <c r="B488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="2:5" ht="15.75" customHeight="1">
+    <row r="489" ht="15.75" customHeight="1">
       <c r="B489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="2:5" ht="15.75" customHeight="1">
+    <row r="490" ht="15.75" customHeight="1">
       <c r="B490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="2:5" ht="15.75" customHeight="1">
+    <row r="491" ht="15.75" customHeight="1">
       <c r="B491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="2:5" ht="15.75" customHeight="1">
+    <row r="492" ht="15.75" customHeight="1">
       <c r="B492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="2:5" ht="15.75" customHeight="1">
+    <row r="493" ht="15.75" customHeight="1">
       <c r="B493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="2:5" ht="15.75" customHeight="1">
+    <row r="494" ht="15.75" customHeight="1">
       <c r="B494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="2:5" ht="15.75" customHeight="1">
+    <row r="495" ht="15.75" customHeight="1">
       <c r="B495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="2:5" ht="15.75" customHeight="1">
+    <row r="496" ht="15.75" customHeight="1">
       <c r="B496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="2:5" ht="15.75" customHeight="1">
+    <row r="497" ht="15.75" customHeight="1">
       <c r="B497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="2:5" ht="15.75" customHeight="1">
+    <row r="498" ht="15.75" customHeight="1">
       <c r="B498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="2:5" ht="15.75" customHeight="1">
+    <row r="499" ht="15.75" customHeight="1">
       <c r="B499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="2:5" ht="15.75" customHeight="1">
+    <row r="500" ht="15.75" customHeight="1">
       <c r="B500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="2:5" ht="15.75" customHeight="1">
+    <row r="501" ht="15.75" customHeight="1">
       <c r="B501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="2:5" ht="15.75" customHeight="1">
+    <row r="502" ht="15.75" customHeight="1">
       <c r="B502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="2:5" ht="15.75" customHeight="1">
+    <row r="503" ht="15.75" customHeight="1">
       <c r="B503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="2:5" ht="15.75" customHeight="1">
+    <row r="504" ht="15.75" customHeight="1">
       <c r="B504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="2:5" ht="15.75" customHeight="1">
+    <row r="505" ht="15.75" customHeight="1">
       <c r="B505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="2:5" ht="15.75" customHeight="1">
+    <row r="506" ht="15.75" customHeight="1">
       <c r="B506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="2:5" ht="15.75" customHeight="1">
+    <row r="507" ht="15.75" customHeight="1">
       <c r="B507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="2:5" ht="15.75" customHeight="1">
+    <row r="508" ht="15.75" customHeight="1">
       <c r="B508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="2:5" ht="15.75" customHeight="1">
+    <row r="509" ht="15.75" customHeight="1">
       <c r="B509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="2:5" ht="15.75" customHeight="1">
+    <row r="510" ht="15.75" customHeight="1">
       <c r="B510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="2:5" ht="15.75" customHeight="1">
+    <row r="511" ht="15.75" customHeight="1">
       <c r="B511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="2:5" ht="15.75" customHeight="1">
+    <row r="512" ht="15.75" customHeight="1">
       <c r="B512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="2:5" ht="15.75" customHeight="1">
+    <row r="513" ht="15.75" customHeight="1">
       <c r="B513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="2:5" ht="15.75" customHeight="1">
+    <row r="514" ht="15.75" customHeight="1">
       <c r="B514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="2:5" ht="15.75" customHeight="1">
+    <row r="515" ht="15.75" customHeight="1">
       <c r="B515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="2:5" ht="15.75" customHeight="1">
+    <row r="516" ht="15.75" customHeight="1">
       <c r="B516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="2:5" ht="15.75" customHeight="1">
+    <row r="517" ht="15.75" customHeight="1">
       <c r="B517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="2:5" ht="15.75" customHeight="1">
+    <row r="518" ht="15.75" customHeight="1">
       <c r="B518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="2:5" ht="15.75" customHeight="1">
+    <row r="519" ht="15.75" customHeight="1">
       <c r="B519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="2:5" ht="15.75" customHeight="1">
+    <row r="520" ht="15.75" customHeight="1">
       <c r="B520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="2:5" ht="15.75" customHeight="1">
+    <row r="521" ht="15.75" customHeight="1">
       <c r="B521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="2:5" ht="15.75" customHeight="1">
+    <row r="522" ht="15.75" customHeight="1">
       <c r="B522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="2:5" ht="15.75" customHeight="1">
+    <row r="523" ht="15.75" customHeight="1">
       <c r="B523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="2:5" ht="15.75" customHeight="1">
+    <row r="524" ht="15.75" customHeight="1">
       <c r="B524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="2:5" ht="15.75" customHeight="1">
+    <row r="525" ht="15.75" customHeight="1">
       <c r="B525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="2:5" ht="15.75" customHeight="1">
+    <row r="526" ht="15.75" customHeight="1">
       <c r="B526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="2:5" ht="15.75" customHeight="1">
+    <row r="527" ht="15.75" customHeight="1">
       <c r="B527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="2:5" ht="15.75" customHeight="1">
+    <row r="528" ht="15.75" customHeight="1">
       <c r="B528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="2:5" ht="15.75" customHeight="1">
+    <row r="529" ht="15.75" customHeight="1">
       <c r="B529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="2:5" ht="15.75" customHeight="1">
+    <row r="530" ht="15.75" customHeight="1">
       <c r="B530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="2:5" ht="15.75" customHeight="1">
+    <row r="531" ht="15.75" customHeight="1">
       <c r="B531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="2:5" ht="15.75" customHeight="1">
+    <row r="532" ht="15.75" customHeight="1">
       <c r="B532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="2:5" ht="15.75" customHeight="1">
+    <row r="533" ht="15.75" customHeight="1">
       <c r="B533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="2:5" ht="15.75" customHeight="1">
+    <row r="534" ht="15.75" customHeight="1">
       <c r="B534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="2:5" ht="15.75" customHeight="1">
+    <row r="535" ht="15.75" customHeight="1">
       <c r="B535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="2:5" ht="15.75" customHeight="1">
+    <row r="536" ht="15.75" customHeight="1">
       <c r="B536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="2:5" ht="15.75" customHeight="1">
+    <row r="537" ht="15.75" customHeight="1">
       <c r="B537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="2:5" ht="15.75" customHeight="1">
+    <row r="538" ht="15.75" customHeight="1">
       <c r="B538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="2:5" ht="15.75" customHeight="1">
+    <row r="539" ht="15.75" customHeight="1">
       <c r="B539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="2:5" ht="15.75" customHeight="1">
+    <row r="540" ht="15.75" customHeight="1">
       <c r="B540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="2:5" ht="15.75" customHeight="1">
+    <row r="541" ht="15.75" customHeight="1">
       <c r="B541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="2:5" ht="15.75" customHeight="1">
+    <row r="542" ht="15.75" customHeight="1">
       <c r="B542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="2:5" ht="15.75" customHeight="1">
+    <row r="543" ht="15.75" customHeight="1">
       <c r="B543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="2:5" ht="15.75" customHeight="1">
+    <row r="544" ht="15.75" customHeight="1">
       <c r="B544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="2:5" ht="15.75" customHeight="1">
+    <row r="545" ht="15.75" customHeight="1">
       <c r="B545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="2:5" ht="15.75" customHeight="1">
+    <row r="546" ht="15.75" customHeight="1">
       <c r="B546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="2:5" ht="15.75" customHeight="1">
+    <row r="547" ht="15.75" customHeight="1">
       <c r="B547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="2:5" ht="15.75" customHeight="1">
+    <row r="548" ht="15.75" customHeight="1">
       <c r="B548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="2:5" ht="15.75" customHeight="1">
+    <row r="549" ht="15.75" customHeight="1">
       <c r="B549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="2:5" ht="15.75" customHeight="1">
+    <row r="550" ht="15.75" customHeight="1">
       <c r="B550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="2:5" ht="15.75" customHeight="1">
+    <row r="551" ht="15.75" customHeight="1">
       <c r="B551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="2:5" ht="15.75" customHeight="1">
+    <row r="552" ht="15.75" customHeight="1">
       <c r="B552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="2:5" ht="15.75" customHeight="1">
+    <row r="553" ht="15.75" customHeight="1">
       <c r="B553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="2:5" ht="15.75" customHeight="1">
+    <row r="554" ht="15.75" customHeight="1">
       <c r="B554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="2:5" ht="15.75" customHeight="1">
+    <row r="555" ht="15.75" customHeight="1">
       <c r="B555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="2:5" ht="15.75" customHeight="1">
+    <row r="556" ht="15.75" customHeight="1">
       <c r="B556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="2:5" ht="15.75" customHeight="1">
+    <row r="557" ht="15.75" customHeight="1">
       <c r="B557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="2:5" ht="15.75" customHeight="1">
+    <row r="558" ht="15.75" customHeight="1">
       <c r="B558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="2:5" ht="15.75" customHeight="1">
+    <row r="559" ht="15.75" customHeight="1">
       <c r="B559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="2:5" ht="15.75" customHeight="1">
+    <row r="560" ht="15.75" customHeight="1">
       <c r="B560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="2:5" ht="15.75" customHeight="1">
+    <row r="561" ht="15.75" customHeight="1">
       <c r="B561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="2:5" ht="15.75" customHeight="1">
+    <row r="562" ht="15.75" customHeight="1">
       <c r="B562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="2:5" ht="15.75" customHeight="1">
+    <row r="563" ht="15.75" customHeight="1">
       <c r="B563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="2:5" ht="15.75" customHeight="1">
+    <row r="564" ht="15.75" customHeight="1">
       <c r="B564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="2:5" ht="15.75" customHeight="1">
+    <row r="565" ht="15.75" customHeight="1">
       <c r="B565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="2:5" ht="15.75" customHeight="1">
+    <row r="566" ht="15.75" customHeight="1">
       <c r="B566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="2:5" ht="15.75" customHeight="1">
+    <row r="567" ht="15.75" customHeight="1">
       <c r="B567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="2:5" ht="15.75" customHeight="1">
+    <row r="568" ht="15.75" customHeight="1">
       <c r="B568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="2:5" ht="15.75" customHeight="1">
+    <row r="569" ht="15.75" customHeight="1">
       <c r="B569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="2:5" ht="15.75" customHeight="1">
+    <row r="570" ht="15.75" customHeight="1">
       <c r="B570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="2:5" ht="15.75" customHeight="1">
+    <row r="571" ht="15.75" customHeight="1">
       <c r="B571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="2:5" ht="15.75" customHeight="1">
+    <row r="572" ht="15.75" customHeight="1">
       <c r="B572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="2:5" ht="15.75" customHeight="1">
+    <row r="573" ht="15.75" customHeight="1">
       <c r="B573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="2:5" ht="15.75" customHeight="1">
+    <row r="574" ht="15.75" customHeight="1">
       <c r="B574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="2:5" ht="15.75" customHeight="1">
+    <row r="575" ht="15.75" customHeight="1">
       <c r="B575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="2:5" ht="15.75" customHeight="1">
+    <row r="576" ht="15.75" customHeight="1">
       <c r="B576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="2:5" ht="15.75" customHeight="1">
+    <row r="577" ht="15.75" customHeight="1">
       <c r="B577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="2:5" ht="15.75" customHeight="1">
+    <row r="578" ht="15.75" customHeight="1">
       <c r="B578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="2:5" ht="15.75" customHeight="1">
+    <row r="579" ht="15.75" customHeight="1">
       <c r="B579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="2:5" ht="15.75" customHeight="1">
+    <row r="580" ht="15.75" customHeight="1">
       <c r="B580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="2:5" ht="15.75" customHeight="1">
+    <row r="581" ht="15.75" customHeight="1">
       <c r="B581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="2:5" ht="15.75" customHeight="1">
+    <row r="582" ht="15.75" customHeight="1">
       <c r="B582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="2:5" ht="15.75" customHeight="1">
+    <row r="583" ht="15.75" customHeight="1">
       <c r="B583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="2:5" ht="15.75" customHeight="1">
+    <row r="584" ht="15.75" customHeight="1">
       <c r="B584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="2:5" ht="15.75" customHeight="1">
+    <row r="585" ht="15.75" customHeight="1">
       <c r="B585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="2:5" ht="15.75" customHeight="1">
+    <row r="586" ht="15.75" customHeight="1">
       <c r="B586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="2:5" ht="15.75" customHeight="1">
+    <row r="587" ht="15.75" customHeight="1">
       <c r="B587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="2:5" ht="15.75" customHeight="1">
+    <row r="588" ht="15.75" customHeight="1">
       <c r="B588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="2:5" ht="15.75" customHeight="1">
+    <row r="589" ht="15.75" customHeight="1">
       <c r="B589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="2:5" ht="15.75" customHeight="1">
+    <row r="590" ht="15.75" customHeight="1">
       <c r="B590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="2:5" ht="15.75" customHeight="1">
+    <row r="591" ht="15.75" customHeight="1">
       <c r="B591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="2:5" ht="15.75" customHeight="1">
+    <row r="592" ht="15.75" customHeight="1">
       <c r="B592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="2:5" ht="15.75" customHeight="1">
+    <row r="593" ht="15.75" customHeight="1">
       <c r="B593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="2:5" ht="15.75" customHeight="1">
+    <row r="594" ht="15.75" customHeight="1">
       <c r="B594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="2:5" ht="15.75" customHeight="1">
+    <row r="595" ht="15.75" customHeight="1">
       <c r="B595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="2:5" ht="15.75" customHeight="1">
+    <row r="596" ht="15.75" customHeight="1">
       <c r="B596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="2:5" ht="15.75" customHeight="1">
+    <row r="597" ht="15.75" customHeight="1">
       <c r="B597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="2:5" ht="15.75" customHeight="1">
+    <row r="598" ht="15.75" customHeight="1">
       <c r="B598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="2:5" ht="15.75" customHeight="1">
+    <row r="599" ht="15.75" customHeight="1">
       <c r="B599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="2:5" ht="15.75" customHeight="1">
+    <row r="600" ht="15.75" customHeight="1">
       <c r="B600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="2:5" ht="15.75" customHeight="1">
+    <row r="601" ht="15.75" customHeight="1">
       <c r="B601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="2:5" ht="15.75" customHeight="1">
+    <row r="602" ht="15.75" customHeight="1">
       <c r="B602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="2:5" ht="15.75" customHeight="1">
+    <row r="603" ht="15.75" customHeight="1">
       <c r="B603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="2:5" ht="15.75" customHeight="1">
+    <row r="604" ht="15.75" customHeight="1">
       <c r="B604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="2:5" ht="15.75" customHeight="1">
+    <row r="605" ht="15.75" customHeight="1">
       <c r="B605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="2:5" ht="15.75" customHeight="1">
+    <row r="606" ht="15.75" customHeight="1">
       <c r="B606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="2:5" ht="15.75" customHeight="1">
+    <row r="607" ht="15.75" customHeight="1">
       <c r="B607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="2:5" ht="15.75" customHeight="1">
+    <row r="608" ht="15.75" customHeight="1">
       <c r="B608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="2:5" ht="15.75" customHeight="1">
+    <row r="609" ht="15.75" customHeight="1">
       <c r="B609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="2:5" ht="15.75" customHeight="1">
+    <row r="610" ht="15.75" customHeight="1">
       <c r="B610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="2:5" ht="15.75" customHeight="1">
+    <row r="611" ht="15.75" customHeight="1">
       <c r="B611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="2:5" ht="15.75" customHeight="1">
+    <row r="612" ht="15.75" customHeight="1">
       <c r="B612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="2:5" ht="15.75" customHeight="1">
+    <row r="613" ht="15.75" customHeight="1">
       <c r="B613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="2:5" ht="15.75" customHeight="1">
+    <row r="614" ht="15.75" customHeight="1">
       <c r="B614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="2:5" ht="15.75" customHeight="1">
+    <row r="615" ht="15.75" customHeight="1">
       <c r="B615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="2:5" ht="15.75" customHeight="1">
+    <row r="616" ht="15.75" customHeight="1">
       <c r="B616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="2:5" ht="15.75" customHeight="1">
+    <row r="617" ht="15.75" customHeight="1">
       <c r="B617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="2:5" ht="15.75" customHeight="1">
+    <row r="618" ht="15.75" customHeight="1">
       <c r="B618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="2:5" ht="15.75" customHeight="1">
+    <row r="619" ht="15.75" customHeight="1">
       <c r="B619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="2:5" ht="15.75" customHeight="1">
+    <row r="620" ht="15.75" customHeight="1">
       <c r="B620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="2:5" ht="15.75" customHeight="1">
+    <row r="621" ht="15.75" customHeight="1">
       <c r="B621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="2:5" ht="15.75" customHeight="1">
+    <row r="622" ht="15.75" customHeight="1">
       <c r="B622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="2:5" ht="15.75" customHeight="1">
+    <row r="623" ht="15.75" customHeight="1">
       <c r="B623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="2:5" ht="15.75" customHeight="1">
+    <row r="624" ht="15.75" customHeight="1">
       <c r="B624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="2:5" ht="15.75" customHeight="1">
+    <row r="625" ht="15.75" customHeight="1">
       <c r="B625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="2:5" ht="15.75" customHeight="1">
+    <row r="626" ht="15.75" customHeight="1">
       <c r="B626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="2:5" ht="15.75" customHeight="1">
+    <row r="627" ht="15.75" customHeight="1">
       <c r="B627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="2:5" ht="15.75" customHeight="1">
+    <row r="628" ht="15.75" customHeight="1">
       <c r="B628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="2:5" ht="15.75" customHeight="1">
+    <row r="629" ht="15.75" customHeight="1">
       <c r="B629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="2:5" ht="15.75" customHeight="1">
+    <row r="630" ht="15.75" customHeight="1">
       <c r="B630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="2:5" ht="15.75" customHeight="1">
+    <row r="631" ht="15.75" customHeight="1">
       <c r="B631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="2:5" ht="15.75" customHeight="1">
+    <row r="632" ht="15.75" customHeight="1">
       <c r="B632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="2:5" ht="15.75" customHeight="1">
+    <row r="633" ht="15.75" customHeight="1">
       <c r="B633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="2:5" ht="15.75" customHeight="1">
+    <row r="634" ht="15.75" customHeight="1">
       <c r="B634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="2:5" ht="15.75" customHeight="1">
+    <row r="635" ht="15.75" customHeight="1">
       <c r="B635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="2:5" ht="15.75" customHeight="1">
+    <row r="636" ht="15.75" customHeight="1">
       <c r="B636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="2:5" ht="15.75" customHeight="1">
+    <row r="637" ht="15.75" customHeight="1">
       <c r="B637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="2:5" ht="15.75" customHeight="1">
+    <row r="638" ht="15.75" customHeight="1">
       <c r="B638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="2:5" ht="15.75" customHeight="1">
+    <row r="639" ht="15.75" customHeight="1">
       <c r="B639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="2:5" ht="15.75" customHeight="1">
+    <row r="640" ht="15.75" customHeight="1">
       <c r="B640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="2:5" ht="15.75" customHeight="1">
+    <row r="641" ht="15.75" customHeight="1">
       <c r="B641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="2:5" ht="15.75" customHeight="1">
+    <row r="642" ht="15.75" customHeight="1">
       <c r="B642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="2:5" ht="15.75" customHeight="1">
+    <row r="643" ht="15.75" customHeight="1">
       <c r="B643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="2:5" ht="15.75" customHeight="1">
+    <row r="644" ht="15.75" customHeight="1">
       <c r="B644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="2:5" ht="15.75" customHeight="1">
+    <row r="645" ht="15.75" customHeight="1">
       <c r="B645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="2:5" ht="15.75" customHeight="1">
+    <row r="646" ht="15.75" customHeight="1">
       <c r="B646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="2:5" ht="15.75" customHeight="1">
+    <row r="647" ht="15.75" customHeight="1">
       <c r="B647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="2:5" ht="15.75" customHeight="1">
+    <row r="648" ht="15.75" customHeight="1">
       <c r="B648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="2:5" ht="15.75" customHeight="1">
+    <row r="649" ht="15.75" customHeight="1">
       <c r="B649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="2:5" ht="15.75" customHeight="1">
+    <row r="650" ht="15.75" customHeight="1">
       <c r="B650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="2:5" ht="15.75" customHeight="1">
+    <row r="651" ht="15.75" customHeight="1">
       <c r="B651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="2:5" ht="15.75" customHeight="1">
+    <row r="652" ht="15.75" customHeight="1">
       <c r="B652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="2:5" ht="15.75" customHeight="1">
+    <row r="653" ht="15.75" customHeight="1">
       <c r="B653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="2:5" ht="15.75" customHeight="1">
+    <row r="654" ht="15.75" customHeight="1">
       <c r="B654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="2:5" ht="15.75" customHeight="1">
+    <row r="655" ht="15.75" customHeight="1">
       <c r="B655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="2:5" ht="15.75" customHeight="1">
+    <row r="656" ht="15.75" customHeight="1">
       <c r="B656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="2:5" ht="15.75" customHeight="1">
+    <row r="657" ht="15.75" customHeight="1">
       <c r="B657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="2:5" ht="15.75" customHeight="1">
+    <row r="658" ht="15.75" customHeight="1">
       <c r="B658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="2:5" ht="15.75" customHeight="1">
+    <row r="659" ht="15.75" customHeight="1">
       <c r="B659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="2:5" ht="15.75" customHeight="1">
+    <row r="660" ht="15.75" customHeight="1">
       <c r="B660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="2:5" ht="15.75" customHeight="1">
+    <row r="661" ht="15.75" customHeight="1">
       <c r="B661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="2:5" ht="15.75" customHeight="1">
+    <row r="662" ht="15.75" customHeight="1">
       <c r="B662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="2:5" ht="15.75" customHeight="1">
+    <row r="663" ht="15.75" customHeight="1">
       <c r="B663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="2:5" ht="15.75" customHeight="1">
+    <row r="664" ht="15.75" customHeight="1">
       <c r="B664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="2:5" ht="15.75" customHeight="1">
+    <row r="665" ht="15.75" customHeight="1">
       <c r="B665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="2:5" ht="15.75" customHeight="1">
+    <row r="666" ht="15.75" customHeight="1">
       <c r="B666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="2:5" ht="15.75" customHeight="1">
+    <row r="667" ht="15.75" customHeight="1">
       <c r="B667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="2:5" ht="15.75" customHeight="1">
+    <row r="668" ht="15.75" customHeight="1">
       <c r="B668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="2:5" ht="15.75" customHeight="1">
+    <row r="669" ht="15.75" customHeight="1">
       <c r="B669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="2:5" ht="15.75" customHeight="1">
+    <row r="670" ht="15.75" customHeight="1">
       <c r="B670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="2:5" ht="15.75" customHeight="1">
+    <row r="671" ht="15.75" customHeight="1">
       <c r="B671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="2:5" ht="15.75" customHeight="1">
+    <row r="672" ht="15.75" customHeight="1">
       <c r="B672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="2:5" ht="15.75" customHeight="1">
+    <row r="673" ht="15.75" customHeight="1">
       <c r="B673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="2:5" ht="15.75" customHeight="1">
+    <row r="674" ht="15.75" customHeight="1">
       <c r="B674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="2:5" ht="15.75" customHeight="1">
+    <row r="675" ht="15.75" customHeight="1">
       <c r="B675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="2:5" ht="15.75" customHeight="1">
+    <row r="676" ht="15.75" customHeight="1">
       <c r="B676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="2:5" ht="15.75" customHeight="1">
+    <row r="677" ht="15.75" customHeight="1">
       <c r="B677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="2:5" ht="15.75" customHeight="1">
+    <row r="678" ht="15.75" customHeight="1">
       <c r="B678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="2:5" ht="15.75" customHeight="1">
+    <row r="679" ht="15.75" customHeight="1">
       <c r="B679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="2:5" ht="15.75" customHeight="1">
+    <row r="680" ht="15.75" customHeight="1">
       <c r="B680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="2:5" ht="15.75" customHeight="1">
+    <row r="681" ht="15.75" customHeight="1">
       <c r="B681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="2:5" ht="15.75" customHeight="1">
+    <row r="682" ht="15.75" customHeight="1">
       <c r="B682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="2:5" ht="15.75" customHeight="1">
+    <row r="683" ht="15.75" customHeight="1">
       <c r="B683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="2:5" ht="15.75" customHeight="1">
+    <row r="684" ht="15.75" customHeight="1">
       <c r="B684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="2:5" ht="15.75" customHeight="1">
+    <row r="685" ht="15.75" customHeight="1">
       <c r="B685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="2:5" ht="15.75" customHeight="1">
+    <row r="686" ht="15.75" customHeight="1">
       <c r="B686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="2:5" ht="15.75" customHeight="1">
+    <row r="687" ht="15.75" customHeight="1">
       <c r="B687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="2:5" ht="15.75" customHeight="1">
+    <row r="688" ht="15.75" customHeight="1">
       <c r="B688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="2:5" ht="15.75" customHeight="1">
+    <row r="689" ht="15.75" customHeight="1">
       <c r="B689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="2:5" ht="15.75" customHeight="1">
+    <row r="690" ht="15.75" customHeight="1">
       <c r="B690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="2:5" ht="15.75" customHeight="1">
+    <row r="691" ht="15.75" customHeight="1">
       <c r="B691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="2:5" ht="15.75" customHeight="1">
+    <row r="692" ht="15.75" customHeight="1">
       <c r="B692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="2:5" ht="15.75" customHeight="1">
+    <row r="693" ht="15.75" customHeight="1">
       <c r="B693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="2:5" ht="15.75" customHeight="1">
+    <row r="694" ht="15.75" customHeight="1">
       <c r="B694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="2:5" ht="15.75" customHeight="1">
+    <row r="695" ht="15.75" customHeight="1">
       <c r="B695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="2:5" ht="15.75" customHeight="1">
+    <row r="696" ht="15.75" customHeight="1">
       <c r="B696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="2:5" ht="15.75" customHeight="1">
+    <row r="697" ht="15.75" customHeight="1">
       <c r="B697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="2:5" ht="15.75" customHeight="1">
+    <row r="698" ht="15.75" customHeight="1">
       <c r="B698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="2:5" ht="15.75" customHeight="1">
+    <row r="699" ht="15.75" customHeight="1">
       <c r="B699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="2:5" ht="15.75" customHeight="1">
+    <row r="700" ht="15.75" customHeight="1">
       <c r="B700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="2:5" ht="15.75" customHeight="1">
+    <row r="701" ht="15.75" customHeight="1">
       <c r="B701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="2:5" ht="15.75" customHeight="1">
+    <row r="702" ht="15.75" customHeight="1">
       <c r="B702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="2:5" ht="15.75" customHeight="1">
+    <row r="703" ht="15.75" customHeight="1">
       <c r="B703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="2:5" ht="15.75" customHeight="1">
+    <row r="704" ht="15.75" customHeight="1">
       <c r="B704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="2:5" ht="15.75" customHeight="1">
+    <row r="705" ht="15.75" customHeight="1">
       <c r="B705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="2:5" ht="15.75" customHeight="1">
+    <row r="706" ht="15.75" customHeight="1">
       <c r="B706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="2:5" ht="15.75" customHeight="1">
+    <row r="707" ht="15.75" customHeight="1">
       <c r="B707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="2:5" ht="15.75" customHeight="1">
+    <row r="708" ht="15.75" customHeight="1">
       <c r="B708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="2:5" ht="15.75" customHeight="1">
+    <row r="709" ht="15.75" customHeight="1">
       <c r="B709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="2:5" ht="15.75" customHeight="1">
+    <row r="710" ht="15.75" customHeight="1">
       <c r="B710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="2:5" ht="15.75" customHeight="1">
+    <row r="711" ht="15.75" customHeight="1">
       <c r="B711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="2:5" ht="15.75" customHeight="1">
+    <row r="712" ht="15.75" customHeight="1">
       <c r="B712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="2:5" ht="15.75" customHeight="1">
+    <row r="713" ht="15.75" customHeight="1">
       <c r="B713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="2:5" ht="15.75" customHeight="1">
+    <row r="714" ht="15.75" customHeight="1">
       <c r="B714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="2:5" ht="15.75" customHeight="1">
+    <row r="715" ht="15.75" customHeight="1">
       <c r="B715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="2:5" ht="15.75" customHeight="1">
+    <row r="716" ht="15.75" customHeight="1">
       <c r="B716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="2:5" ht="15.75" customHeight="1">
+    <row r="717" ht="15.75" customHeight="1">
       <c r="B717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="2:5" ht="15.75" customHeight="1">
+    <row r="718" ht="15.75" customHeight="1">
       <c r="B718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="2:5" ht="15.75" customHeight="1">
+    <row r="719" ht="15.75" customHeight="1">
       <c r="B719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="2:5" ht="15.75" customHeight="1">
+    <row r="720" ht="15.75" customHeight="1">
       <c r="B720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="2:5" ht="15.75" customHeight="1">
+    <row r="721" ht="15.75" customHeight="1">
       <c r="B721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="2:5" ht="15.75" customHeight="1">
+    <row r="722" ht="15.75" customHeight="1">
       <c r="B722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="2:5" ht="15.75" customHeight="1">
+    <row r="723" ht="15.75" customHeight="1">
       <c r="B723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="2:5" ht="15.75" customHeight="1">
+    <row r="724" ht="15.75" customHeight="1">
       <c r="B724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="2:5" ht="15.75" customHeight="1">
+    <row r="725" ht="15.75" customHeight="1">
       <c r="B725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="2:5" ht="15.75" customHeight="1">
+    <row r="726" ht="15.75" customHeight="1">
       <c r="B726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="2:5" ht="15.75" customHeight="1">
+    <row r="727" ht="15.75" customHeight="1">
       <c r="B727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="2:5" ht="15.75" customHeight="1">
+    <row r="728" ht="15.75" customHeight="1">
       <c r="B728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="2:5" ht="15.75" customHeight="1">
+    <row r="729" ht="15.75" customHeight="1">
       <c r="B729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="2:5" ht="15.75" customHeight="1">
+    <row r="730" ht="15.75" customHeight="1">
       <c r="B730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="2:5" ht="15.75" customHeight="1">
+    <row r="731" ht="15.75" customHeight="1">
       <c r="B731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="2:5" ht="15.75" customHeight="1">
+    <row r="732" ht="15.75" customHeight="1">
       <c r="B732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="2:5" ht="15.75" customHeight="1">
+    <row r="733" ht="15.75" customHeight="1">
       <c r="B733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="2:5" ht="15.75" customHeight="1">
+    <row r="734" ht="15.75" customHeight="1">
       <c r="B734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="2:5" ht="15.75" customHeight="1">
+    <row r="735" ht="15.75" customHeight="1">
       <c r="B735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="2:5" ht="15.75" customHeight="1">
+    <row r="736" ht="15.75" customHeight="1">
       <c r="B736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="2:5" ht="15.75" customHeight="1">
+    <row r="737" ht="15.75" customHeight="1">
       <c r="B737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="2:5" ht="15.75" customHeight="1">
+    <row r="738" ht="15.75" customHeight="1">
       <c r="B738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="2:5" ht="15.75" customHeight="1">
+    <row r="739" ht="15.75" customHeight="1">
       <c r="B739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="2:5" ht="15.75" customHeight="1">
+    <row r="740" ht="15.75" customHeight="1">
       <c r="B740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="2:5" ht="15.75" customHeight="1">
+    <row r="741" ht="15.75" customHeight="1">
       <c r="B741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="2:5" ht="15.75" customHeight="1">
+    <row r="742" ht="15.75" customHeight="1">
       <c r="B742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="2:5" ht="15.75" customHeight="1">
+    <row r="743" ht="15.75" customHeight="1">
       <c r="B743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="2:5" ht="15.75" customHeight="1">
+    <row r="744" ht="15.75" customHeight="1">
       <c r="B744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="2:5" ht="15.75" customHeight="1">
+    <row r="745" ht="15.75" customHeight="1">
       <c r="B745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="2:5" ht="15.75" customHeight="1">
+    <row r="746" ht="15.75" customHeight="1">
       <c r="B746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="2:5" ht="15.75" customHeight="1">
+    <row r="747" ht="15.75" customHeight="1">
       <c r="B747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="2:5" ht="15.75" customHeight="1">
+    <row r="748" ht="15.75" customHeight="1">
       <c r="B748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="2:5" ht="15.75" customHeight="1">
+    <row r="749" ht="15.75" customHeight="1">
       <c r="B749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="2:5" ht="15.75" customHeight="1">
+    <row r="750" ht="15.75" customHeight="1">
       <c r="B750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="2:5" ht="15.75" customHeight="1">
+    <row r="751" ht="15.75" customHeight="1">
       <c r="B751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="2:5" ht="15.75" customHeight="1">
+    <row r="752" ht="15.75" customHeight="1">
       <c r="B752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="2:5" ht="15.75" customHeight="1">
+    <row r="753" ht="15.75" customHeight="1">
       <c r="B753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="2:5" ht="15.75" customHeight="1">
+    <row r="754" ht="15.75" customHeight="1">
       <c r="B754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="2:5" ht="15.75" customHeight="1">
+    <row r="755" ht="15.75" customHeight="1">
       <c r="B755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="2:5" ht="15.75" customHeight="1">
+    <row r="756" ht="15.75" customHeight="1">
       <c r="B756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="2:5" ht="15.75" customHeight="1">
+    <row r="757" ht="15.75" customHeight="1">
       <c r="B757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="2:5" ht="15.75" customHeight="1">
+    <row r="758" ht="15.75" customHeight="1">
       <c r="B758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="2:5" ht="15.75" customHeight="1">
+    <row r="759" ht="15.75" customHeight="1">
       <c r="B759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="2:5" ht="15.75" customHeight="1">
+    <row r="760" ht="15.75" customHeight="1">
       <c r="B760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="2:5" ht="15.75" customHeight="1">
+    <row r="761" ht="15.75" customHeight="1">
       <c r="B761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="2:5" ht="15.75" customHeight="1">
+    <row r="762" ht="15.75" customHeight="1">
       <c r="B762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="2:5" ht="15.75" customHeight="1">
+    <row r="763" ht="15.75" customHeight="1">
       <c r="B763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="2:5" ht="15.75" customHeight="1">
+    <row r="764" ht="15.75" customHeight="1">
       <c r="B764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="2:5" ht="15.75" customHeight="1">
+    <row r="765" ht="15.75" customHeight="1">
       <c r="B765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="2:5" ht="15.75" customHeight="1">
+    <row r="766" ht="15.75" customHeight="1">
       <c r="B766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="2:5" ht="15.75" customHeight="1">
+    <row r="767" ht="15.75" customHeight="1">
       <c r="B767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="2:5" ht="15.75" customHeight="1">
+    <row r="768" ht="15.75" customHeight="1">
       <c r="B768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="2:5" ht="15.75" customHeight="1">
+    <row r="769" ht="15.75" customHeight="1">
       <c r="B769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="2:5" ht="15.75" customHeight="1">
+    <row r="770" ht="15.75" customHeight="1">
       <c r="B770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="2:5" ht="15.75" customHeight="1">
+    <row r="771" ht="15.75" customHeight="1">
       <c r="B771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="2:5" ht="15.75" customHeight="1">
+    <row r="772" ht="15.75" customHeight="1">
       <c r="B772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="2:5" ht="15.75" customHeight="1">
+    <row r="773" ht="15.75" customHeight="1">
       <c r="B773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="2:5" ht="15.75" customHeight="1">
+    <row r="774" ht="15.75" customHeight="1">
       <c r="B774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="2:5" ht="15.75" customHeight="1">
+    <row r="775" ht="15.75" customHeight="1">
       <c r="B775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="2:5" ht="15.75" customHeight="1">
+    <row r="776" ht="15.75" customHeight="1">
       <c r="B776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="2:5" ht="15.75" customHeight="1">
+    <row r="777" ht="15.75" customHeight="1">
       <c r="B777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="2:5" ht="15.75" customHeight="1">
+    <row r="778" ht="15.75" customHeight="1">
       <c r="B778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="2:5" ht="15.75" customHeight="1">
+    <row r="779" ht="15.75" customHeight="1">
       <c r="B779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="2:5" ht="15.75" customHeight="1">
+    <row r="780" ht="15.75" customHeight="1">
       <c r="B780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="2:5" ht="15.75" customHeight="1">
+    <row r="781" ht="15.75" customHeight="1">
       <c r="B781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="2:5" ht="15.75" customHeight="1">
+    <row r="782" ht="15.75" customHeight="1">
       <c r="B782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="2:5" ht="15.75" customHeight="1">
+    <row r="783" ht="15.75" customHeight="1">
       <c r="B783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="2:5" ht="15.75" customHeight="1">
+    <row r="784" ht="15.75" customHeight="1">
       <c r="B784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="2:5" ht="15.75" customHeight="1">
+    <row r="785" ht="15.75" customHeight="1">
       <c r="B785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="2:5" ht="15.75" customHeight="1">
+    <row r="786" ht="15.75" customHeight="1">
       <c r="B786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="2:5" ht="15.75" customHeight="1">
+    <row r="787" ht="15.75" customHeight="1">
       <c r="B787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="2:5" ht="15.75" customHeight="1">
+    <row r="788" ht="15.75" customHeight="1">
       <c r="B788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="2:5" ht="15.75" customHeight="1">
+    <row r="789" ht="15.75" customHeight="1">
       <c r="B789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="2:5" ht="15.75" customHeight="1">
+    <row r="790" ht="15.75" customHeight="1">
       <c r="B790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="2:5" ht="15.75" customHeight="1">
+    <row r="791" ht="15.75" customHeight="1">
       <c r="B791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="2:5" ht="15.75" customHeight="1">
+    <row r="792" ht="15.75" customHeight="1">
       <c r="B792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="2:5" ht="15.75" customHeight="1">
+    <row r="793" ht="15.75" customHeight="1">
       <c r="B793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="2:5" ht="15.75" customHeight="1">
+    <row r="794" ht="15.75" customHeight="1">
       <c r="B794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="2:5" ht="15.75" customHeight="1">
+    <row r="795" ht="15.75" customHeight="1">
       <c r="B795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="2:5" ht="15.75" customHeight="1">
+    <row r="796" ht="15.75" customHeight="1">
       <c r="B796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="2:5" ht="15.75" customHeight="1">
+    <row r="797" ht="15.75" customHeight="1">
       <c r="B797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="2:5" ht="15.75" customHeight="1">
+    <row r="798" ht="15.75" customHeight="1">
       <c r="B798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="2:5" ht="15.75" customHeight="1">
+    <row r="799" ht="15.75" customHeight="1">
       <c r="B799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="2:5" ht="15.75" customHeight="1">
+    <row r="800" ht="15.75" customHeight="1">
       <c r="B800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="2:5" ht="15.75" customHeight="1">
+    <row r="801" ht="15.75" customHeight="1">
       <c r="B801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="2:5" ht="15.75" customHeight="1">
+    <row r="802" ht="15.75" customHeight="1">
       <c r="B802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="2:5" ht="15.75" customHeight="1">
+    <row r="803" ht="15.75" customHeight="1">
       <c r="B803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="2:5" ht="15.75" customHeight="1">
+    <row r="804" ht="15.75" customHeight="1">
       <c r="B804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="2:5" ht="15.75" customHeight="1">
+    <row r="805" ht="15.75" customHeight="1">
       <c r="B805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="2:5" ht="15.75" customHeight="1">
+    <row r="806" ht="15.75" customHeight="1">
       <c r="B806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="2:5" ht="15.75" customHeight="1">
+    <row r="807" ht="15.75" customHeight="1">
       <c r="B807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="2:5" ht="15.75" customHeight="1">
+    <row r="808" ht="15.75" customHeight="1">
       <c r="B808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="2:5" ht="15.75" customHeight="1">
+    <row r="809" ht="15.75" customHeight="1">
       <c r="B809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="2:5" ht="15.75" customHeight="1">
+    <row r="810" ht="15.75" customHeight="1">
       <c r="B810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="2:5" ht="15.75" customHeight="1">
+    <row r="811" ht="15.75" customHeight="1">
       <c r="B811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="2:5" ht="15.75" customHeight="1">
+    <row r="812" ht="15.75" customHeight="1">
       <c r="B812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="2:5" ht="15.75" customHeight="1">
+    <row r="813" ht="15.75" customHeight="1">
       <c r="B813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="2:5" ht="15.75" customHeight="1">
+    <row r="814" ht="15.75" customHeight="1">
       <c r="B814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="2:5" ht="15.75" customHeight="1">
+    <row r="815" ht="15.75" customHeight="1">
       <c r="B815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="2:5" ht="15.75" customHeight="1">
+    <row r="816" ht="15.75" customHeight="1">
       <c r="B816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="2:5" ht="15.75" customHeight="1">
+    <row r="817" ht="15.75" customHeight="1">
       <c r="B817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="2:5" ht="15.75" customHeight="1">
+    <row r="818" ht="15.75" customHeight="1">
       <c r="B818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="2:5" ht="15.75" customHeight="1">
+    <row r="819" ht="15.75" customHeight="1">
       <c r="B819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="2:5" ht="15.75" customHeight="1">
+    <row r="820" ht="15.75" customHeight="1">
       <c r="B820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="2:5" ht="15.75" customHeight="1">
+    <row r="821" ht="15.75" customHeight="1">
       <c r="B821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="2:5" ht="15.75" customHeight="1">
+    <row r="822" ht="15.75" customHeight="1">
       <c r="B822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="2:5" ht="15.75" customHeight="1">
+    <row r="823" ht="15.75" customHeight="1">
       <c r="B823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="2:5" ht="15.75" customHeight="1">
+    <row r="824" ht="15.75" customHeight="1">
       <c r="B824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="2:5" ht="15.75" customHeight="1">
+    <row r="825" ht="15.75" customHeight="1">
       <c r="B825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="2:5" ht="15.75" customHeight="1">
+    <row r="826" ht="15.75" customHeight="1">
       <c r="B826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="2:5" ht="15.75" customHeight="1">
+    <row r="827" ht="15.75" customHeight="1">
       <c r="B827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="2:5" ht="15.75" customHeight="1">
+    <row r="828" ht="15.75" customHeight="1">
       <c r="B828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="2:5" ht="15.75" customHeight="1">
+    <row r="829" ht="15.75" customHeight="1">
       <c r="B829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="2:5" ht="15.75" customHeight="1">
+    <row r="830" ht="15.75" customHeight="1">
       <c r="B830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="2:5" ht="15.75" customHeight="1">
+    <row r="831" ht="15.75" customHeight="1">
       <c r="B831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="2:5" ht="15.75" customHeight="1">
+    <row r="832" ht="15.75" customHeight="1">
       <c r="B832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="2:5" ht="15.75" customHeight="1">
+    <row r="833" ht="15.75" customHeight="1">
       <c r="B833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="2:5" ht="15.75" customHeight="1">
+    <row r="834" ht="15.75" customHeight="1">
       <c r="B834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="2:5" ht="15.75" customHeight="1">
+    <row r="835" ht="15.75" customHeight="1">
       <c r="B835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="2:5" ht="15.75" customHeight="1">
+    <row r="836" ht="15.75" customHeight="1">
       <c r="B836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="2:5" ht="15.75" customHeight="1">
+    <row r="837" ht="15.75" customHeight="1">
       <c r="B837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="2:5" ht="15.75" customHeight="1">
+    <row r="838" ht="15.75" customHeight="1">
       <c r="B838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="2:5" ht="15.75" customHeight="1">
+    <row r="839" ht="15.75" customHeight="1">
       <c r="B839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="2:5" ht="15.75" customHeight="1">
+    <row r="840" ht="15.75" customHeight="1">
       <c r="B840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="2:5" ht="15.75" customHeight="1">
+    <row r="841" ht="15.75" customHeight="1">
       <c r="B841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="2:5" ht="15.75" customHeight="1">
+    <row r="842" ht="15.75" customHeight="1">
       <c r="B842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="2:5" ht="15.75" customHeight="1">
+    <row r="843" ht="15.75" customHeight="1">
       <c r="B843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="2:5" ht="15.75" customHeight="1">
+    <row r="844" ht="15.75" customHeight="1">
       <c r="B844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="2:5" ht="15.75" customHeight="1">
+    <row r="845" ht="15.75" customHeight="1">
       <c r="B845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="2:5" ht="15.75" customHeight="1">
+    <row r="846" ht="15.75" customHeight="1">
       <c r="B846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="2:5" ht="15.75" customHeight="1">
+    <row r="847" ht="15.75" customHeight="1">
       <c r="B847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="2:5" ht="15.75" customHeight="1">
+    <row r="848" ht="15.75" customHeight="1">
       <c r="B848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="2:5" ht="15.75" customHeight="1">
+    <row r="849" ht="15.75" customHeight="1">
       <c r="B849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="2:5" ht="15.75" customHeight="1">
+    <row r="850" ht="15.75" customHeight="1">
       <c r="B850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="2:5" ht="15.75" customHeight="1">
+    <row r="851" ht="15.75" customHeight="1">
       <c r="B851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="2:5" ht="15.75" customHeight="1">
+    <row r="852" ht="15.75" customHeight="1">
       <c r="B852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="2:5" ht="15.75" customHeight="1">
+    <row r="853" ht="15.75" customHeight="1">
       <c r="B853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="2:5" ht="15.75" customHeight="1">
+    <row r="854" ht="15.75" customHeight="1">
       <c r="B854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="2:5" ht="15.75" customHeight="1">
+    <row r="855" ht="15.75" customHeight="1">
       <c r="B855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="2:5" ht="15.75" customHeight="1">
+    <row r="856" ht="15.75" customHeight="1">
       <c r="B856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="2:5" ht="15.75" customHeight="1">
+    <row r="857" ht="15.75" customHeight="1">
       <c r="B857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="2:5" ht="15.75" customHeight="1">
+    <row r="858" ht="15.75" customHeight="1">
       <c r="B858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="2:5" ht="15.75" customHeight="1">
+    <row r="859" ht="15.75" customHeight="1">
       <c r="B859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="2:5" ht="15.75" customHeight="1">
+    <row r="860" ht="15.75" customHeight="1">
       <c r="B860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="2:5" ht="15.75" customHeight="1">
+    <row r="861" ht="15.75" customHeight="1">
       <c r="B861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="2:5" ht="15.75" customHeight="1">
+    <row r="862" ht="15.75" customHeight="1">
       <c r="B862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="2:5" ht="15.75" customHeight="1">
+    <row r="863" ht="15.75" customHeight="1">
       <c r="B863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="2:5" ht="15.75" customHeight="1">
+    <row r="864" ht="15.75" customHeight="1">
       <c r="B864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="2:5" ht="15.75" customHeight="1">
+    <row r="865" ht="15.75" customHeight="1">
       <c r="B865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="2:5" ht="15.75" customHeight="1">
+    <row r="866" ht="15.75" customHeight="1">
       <c r="B866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="2:5" ht="15.75" customHeight="1">
+    <row r="867" ht="15.75" customHeight="1">
       <c r="B867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="2:5" ht="15.75" customHeight="1">
+    <row r="868" ht="15.75" customHeight="1">
       <c r="B868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="2:5" ht="15.75" customHeight="1">
+    <row r="869" ht="15.75" customHeight="1">
       <c r="B869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="2:5" ht="15.75" customHeight="1">
+    <row r="870" ht="15.75" customHeight="1">
       <c r="B870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="2:5" ht="15.75" customHeight="1">
+    <row r="871" ht="15.75" customHeight="1">
       <c r="B871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="2:5" ht="15.75" customHeight="1">
+    <row r="872" ht="15.75" customHeight="1">
       <c r="B872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="2:5" ht="15.75" customHeight="1">
+    <row r="873" ht="15.75" customHeight="1">
       <c r="B873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="2:5" ht="15.75" customHeight="1">
+    <row r="874" ht="15.75" customHeight="1">
       <c r="B874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="2:5" ht="15.75" customHeight="1">
+    <row r="875" ht="15.75" customHeight="1">
       <c r="B875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="2:5" ht="15.75" customHeight="1">
+    <row r="876" ht="15.75" customHeight="1">
       <c r="B876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="2:5" ht="15.75" customHeight="1">
+    <row r="877" ht="15.75" customHeight="1">
       <c r="B877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="2:5" ht="15.75" customHeight="1">
+    <row r="878" ht="15.75" customHeight="1">
       <c r="B878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="2:5" ht="15.75" customHeight="1">
+    <row r="879" ht="15.75" customHeight="1">
       <c r="B879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="2:5" ht="15.75" customHeight="1">
+    <row r="880" ht="15.75" customHeight="1">
       <c r="B880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="2:5" ht="15.75" customHeight="1">
+    <row r="881" ht="15.75" customHeight="1">
       <c r="B881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" spans="2:5" ht="15.75" customHeight="1">
+    <row r="882" ht="15.75" customHeight="1">
       <c r="B882" s="1"/>
       <c r="E882" s="1"/>
     </row>
-    <row r="883" spans="2:5" ht="15.75" customHeight="1">
+    <row r="883" ht="15.75" customHeight="1">
       <c r="B883" s="1"/>
       <c r="E883" s="1"/>
     </row>
-    <row r="884" spans="2:5" ht="15.75" customHeight="1">
+    <row r="884" ht="15.75" customHeight="1">
       <c r="B884" s="1"/>
       <c r="E884" s="1"/>
     </row>
-    <row r="885" spans="2:5" ht="15.75" customHeight="1">
+    <row r="885" ht="15.75" customHeight="1">
       <c r="B885" s="1"/>
       <c r="E885" s="1"/>
     </row>
-    <row r="886" spans="2:5" ht="15.75" customHeight="1">
+    <row r="886" ht="15.75" customHeight="1">
       <c r="B886" s="1"/>
       <c r="E886" s="1"/>
     </row>
-    <row r="887" spans="2:5" ht="15.75" customHeight="1">
+    <row r="887" ht="15.75" customHeight="1">
       <c r="B887" s="1"/>
       <c r="E887" s="1"/>
     </row>
-    <row r="888" spans="2:5" ht="15.75" customHeight="1">
+    <row r="888" ht="15.75" customHeight="1">
       <c r="B888" s="1"/>
       <c r="E888" s="1"/>
     </row>
-    <row r="889" spans="2:5" ht="15.75" customHeight="1">
+    <row r="889" ht="15.75" customHeight="1">
       <c r="B889" s="1"/>
       <c r="E889" s="1"/>
     </row>
-    <row r="890" spans="2:5" ht="15.75" customHeight="1">
+    <row r="890" ht="15.75" customHeight="1">
       <c r="B890" s="1"/>
       <c r="E890" s="1"/>
     </row>
-    <row r="891" spans="2:5" ht="15.75" customHeight="1">
+    <row r="891" ht="15.75" customHeight="1">
       <c r="B891" s="1"/>
       <c r="E891" s="1"/>
     </row>
-    <row r="892" spans="2:5" ht="15.75" customHeight="1">
+    <row r="892" ht="15.75" customHeight="1">
       <c r="B892" s="1"/>
       <c r="E892" s="1"/>
     </row>
-    <row r="893" spans="2:5" ht="15.75" customHeight="1">
+    <row r="893" ht="15.75" customHeight="1">
       <c r="B893" s="1"/>
       <c r="E893" s="1"/>
     </row>
-    <row r="894" spans="2:5" ht="15.75" customHeight="1">
+    <row r="894" ht="15.75" customHeight="1">
       <c r="B894" s="1"/>
       <c r="E894" s="1"/>
     </row>
-    <row r="895" spans="2:5" ht="15.75" customHeight="1">
+    <row r="895" ht="15.75" customHeight="1">
       <c r="B895" s="1"/>
       <c r="E895" s="1"/>
     </row>
-    <row r="896" spans="2:5" ht="15.75" customHeight="1">
+    <row r="896" ht="15.75" customHeight="1">
       <c r="B896" s="1"/>
       <c r="E896" s="1"/>
     </row>
-    <row r="897" spans="2:5" ht="15.75" customHeight="1">
+    <row r="897" ht="15.75" customHeight="1">
       <c r="B897" s="1"/>
       <c r="E897" s="1"/>
     </row>
-    <row r="898" spans="2:5" ht="15.75" customHeight="1">
+    <row r="898" ht="15.75" customHeight="1">
       <c r="B898" s="1"/>
       <c r="E898" s="1"/>
     </row>
-    <row r="899" spans="2:5" ht="15.75" customHeight="1">
+    <row r="899" ht="15.75" customHeight="1">
       <c r="B899" s="1"/>
       <c r="E899" s="1"/>
     </row>
-    <row r="900" spans="2:5" ht="15.75" customHeight="1">
+    <row r="900" ht="15.75" customHeight="1">
       <c r="B900" s="1"/>
       <c r="E900" s="1"/>
     </row>
-    <row r="901" spans="2:5" ht="15.75" customHeight="1">
+    <row r="901" ht="15.75" customHeight="1">
       <c r="B901" s="1"/>
       <c r="E901" s="1"/>
     </row>
-    <row r="902" spans="2:5" ht="15.75" customHeight="1">
+    <row r="902" ht="15.75" customHeight="1">
       <c r="B902" s="1"/>
       <c r="E902" s="1"/>
     </row>
-    <row r="903" spans="2:5" ht="15.75" customHeight="1">
+    <row r="903" ht="15.75" customHeight="1">
       <c r="B903" s="1"/>
       <c r="E903" s="1"/>
     </row>
-    <row r="904" spans="2:5" ht="15.75" customHeight="1">
+    <row r="904" ht="15.75" customHeight="1">
       <c r="B904" s="1"/>
       <c r="E904" s="1"/>
     </row>
-    <row r="905" spans="2:5" ht="15.75" customHeight="1">
+    <row r="905" ht="15.75" customHeight="1">
       <c r="B905" s="1"/>
       <c r="E905" s="1"/>
     </row>
-    <row r="906" spans="2:5" ht="15.75" customHeight="1">
+    <row r="906" ht="15.75" customHeight="1">
       <c r="B906" s="1"/>
       <c r="E906" s="1"/>
     </row>
-    <row r="907" spans="2:5" ht="15.75" customHeight="1">
+    <row r="907" ht="15.75" customHeight="1">
       <c r="B907" s="1"/>
       <c r="E907" s="1"/>
     </row>
-    <row r="908" spans="2:5" ht="15.75" customHeight="1">
+    <row r="908" ht="15.75" customHeight="1">
       <c r="B908" s="1"/>
       <c r="E908" s="1"/>
     </row>
-    <row r="909" spans="2:5" ht="15.75" customHeight="1">
+    <row r="909" ht="15.75" customHeight="1">
       <c r="B909" s="1"/>
       <c r="E909" s="1"/>
     </row>
-    <row r="910" spans="2:5" ht="15.75" customHeight="1">
+    <row r="910" ht="15.75" customHeight="1">
       <c r="B910" s="1"/>
       <c r="E910" s="1"/>
     </row>
-    <row r="911" spans="2:5" ht="15.75" customHeight="1">
+    <row r="911" ht="15.75" customHeight="1">
       <c r="B911" s="1"/>
       <c r="E911" s="1"/>
     </row>
-    <row r="912" spans="2:5" ht="15.75" customHeight="1">
+    <row r="912" ht="15.75" customHeight="1">
       <c r="B912" s="1"/>
       <c r="E912" s="1"/>
     </row>
-    <row r="913" spans="2:5" ht="15.75" customHeight="1">
+    <row r="913" ht="15.75" customHeight="1">
       <c r="B913" s="1"/>
       <c r="E913" s="1"/>
     </row>
-    <row r="914" spans="2:5" ht="15.75" customHeight="1">
+    <row r="914" ht="15.75" customHeight="1">
       <c r="B914" s="1"/>
       <c r="E914" s="1"/>
     </row>
-    <row r="915" spans="2:5" ht="15.75" customHeight="1">
+    <row r="915" ht="15.75" customHeight="1">
       <c r="B915" s="1"/>
       <c r="E915" s="1"/>
     </row>
-    <row r="916" spans="2:5" ht="15.75" customHeight="1">
+    <row r="916" ht="15.75" customHeight="1">
       <c r="B916" s="1"/>
       <c r="E916" s="1"/>
     </row>
-    <row r="917" spans="2:5" ht="15.75" customHeight="1">
+    <row r="917" ht="15.75" customHeight="1">
       <c r="B917" s="1"/>
       <c r="E917" s="1"/>
     </row>
-    <row r="918" spans="2:5" ht="15.75" customHeight="1">
+    <row r="918" ht="15.75" customHeight="1">
       <c r="B918" s="1"/>
       <c r="E918" s="1"/>
     </row>
-    <row r="919" spans="2:5" ht="15.75" customHeight="1">
+    <row r="919" ht="15.75" customHeight="1">
       <c r="B919" s="1"/>
       <c r="E919" s="1"/>
     </row>
-    <row r="920" spans="2:5" ht="15.75" customHeight="1">
+    <row r="920" ht="15.75" customHeight="1">
       <c r="B920" s="1"/>
       <c r="E920" s="1"/>
     </row>
-    <row r="921" spans="2:5" ht="15.75" customHeight="1">
+    <row r="921" ht="15.75" customHeight="1">
       <c r="B921" s="1"/>
       <c r="E921" s="1"/>
     </row>
-    <row r="922" spans="2:5" ht="15.75" customHeight="1">
+    <row r="922" ht="15.75" customHeight="1">
       <c r="B922" s="1"/>
       <c r="E922" s="1"/>
     </row>
-    <row r="923" spans="2:5" ht="15.75" customHeight="1">
+    <row r="923" ht="15.75" customHeight="1">
       <c r="B923" s="1"/>
       <c r="E923" s="1"/>
     </row>
-    <row r="924" spans="2:5" ht="15.75" customHeight="1">
+    <row r="924" ht="15.75" customHeight="1">
       <c r="B924" s="1"/>
       <c r="E924" s="1"/>
     </row>
-    <row r="925" spans="2:5" ht="15.75" customHeight="1">
+    <row r="925" ht="15.75" customHeight="1">
       <c r="B925" s="1"/>
       <c r="E925" s="1"/>
     </row>
-    <row r="926" spans="2:5" ht="15.75" customHeight="1">
+    <row r="926" ht="15.75" customHeight="1">
       <c r="B926" s="1"/>
       <c r="E926" s="1"/>
     </row>
-    <row r="927" spans="2:5" ht="15.75" customHeight="1">
+    <row r="927" ht="15.75" customHeight="1">
       <c r="B927" s="1"/>
       <c r="E927" s="1"/>
     </row>
-    <row r="928" spans="2:5" ht="15.75" customHeight="1">
+    <row r="928" ht="15.75" customHeight="1">
       <c r="B928" s="1"/>
       <c r="E928" s="1"/>
     </row>
-    <row r="929" spans="2:5" ht="15.75" customHeight="1">
+    <row r="929" ht="15.75" customHeight="1">
       <c r="B929" s="1"/>
       <c r="E929" s="1"/>
     </row>
-    <row r="930" spans="2:5" ht="15.75" customHeight="1">
+    <row r="930" ht="15.75" customHeight="1">
       <c r="B930" s="1"/>
       <c r="E930" s="1"/>
     </row>
-    <row r="931" spans="2:5" ht="15.75" customHeight="1">
+    <row r="931" ht="15.75" customHeight="1">
       <c r="B931" s="1"/>
       <c r="E931" s="1"/>
     </row>
-    <row r="932" spans="2:5" ht="15.75" customHeight="1">
+    <row r="932" ht="15.75" customHeight="1">
       <c r="B932" s="1"/>
       <c r="E932" s="1"/>
     </row>
-    <row r="933" spans="2:5" ht="15.75" customHeight="1">
+    <row r="933" ht="15.75" customHeight="1">
       <c r="B933" s="1"/>
       <c r="E933" s="1"/>
     </row>
-    <row r="934" spans="2:5" ht="15.75" customHeight="1">
+    <row r="934" ht="15.75" customHeight="1">
       <c r="B934" s="1"/>
       <c r="E934" s="1"/>
     </row>
-    <row r="935" spans="2:5" ht="15.75" customHeight="1">
+    <row r="935" ht="15.75" customHeight="1">
       <c r="B935" s="1"/>
       <c r="E935" s="1"/>
     </row>
-    <row r="936" spans="2:5" ht="15.75" customHeight="1">
+    <row r="936" ht="15.75" customHeight="1">
       <c r="B936" s="1"/>
       <c r="E936" s="1"/>
     </row>
-    <row r="937" spans="2:5" ht="15.75" customHeight="1">
+    <row r="937" ht="15.75" customHeight="1">
       <c r="B937" s="1"/>
       <c r="E937" s="1"/>
     </row>
-    <row r="938" spans="2:5" ht="15.75" customHeight="1">
+    <row r="938" ht="15.75" customHeight="1">
       <c r="B938" s="1"/>
       <c r="E938" s="1"/>
     </row>
-    <row r="939" spans="2:5" ht="15.75" customHeight="1">
+    <row r="939" ht="15.75" customHeight="1">
       <c r="B939" s="1"/>
       <c r="E939" s="1"/>
     </row>
-    <row r="940" spans="2:5" ht="15.75" customHeight="1">
+    <row r="940" ht="15.75" customHeight="1">
       <c r="B940" s="1"/>
       <c r="E940" s="1"/>
     </row>
-    <row r="941" spans="2:5" ht="15.75" customHeight="1">
+    <row r="941" ht="15.75" customHeight="1">
       <c r="B941" s="1"/>
       <c r="E941" s="1"/>
     </row>
-    <row r="942" spans="2:5" ht="15.75" customHeight="1">
+    <row r="942" ht="15.75" customHeight="1">
       <c r="B942" s="1"/>
       <c r="E942" s="1"/>
     </row>
-    <row r="943" spans="2:5" ht="15.75" customHeight="1">
+    <row r="943" ht="15.75" customHeight="1">
       <c r="B943" s="1"/>
       <c r="E943" s="1"/>
     </row>
-    <row r="944" spans="2:5" ht="15.75" customHeight="1">
+    <row r="944" ht="15.75" customHeight="1">
       <c r="B944" s="1"/>
       <c r="E944" s="1"/>
     </row>
-    <row r="945" spans="2:5" ht="15.75" customHeight="1">
+    <row r="945" ht="15.75" customHeight="1">
       <c r="B945" s="1"/>
       <c r="E945" s="1"/>
     </row>
-    <row r="946" spans="2:5" ht="15.75" customHeight="1">
+    <row r="946" ht="15.75" customHeight="1">
       <c r="B946" s="1"/>
       <c r="E946" s="1"/>
     </row>
-    <row r="947" spans="2:5" ht="15.75" customHeight="1">
+    <row r="947" ht="15.75" customHeight="1">
       <c r="B947" s="1"/>
       <c r="E947" s="1"/>
     </row>
-    <row r="948" spans="2:5" ht="15.75" customHeight="1">
+    <row r="948" ht="15.75" customHeight="1">
       <c r="B948" s="1"/>
       <c r="E948" s="1"/>
     </row>
-    <row r="949" spans="2:5" ht="15.75" customHeight="1">
+    <row r="949" ht="15.75" customHeight="1">
       <c r="B949" s="1"/>
       <c r="E949" s="1"/>
     </row>
-    <row r="950" spans="2:5" ht="15.75" customHeight="1">
+    <row r="950" ht="15.75" customHeight="1">
       <c r="B950" s="1"/>
       <c r="E950" s="1"/>
     </row>
-    <row r="951" spans="2:5" ht="15.75" customHeight="1">
+    <row r="951" ht="15.75" customHeight="1">
       <c r="B951" s="1"/>
       <c r="E951" s="1"/>
     </row>
-    <row r="952" spans="2:5" ht="15.75" customHeight="1">
+    <row r="952" ht="15.75" customHeight="1">
       <c r="B952" s="1"/>
       <c r="E952" s="1"/>
     </row>
-    <row r="953" spans="2:5" ht="15.75" customHeight="1">
+    <row r="953" ht="15.75" customHeight="1">
       <c r="B953" s="1"/>
       <c r="E953" s="1"/>
     </row>
-    <row r="954" spans="2:5" ht="15.75" customHeight="1">
+    <row r="954" ht="15.75" customHeight="1">
       <c r="B954" s="1"/>
       <c r="E954" s="1"/>
     </row>
-    <row r="955" spans="2:5" ht="15.75" customHeight="1">
+    <row r="955" ht="15.75" customHeight="1">
       <c r="B955" s="1"/>
       <c r="E955" s="1"/>
     </row>
-    <row r="956" spans="2:5" ht="15.75" customHeight="1">
+    <row r="956" ht="15.75" customHeight="1">
       <c r="B956" s="1"/>
       <c r="E956" s="1"/>
     </row>
-    <row r="957" spans="2:5" ht="15.75" customHeight="1">
+    <row r="957" ht="15.75" customHeight="1">
       <c r="B957" s="1"/>
       <c r="E957" s="1"/>
     </row>
-    <row r="958" spans="2:5" ht="15.75" customHeight="1">
+    <row r="958" ht="15.75" customHeight="1">
       <c r="B958" s="1"/>
       <c r="E958" s="1"/>
     </row>
-    <row r="959" spans="2:5" ht="15.75" customHeight="1">
+    <row r="959" ht="15.75" customHeight="1">
       <c r="B959" s="1"/>
       <c r="E959" s="1"/>
     </row>
-    <row r="960" spans="2:5" ht="15.75" customHeight="1">
+    <row r="960" ht="15.75" customHeight="1">
       <c r="B960" s="1"/>
       <c r="E960" s="1"/>
     </row>
-    <row r="961" spans="2:5" ht="15.75" customHeight="1">
+    <row r="961" ht="15.75" customHeight="1">
       <c r="B961" s="1"/>
       <c r="E961" s="1"/>
     </row>
-    <row r="962" spans="2:5" ht="15.75" customHeight="1">
+    <row r="962" ht="15.75" customHeight="1">
       <c r="B962" s="1"/>
       <c r="E962" s="1"/>
     </row>
-    <row r="963" spans="2:5" ht="15.75" customHeight="1">
+    <row r="963" ht="15.75" customHeight="1">
       <c r="B963" s="1"/>
       <c r="E963" s="1"/>
     </row>
-    <row r="964" spans="2:5" ht="15.75" customHeight="1">
+    <row r="964" ht="15.75" customHeight="1">
       <c r="B964" s="1"/>
       <c r="E964" s="1"/>
     </row>
-    <row r="965" spans="2:5" ht="15.75" customHeight="1">
+    <row r="965" ht="15.75" customHeight="1">
       <c r="B965" s="1"/>
       <c r="E965" s="1"/>
     </row>
-    <row r="966" spans="2:5" ht="15.75" customHeight="1">
+    <row r="966" ht="15.75" customHeight="1">
       <c r="B966" s="1"/>
       <c r="E966" s="1"/>
     </row>
-    <row r="967" spans="2:5" ht="15.75" customHeight="1">
+    <row r="967" ht="15.75" customHeight="1">
       <c r="B967" s="1"/>
       <c r="E967" s="1"/>
     </row>
-    <row r="968" spans="2:5" ht="15.75" customHeight="1">
+    <row r="968" ht="15.75" customHeight="1">
       <c r="B968" s="1"/>
       <c r="E968" s="1"/>
     </row>
-    <row r="969" spans="2:5" ht="15.75" customHeight="1">
+    <row r="969" ht="15.75" customHeight="1">
       <c r="B969" s="1"/>
       <c r="E969" s="1"/>
     </row>
-    <row r="970" spans="2:5" ht="15.75" customHeight="1">
+    <row r="970" ht="15.75" customHeight="1">
       <c r="B970" s="1"/>
       <c r="E970" s="1"/>
     </row>
-    <row r="971" spans="2:5" ht="15.75" customHeight="1">
+    <row r="971" ht="15.75" customHeight="1">
       <c r="B971" s="1"/>
       <c r="E971" s="1"/>
     </row>
-    <row r="972" spans="2:5" ht="15.75" customHeight="1">
+    <row r="972" ht="15.75" customHeight="1">
       <c r="B972" s="1"/>
       <c r="E972" s="1"/>
     </row>
-    <row r="973" spans="2:5" ht="15.75" customHeight="1">
+    <row r="973" ht="15.75" customHeight="1">
       <c r="B973" s="1"/>
       <c r="E973" s="1"/>
     </row>
-    <row r="974" spans="2:5" ht="15.75" customHeight="1">
+    <row r="974" ht="15.75" customHeight="1">
       <c r="B974" s="1"/>
       <c r="E974" s="1"/>
     </row>
-    <row r="975" spans="2:5" ht="15.75" customHeight="1">
+    <row r="975" ht="15.75" customHeight="1">
       <c r="B975" s="1"/>
       <c r="E975" s="1"/>
     </row>
-    <row r="976" spans="2:5" ht="15.75" customHeight="1">
+    <row r="976" ht="15.75" customHeight="1">
       <c r="B976" s="1"/>
       <c r="E976" s="1"/>
     </row>
-    <row r="977" spans="2:5" ht="15.75" customHeight="1">
+    <row r="977" ht="15.75" customHeight="1">
       <c r="B977" s="1"/>
       <c r="E977" s="1"/>
     </row>
-    <row r="978" spans="2:5" ht="15.75" customHeight="1">
+    <row r="978" ht="15.75" customHeight="1">
       <c r="B978" s="1"/>
       <c r="E978" s="1"/>
     </row>
-    <row r="979" spans="2:5" ht="15.75" customHeight="1">
+    <row r="979" ht="15.75" customHeight="1">
       <c r="B979" s="1"/>
       <c r="E979" s="1"/>
     </row>
-    <row r="980" spans="2:5" ht="15.75" customHeight="1">
+    <row r="980" ht="15.75" customHeight="1">
       <c r="B980" s="1"/>
       <c r="E980" s="1"/>
     </row>
-    <row r="981" spans="2:5" ht="15.75" customHeight="1">
+    <row r="981" ht="15.75" customHeight="1">
       <c r="B981" s="1"/>
       <c r="E981" s="1"/>
     </row>
-    <row r="982" spans="2:5" ht="15.75" customHeight="1">
+    <row r="982" ht="15.75" customHeight="1">
       <c r="B982" s="1"/>
       <c r="E982" s="1"/>
     </row>
-    <row r="983" spans="2:5" ht="15.75" customHeight="1">
+    <row r="983" ht="15.75" customHeight="1">
       <c r="B983" s="1"/>
       <c r="E983" s="1"/>
     </row>
-    <row r="984" spans="2:5" ht="15.75" customHeight="1">
+    <row r="984" ht="15.75" customHeight="1">
       <c r="B984" s="1"/>
       <c r="E984" s="1"/>
     </row>
-    <row r="985" spans="2:5" ht="15.75" customHeight="1">
+    <row r="985" ht="15.75" customHeight="1">
       <c r="B985" s="1"/>
       <c r="E985" s="1"/>
     </row>
-    <row r="986" spans="2:5" ht="15.75" customHeight="1">
+    <row r="986" ht="15.75" customHeight="1">
       <c r="B986" s="1"/>
       <c r="E986" s="1"/>
     </row>
-    <row r="987" spans="2:5" ht="15.75" customHeight="1">
+    <row r="987" ht="15.75" customHeight="1">
       <c r="B987" s="1"/>
       <c r="E987" s="1"/>
     </row>
-    <row r="988" spans="2:5" ht="15.75" customHeight="1">
+    <row r="988" ht="15.75" customHeight="1">
       <c r="B988" s="1"/>
       <c r="E988" s="1"/>
     </row>
-    <row r="989" spans="2:5" ht="15.75" customHeight="1">
+    <row r="989" ht="15.75" customHeight="1">
       <c r="B989" s="1"/>
       <c r="E989" s="1"/>
     </row>
-    <row r="990" spans="2:5" ht="15.75" customHeight="1">
+    <row r="990" ht="15.75" customHeight="1">
       <c r="B990" s="1"/>
       <c r="E990" s="1"/>
     </row>
-    <row r="991" spans="2:5" ht="15.75" customHeight="1">
+    <row r="991" ht="15.75" customHeight="1">
       <c r="B991" s="1"/>
       <c r="E991" s="1"/>
     </row>
-    <row r="992" spans="2:5" ht="15.75" customHeight="1">
+    <row r="992" ht="15.75" customHeight="1">
       <c r="B992" s="1"/>
       <c r="E992" s="1"/>
     </row>
-    <row r="993" spans="2:5" ht="15.75" customHeight="1">
+    <row r="993" ht="15.75" customHeight="1">
       <c r="B993" s="1"/>
       <c r="E993" s="1"/>
     </row>
-    <row r="994" spans="2:5" ht="15.75" customHeight="1">
+    <row r="994" ht="15.75" customHeight="1">
       <c r="B994" s="1"/>
       <c r="E994" s="1"/>
     </row>
-    <row r="995" spans="2:5" ht="15.75" customHeight="1">
+    <row r="995" ht="15.75" customHeight="1">
       <c r="B995" s="1"/>
       <c r="E995" s="1"/>
     </row>
-    <row r="996" spans="2:5" ht="15.75" customHeight="1">
+    <row r="996" ht="15.75" customHeight="1">
       <c r="B996" s="1"/>
       <c r="E996" s="1"/>
     </row>
-    <row r="997" spans="2:5" ht="15.75" customHeight="1">
+    <row r="997" ht="15.75" customHeight="1">
       <c r="B997" s="1"/>
       <c r="E997" s="1"/>
     </row>
-    <row r="998" spans="2:5" ht="15.75" customHeight="1">
+    <row r="998" ht="15.75" customHeight="1">
       <c r="B998" s="1"/>
       <c r="E998" s="1"/>
     </row>
-    <row r="999" spans="2:5" ht="15.75" customHeight="1">
+    <row r="999" ht="15.75" customHeight="1">
       <c r="B999" s="1"/>
       <c r="E999" s="1"/>
     </row>
-    <row r="1000" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1000" ht="15.75" customHeight="1">
       <c r="B1000" s="1"/>
       <c r="E1000" s="1"/>
     </row>
-    <row r="1001" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1001" ht="15.75" customHeight="1">
       <c r="B1001" s="1"/>
       <c r="E1001" s="1"/>
     </row>
-    <row r="1002" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1002" ht="15.75" customHeight="1">
       <c r="B1002" s="1"/>
       <c r="E1002" s="1"/>
     </row>
-    <row r="1003" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1003" ht="15.75" customHeight="1">
       <c r="B1003" s="1"/>
       <c r="E1003" s="1"/>
     </row>
-    <row r="1004" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1004" ht="15.75" customHeight="1">
       <c r="B1004" s="1"/>
       <c r="E1004" s="1"/>
     </row>
-    <row r="1005" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1005" ht="15.75" customHeight="1">
       <c r="B1005" s="1"/>
       <c r="E1005" s="1"/>
     </row>
-    <row r="1006" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1006" ht="15.75" customHeight="1">
       <c r="B1006" s="1"/>
       <c r="E1006" s="1"/>
     </row>
-    <row r="1007" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1007" ht="15.75" customHeight="1">
       <c r="B1007" s="1"/>
       <c r="E1007" s="1"/>
     </row>
-    <row r="1008" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1008" ht="15.75" customHeight="1">
       <c r="B1008" s="1"/>
       <c r="E1008" s="1"/>
     </row>
-    <row r="1009" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1009" ht="15.75" customHeight="1">
       <c r="B1009" s="1"/>
       <c r="E1009" s="1"/>
     </row>
-    <row r="1010" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1010" ht="15.75" customHeight="1">
       <c r="B1010" s="1"/>
       <c r="E1010" s="1"/>
     </row>
-    <row r="1011" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1011" ht="15.75" customHeight="1">
       <c r="B1011" s="1"/>
       <c r="E1011" s="1"/>
     </row>
-    <row r="1012" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1012" ht="15.75" customHeight="1">
       <c r="B1012" s="1"/>
       <c r="E1012" s="1"/>
     </row>
-    <row r="1013" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1013" ht="15.75" customHeight="1">
       <c r="B1013" s="1"/>
       <c r="E1013" s="1"/>
     </row>
-    <row r="1014" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1014" ht="15.75" customHeight="1">
       <c r="B1014" s="1"/>
       <c r="E1014" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B58:I58"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B25:B31"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId1" ref="C6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>